--- a/database/industries/khodro/khedizel/product/monthly_seprated.xlsx
+++ b/database/industries/khodro/khedizel/product/monthly_seprated.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1490,92 +1490,92 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>20</v>
       </c>
       <c r="AA11" s="11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="AB11" s="11">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="AC11" s="11">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AD11" s="11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AE11" s="11">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="AF11" s="11">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="AG11" s="11">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="AH11" s="11">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="AI11" s="11">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="AJ11" s="11">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="AK11" s="11">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="AL11" s="11">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="AM11" s="11">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="AN11" s="11">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="AO11" s="11">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="AP11" s="11">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="AQ11" s="11">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="AR11" s="11">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="AS11" s="11">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="AT11" s="11">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="AU11" s="11">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="AV11" s="11">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="AW11" s="11">
-        <v>235</v>
+        <v>327</v>
       </c>
       <c r="AX11" s="11">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="AY11" s="11">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="AZ11" s="11">
-        <v>169</v>
+        <v>328</v>
       </c>
       <c r="BA11" s="11">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="BB11" s="11">
-        <v>207</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.25">
@@ -1649,14 +1649,14 @@
       <c r="Y12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Z12" s="13">
+        <v>0</v>
       </c>
       <c r="AA12" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="13">
         <v>0</v>
@@ -1665,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="AE12" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AF12" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="13">
         <v>0</v>
@@ -1679,8 +1679,8 @@
       <c r="AI12" s="13">
         <v>0</v>
       </c>
-      <c r="AJ12" s="13">
-        <v>0</v>
+      <c r="AJ12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK12" s="13" t="s">
         <v>58</v>
@@ -1694,35 +1694,35 @@
       <c r="AN12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO12" s="13" t="s">
-        <v>58</v>
+      <c r="AO12" s="13">
+        <v>1</v>
       </c>
       <c r="AP12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT12" s="13">
         <v>1</v>
       </c>
-      <c r="AQ12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT12" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AU12" s="13">
-        <v>1</v>
-      </c>
-      <c r="AV12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX12" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>0</v>
       </c>
       <c r="AY12" s="13">
         <v>0</v>
@@ -1835,44 +1835,44 @@
       <c r="AH13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI13" s="11" t="s">
-        <v>58</v>
+      <c r="AI13" s="11">
+        <v>10</v>
       </c>
       <c r="AJ13" s="11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK13" s="11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AL13" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AM13" s="11">
+        <v>19</v>
+      </c>
+      <c r="AN13" s="11">
         <v>25</v>
       </c>
-      <c r="AN13" s="11">
-        <v>19</v>
-      </c>
       <c r="AO13" s="11">
-        <v>25</v>
-      </c>
-      <c r="AP13" s="11">
         <v>16</v>
       </c>
-      <c r="AQ13" s="11" t="s">
-        <v>58</v>
+      <c r="AP13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>36</v>
       </c>
       <c r="AR13" s="11">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AS13" s="11">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AT13" s="11">
-        <v>56</v>
-      </c>
-      <c r="AU13" s="11">
         <v>41</v>
+      </c>
+      <c r="AU13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV13" s="11" t="s">
         <v>58</v>
@@ -1967,92 +1967,92 @@
       <c r="Y14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Z14" s="13">
+        <v>4</v>
       </c>
       <c r="AA14" s="13">
         <v>4</v>
       </c>
       <c r="AB14" s="13">
+        <v>40</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>12</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>38</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>23</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="13">
         <v>4</v>
       </c>
-      <c r="AC14" s="13">
-        <v>40</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="13">
+      <c r="AJ14" s="13">
+        <v>8</v>
+      </c>
+      <c r="AK14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL14" s="13">
         <v>12</v>
       </c>
-      <c r="AG14" s="13">
-        <v>38</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>23</v>
-      </c>
-      <c r="AI14" s="13">
+      <c r="AM14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>49</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>30</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>24</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>47</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>101</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>5</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>25</v>
+      </c>
+      <c r="AW14" s="13">
+        <v>72</v>
+      </c>
+      <c r="AX14" s="13">
         <v>1</v>
       </c>
-      <c r="AJ14" s="13">
-        <v>4</v>
-      </c>
-      <c r="AK14" s="13">
+      <c r="AY14" s="13">
         <v>8</v>
       </c>
-      <c r="AL14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>12</v>
-      </c>
-      <c r="AN14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>49</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>30</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>24</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>47</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>101</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>5</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>25</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>72</v>
-      </c>
-      <c r="AY14" s="13">
-        <v>1</v>
-      </c>
       <c r="AZ14" s="13">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="BA14" s="13">
         <v>88</v>
       </c>
       <c r="BB14" s="13">
-        <v>88</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="2:54" x14ac:dyDescent="0.25">
@@ -2126,38 +2126,38 @@
       <c r="Y15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>58</v>
+      <c r="Z15" s="11">
+        <v>53</v>
       </c>
       <c r="AA15" s="11">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="AB15" s="11">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="AC15" s="11">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AD15" s="11">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE15" s="11">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="AF15" s="11">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AG15" s="11">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AH15" s="11">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AI15" s="11">
-        <v>155</v>
-      </c>
-      <c r="AJ15" s="11">
         <v>37</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK15" s="11" t="s">
         <v>58</v>
@@ -2285,8 +2285,8 @@
       <c r="Y16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z16" s="13" t="s">
-        <v>58</v>
+      <c r="Z16" s="13">
+        <v>0</v>
       </c>
       <c r="AA16" s="13">
         <v>0</v>
@@ -2312,8 +2312,8 @@
       <c r="AH16" s="13">
         <v>0</v>
       </c>
-      <c r="AI16" s="13">
-        <v>0</v>
+      <c r="AI16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ16" s="13" t="s">
         <v>58</v>
@@ -2339,38 +2339,38 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
+      <c r="AR16" s="13">
+        <v>13</v>
       </c>
       <c r="AS16" s="13">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AT16" s="13">
-        <v>18</v>
-      </c>
-      <c r="AU16" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>36</v>
       </c>
       <c r="AV16" s="13">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AW16" s="13">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="AX16" s="13">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="AY16" s="13">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AZ16" s="13">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="BA16" s="13">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BB16" s="13">
-        <v>131</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.25">
@@ -2444,92 +2444,92 @@
       <c r="Y17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Z17" s="11">
+        <v>77</v>
       </c>
       <c r="AA17" s="11">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AB17" s="11">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AC17" s="11">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AD17" s="11">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="11">
         <v>2</v>
       </c>
-      <c r="AE17" s="11">
+      <c r="AF17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>7</v>
+      </c>
+      <c r="AH17" s="11">
+        <v>15</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU17" s="11">
+        <v>21</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>47</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>49</v>
+      </c>
+      <c r="AX17" s="11">
+        <v>31</v>
+      </c>
+      <c r="AY17" s="11">
+        <v>32</v>
+      </c>
+      <c r="AZ17" s="11">
+        <v>24</v>
+      </c>
+      <c r="BA17" s="11">
         <v>1</v>
       </c>
-      <c r="AF17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>7</v>
-      </c>
-      <c r="AI17" s="11">
-        <v>15</v>
-      </c>
-      <c r="AJ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV17" s="11">
-        <v>21</v>
-      </c>
-      <c r="AW17" s="11">
-        <v>47</v>
-      </c>
-      <c r="AX17" s="11">
-        <v>49</v>
-      </c>
-      <c r="AY17" s="11">
-        <v>31</v>
-      </c>
-      <c r="AZ17" s="11">
-        <v>32</v>
-      </c>
-      <c r="BA17" s="11">
-        <v>24</v>
-      </c>
       <c r="BB17" s="11">
-        <v>1</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.25">
@@ -2636,59 +2636,59 @@
       <c r="AJ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK18" s="13" t="s">
-        <v>58</v>
+      <c r="AK18" s="13">
+        <v>33</v>
       </c>
       <c r="AL18" s="13">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AM18" s="13">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AN18" s="13">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="AO18" s="13">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="AP18" s="13">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="AQ18" s="13">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AR18" s="13">
         <v>23</v>
       </c>
       <c r="AS18" s="13">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="AT18" s="13">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="AU18" s="13">
-        <v>97</v>
-      </c>
-      <c r="AV18" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>5</v>
       </c>
       <c r="AW18" s="13">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="AX18" s="13">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="AY18" s="13">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AZ18" s="13">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="BA18" s="13">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="BB18" s="13">
-        <v>172</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.25">
@@ -2761,91 +2761,91 @@
         <v>0</v>
       </c>
       <c r="Z19" s="15">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="AA19" s="15">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="AB19" s="15">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="AC19" s="15">
+        <v>40</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>41</v>
+      </c>
+      <c r="AE19" s="15">
+        <v>333</v>
+      </c>
+      <c r="AF19" s="15">
+        <v>248</v>
+      </c>
+      <c r="AG19" s="15">
+        <v>200</v>
+      </c>
+      <c r="AH19" s="15">
+        <v>180</v>
+      </c>
+      <c r="AI19" s="15">
+        <v>87</v>
+      </c>
+      <c r="AJ19" s="15">
+        <v>139</v>
+      </c>
+      <c r="AK19" s="15">
         <v>242</v>
       </c>
-      <c r="AD19" s="15">
-        <v>40</v>
-      </c>
-      <c r="AE19" s="15">
-        <v>41</v>
-      </c>
-      <c r="AF19" s="15">
-        <v>333</v>
-      </c>
-      <c r="AG19" s="15">
-        <v>248</v>
-      </c>
-      <c r="AH19" s="15">
-        <v>200</v>
-      </c>
-      <c r="AI19" s="15">
-        <v>180</v>
-      </c>
-      <c r="AJ19" s="15">
-        <v>87</v>
-      </c>
-      <c r="AK19" s="15">
-        <v>139</v>
-      </c>
       <c r="AL19" s="15">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AM19" s="15">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="AN19" s="15">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="AO19" s="15">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="AP19" s="15">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="AQ19" s="15">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="AR19" s="15">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="AS19" s="15">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="AT19" s="15">
-        <v>267</v>
+        <v>442</v>
       </c>
       <c r="AU19" s="15">
-        <v>442</v>
+        <v>124</v>
       </c>
       <c r="AV19" s="15">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="AW19" s="15">
-        <v>357</v>
+        <v>625</v>
       </c>
       <c r="AX19" s="15">
-        <v>625</v>
+        <v>418</v>
       </c>
       <c r="AY19" s="15">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="AZ19" s="15">
-        <v>376</v>
+        <v>698</v>
       </c>
       <c r="BA19" s="15">
-        <v>698</v>
+        <v>599</v>
       </c>
       <c r="BB19" s="15">
-        <v>599</v>
+        <v>809</v>
       </c>
     </row>
     <row r="20" spans="2:54" x14ac:dyDescent="0.25">
@@ -3199,8 +3199,8 @@
       <c r="AB23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC23" s="11" t="s">
-        <v>58</v>
+      <c r="AC23" s="11">
+        <v>0</v>
       </c>
       <c r="AD23" s="11">
         <v>0</v>
@@ -3220,8 +3220,8 @@
       <c r="AI23" s="11">
         <v>0</v>
       </c>
-      <c r="AJ23" s="11">
-        <v>0</v>
+      <c r="AJ23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK23" s="11" t="s">
         <v>58</v>
@@ -3253,8 +3253,8 @@
       <c r="AT23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU23" s="11" t="s">
-        <v>58</v>
+      <c r="AU23" s="11">
+        <v>0</v>
       </c>
       <c r="AV23" s="11" t="s">
         <v>58</v>
@@ -3265,8 +3265,8 @@
       <c r="AX23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY23" s="11" t="s">
-        <v>58</v>
+      <c r="AY23" s="11">
+        <v>0</v>
       </c>
       <c r="AZ23" s="11" t="s">
         <v>58</v>
@@ -3349,8 +3349,8 @@
       <c r="Y24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z24" s="13" t="s">
-        <v>58</v>
+      <c r="Z24" s="13">
+        <v>1000</v>
       </c>
       <c r="AA24" s="13">
         <v>1000</v>
@@ -3371,7 +3371,7 @@
         <v>1000</v>
       </c>
       <c r="AG24" s="13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH24" s="13">
         <v>0</v>
@@ -3379,8 +3379,8 @@
       <c r="AI24" s="13">
         <v>0</v>
       </c>
-      <c r="AJ24" s="13">
-        <v>0</v>
+      <c r="AJ24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK24" s="13" t="s">
         <v>58</v>
@@ -3412,8 +3412,8 @@
       <c r="AT24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU24" s="13" t="s">
-        <v>58</v>
+      <c r="AU24" s="13">
+        <v>0</v>
       </c>
       <c r="AV24" s="13" t="s">
         <v>58</v>
@@ -3424,8 +3424,8 @@
       <c r="AX24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY24" s="13" t="s">
-        <v>58</v>
+      <c r="AY24" s="13">
+        <v>0</v>
       </c>
       <c r="AZ24" s="13" t="s">
         <v>58</v>
@@ -3506,8 +3506,8 @@
       <c r="Y25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z25" s="15" t="s">
-        <v>58</v>
+      <c r="Z25" s="15">
+        <v>0</v>
       </c>
       <c r="AA25" s="15">
         <v>0</v>
@@ -3664,91 +3664,91 @@
         <v>0</v>
       </c>
       <c r="Z26" s="19">
-        <v>0</v>
+        <v>1154</v>
       </c>
       <c r="AA26" s="19">
-        <v>1154</v>
+        <v>1062</v>
       </c>
       <c r="AB26" s="19">
-        <v>1062</v>
+        <v>1242</v>
       </c>
       <c r="AC26" s="19">
-        <v>1242</v>
+        <v>1040</v>
       </c>
       <c r="AD26" s="19">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AE26" s="19">
-        <v>1041</v>
+        <v>1333</v>
       </c>
       <c r="AF26" s="19">
-        <v>1333</v>
+        <v>1248</v>
       </c>
       <c r="AG26" s="19">
-        <v>1248</v>
+        <v>200</v>
       </c>
       <c r="AH26" s="19">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AI26" s="19">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="AJ26" s="19">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="AK26" s="19">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="AL26" s="19">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AM26" s="19">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="AN26" s="19">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="AO26" s="19">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="AP26" s="19">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="AQ26" s="19">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="AR26" s="19">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="AS26" s="19">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="AT26" s="19">
-        <v>267</v>
+        <v>442</v>
       </c>
       <c r="AU26" s="19">
-        <v>442</v>
+        <v>124</v>
       </c>
       <c r="AV26" s="19">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="AW26" s="19">
-        <v>357</v>
+        <v>625</v>
       </c>
       <c r="AX26" s="19">
-        <v>625</v>
+        <v>418</v>
       </c>
       <c r="AY26" s="19">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="AZ26" s="19">
-        <v>376</v>
+        <v>698</v>
       </c>
       <c r="BA26" s="19">
-        <v>698</v>
+        <v>599</v>
       </c>
       <c r="BB26" s="19">
-        <v>599</v>
+        <v>809</v>
       </c>
     </row>
     <row r="27" spans="2:54" x14ac:dyDescent="0.25">
@@ -4256,92 +4256,92 @@
       <c r="Y33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z33" s="11" t="s">
-        <v>58</v>
+      <c r="Z33" s="11">
+        <v>124</v>
       </c>
       <c r="AA33" s="11">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="AB33" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AC33" s="11">
+        <v>25</v>
+      </c>
+      <c r="AD33" s="11">
         <v>12</v>
       </c>
-      <c r="AD33" s="11">
-        <v>25</v>
-      </c>
       <c r="AE33" s="11">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="AF33" s="11">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AG33" s="11">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AH33" s="11">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="AI33" s="11">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="AJ33" s="11">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="AK33" s="11">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="AL33" s="11">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="AM33" s="11">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="AN33" s="11">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="AO33" s="11">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="AP33" s="11">
-        <v>301</v>
+        <v>64</v>
       </c>
       <c r="AQ33" s="11">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="AR33" s="11">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="AS33" s="11">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="AT33" s="11">
-        <v>274</v>
+        <v>161</v>
       </c>
       <c r="AU33" s="11">
-        <v>161</v>
-      </c>
-      <c r="AV33" s="11" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV33" s="11">
+        <v>128</v>
       </c>
       <c r="AW33" s="11">
-        <v>128</v>
+        <v>323</v>
       </c>
       <c r="AX33" s="11">
-        <v>323</v>
+        <v>159</v>
       </c>
       <c r="AY33" s="11">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="AZ33" s="11">
-        <v>260</v>
+        <v>483</v>
       </c>
       <c r="BA33" s="11">
-        <v>483</v>
+        <v>234</v>
       </c>
       <c r="BB33" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.25">
@@ -4415,80 +4415,80 @@
       <c r="Y34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z34" s="13" t="s">
-        <v>58</v>
+      <c r="Z34" s="13">
+        <v>7</v>
       </c>
       <c r="AA34" s="13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AC34" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD34" s="13">
         <v>0</v>
       </c>
       <c r="AE34" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AF34" s="13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AG34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH34" s="13">
+        <v>12</v>
+      </c>
+      <c r="AI34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR34" s="13">
         <v>3</v>
       </c>
-      <c r="AH34" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI34" s="13">
-        <v>12</v>
-      </c>
-      <c r="AJ34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM34" s="13">
-        <v>2</v>
-      </c>
-      <c r="AN34" s="13">
-        <v>1</v>
-      </c>
-      <c r="AO34" s="13">
-        <v>2</v>
-      </c>
-      <c r="AP34" s="13">
-        <v>1</v>
-      </c>
-      <c r="AQ34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR34" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AS34" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AT34" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AU34" s="13">
-        <v>8</v>
-      </c>
-      <c r="AV34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX34" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="13">
+        <v>0</v>
       </c>
       <c r="AY34" s="13">
         <v>0</v>
@@ -4601,44 +4601,44 @@
       <c r="AH35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AK35" s="11" t="s">
-        <v>58</v>
+      <c r="AI35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK35" s="11">
+        <v>1</v>
       </c>
       <c r="AL35" s="11">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AM35" s="11">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AN35" s="11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AO35" s="11">
         <v>32</v>
       </c>
       <c r="AP35" s="11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AQ35" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR35" s="11">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AS35" s="11">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="AT35" s="11">
-        <v>83</v>
-      </c>
-      <c r="AU35" s="11">
         <v>61</v>
+      </c>
+      <c r="AU35" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV35" s="11" t="s">
         <v>58</v>
@@ -4733,92 +4733,92 @@
       <c r="Y36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z36" s="13" t="s">
-        <v>58</v>
+      <c r="Z36" s="13">
+        <v>10</v>
       </c>
       <c r="AA36" s="13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AB36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="13">
+        <v>9</v>
+      </c>
+      <c r="AD36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="13">
+        <v>16</v>
+      </c>
+      <c r="AF36" s="13">
         <v>7</v>
       </c>
-      <c r="AC36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="13">
-        <v>9</v>
-      </c>
-      <c r="AE36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF36" s="13">
-        <v>16</v>
-      </c>
       <c r="AG36" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AH36" s="13">
+        <v>27</v>
+      </c>
+      <c r="AI36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="13">
+        <v>5</v>
+      </c>
+      <c r="AK36" s="13">
+        <v>6</v>
+      </c>
+      <c r="AL36" s="13">
+        <v>2</v>
+      </c>
+      <c r="AM36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN36" s="13">
+        <v>20</v>
+      </c>
+      <c r="AO36" s="13">
+        <v>21</v>
+      </c>
+      <c r="AP36" s="13">
+        <v>2</v>
+      </c>
+      <c r="AQ36" s="13">
         <v>4</v>
       </c>
-      <c r="AI36" s="13">
-        <v>27</v>
-      </c>
-      <c r="AJ36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK36" s="13">
-        <v>5</v>
-      </c>
-      <c r="AL36" s="13">
-        <v>6</v>
-      </c>
-      <c r="AM36" s="13">
-        <v>2</v>
-      </c>
-      <c r="AN36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO36" s="13">
-        <v>20</v>
-      </c>
-      <c r="AP36" s="13">
-        <v>21</v>
-      </c>
-      <c r="AQ36" s="13">
-        <v>2</v>
-      </c>
       <c r="AR36" s="13">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="AS36" s="13">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="AT36" s="13">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="AU36" s="13">
-        <v>63</v>
-      </c>
-      <c r="AV36" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV36" s="13">
+        <v>46</v>
       </c>
       <c r="AW36" s="13">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AX36" s="13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AY36" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ36" s="13">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="BA36" s="13">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="BB36" s="13">
-        <v>79</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.25">
@@ -4892,41 +4892,41 @@
       <c r="Y37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z37" s="11" t="s">
-        <v>58</v>
+      <c r="Z37" s="11">
+        <v>40</v>
       </c>
       <c r="AA37" s="11">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AB37" s="11">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AC37" s="11">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AD37" s="11">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AE37" s="11">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="AF37" s="11">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AG37" s="11">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="AH37" s="11">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="AI37" s="11">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="AJ37" s="11">
-        <v>25</v>
-      </c>
-      <c r="AK37" s="11">
         <v>33</v>
+      </c>
+      <c r="AK37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL37" s="11" t="s">
         <v>58</v>
@@ -5051,92 +5051,92 @@
       <c r="Y38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z38" s="13" t="s">
-        <v>58</v>
+      <c r="Z38" s="13">
+        <v>3</v>
       </c>
       <c r="AA38" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC38" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO38" s="13">
         <v>1</v>
       </c>
-      <c r="AF38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="13">
-        <v>2</v>
-      </c>
-      <c r="AJ38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP38" s="13">
-        <v>1</v>
+      <c r="AP38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT38" s="13" t="s">
-        <v>58</v>
+      <c r="AR38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT38" s="13">
+        <v>28</v>
       </c>
       <c r="AU38" s="13">
-        <v>28</v>
-      </c>
-      <c r="AV38" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV38" s="13">
+        <v>69</v>
       </c>
       <c r="AW38" s="13">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="AX38" s="13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY38" s="13">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AZ38" s="13">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="BA38" s="13">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="BB38" s="13">
-        <v>113</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.25">
@@ -5210,35 +5210,35 @@
       <c r="Y39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z39" s="11" t="s">
-        <v>58</v>
+      <c r="Z39" s="11">
+        <v>26</v>
       </c>
       <c r="AA39" s="11">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="AB39" s="11">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AC39" s="11">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="AD39" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE39" s="11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AF39" s="11">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AG39" s="11">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="AH39" s="11">
-        <v>49</v>
-      </c>
-      <c r="AI39" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ39" s="11" t="s">
         <v>58</v>
@@ -5273,29 +5273,29 @@
       <c r="AT39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV39" s="11" t="s">
-        <v>58</v>
+      <c r="AU39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="11">
+        <v>29</v>
       </c>
       <c r="AW39" s="11">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AX39" s="11">
         <v>16</v>
       </c>
       <c r="AY39" s="11">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="AZ39" s="11">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="BA39" s="11">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="BB39" s="11">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.25">
@@ -5402,59 +5402,59 @@
       <c r="AJ40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK40" s="13" t="s">
-        <v>58</v>
+      <c r="AK40" s="13">
+        <v>36</v>
       </c>
       <c r="AL40" s="13">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AM40" s="13">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AN40" s="13">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="AO40" s="13">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="AP40" s="13">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="AQ40" s="13">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AR40" s="13">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AS40" s="13">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="AT40" s="13">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="AU40" s="13">
-        <v>97</v>
-      </c>
-      <c r="AV40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW40" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AV40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="13">
+        <v>63</v>
       </c>
       <c r="AX40" s="13">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="AY40" s="13">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="AZ40" s="13">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="BA40" s="13">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="BB40" s="13">
-        <v>156</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.25">
@@ -5527,91 +5527,91 @@
         <v>0</v>
       </c>
       <c r="Z41" s="15">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AA41" s="15">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="AB41" s="15">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AC41" s="15">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AD41" s="15">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AE41" s="15">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="AF41" s="15">
+        <v>220</v>
+      </c>
+      <c r="AG41" s="15">
+        <v>181</v>
+      </c>
+      <c r="AH41" s="15">
         <v>250</v>
       </c>
-      <c r="AG41" s="15">
-        <v>220</v>
-      </c>
-      <c r="AH41" s="15">
-        <v>181</v>
-      </c>
       <c r="AI41" s="15">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AJ41" s="15">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="AK41" s="15">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AL41" s="15">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AM41" s="15">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="AN41" s="15">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="AO41" s="15">
-        <v>500</v>
+        <v>636</v>
       </c>
       <c r="AP41" s="15">
-        <v>636</v>
+        <v>121</v>
       </c>
       <c r="AQ41" s="15">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="AR41" s="15">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="AS41" s="15">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="AT41" s="15">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="AU41" s="15">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="15">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="AW41" s="15">
-        <v>272</v>
+        <v>442</v>
       </c>
       <c r="AX41" s="15">
-        <v>442</v>
+        <v>253</v>
       </c>
       <c r="AY41" s="15">
-        <v>253</v>
+        <v>506</v>
       </c>
       <c r="AZ41" s="15">
-        <v>506</v>
+        <v>981</v>
       </c>
       <c r="BA41" s="15">
-        <v>981</v>
+        <v>583</v>
       </c>
       <c r="BB41" s="15">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.25">
@@ -5965,8 +5965,8 @@
       <c r="AB45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC45" s="11" t="s">
-        <v>58</v>
+      <c r="AC45" s="11">
+        <v>0</v>
       </c>
       <c r="AD45" s="11">
         <v>0</v>
@@ -5986,8 +5986,8 @@
       <c r="AI45" s="11">
         <v>0</v>
       </c>
-      <c r="AJ45" s="11">
-        <v>0</v>
+      <c r="AJ45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK45" s="11" t="s">
         <v>58</v>
@@ -6019,8 +6019,8 @@
       <c r="AT45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU45" s="11" t="s">
-        <v>58</v>
+      <c r="AU45" s="11">
+        <v>0</v>
       </c>
       <c r="AV45" s="11" t="s">
         <v>58</v>
@@ -6031,8 +6031,8 @@
       <c r="AX45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY45" s="11" t="s">
-        <v>58</v>
+      <c r="AY45" s="11">
+        <v>0</v>
       </c>
       <c r="AZ45" s="11" t="s">
         <v>58</v>
@@ -6115,17 +6115,17 @@
       <c r="Y46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z46" s="13" t="s">
-        <v>58</v>
+      <c r="Z46" s="13">
+        <v>1000</v>
       </c>
       <c r="AA46" s="13">
         <v>1000</v>
       </c>
       <c r="AB46" s="13">
+        <v>5000</v>
+      </c>
+      <c r="AC46" s="13">
         <v>1000</v>
-      </c>
-      <c r="AC46" s="13">
-        <v>5000</v>
       </c>
       <c r="AD46" s="13">
         <v>1000</v>
@@ -6143,10 +6143,10 @@
         <v>1000</v>
       </c>
       <c r="AI46" s="13">
-        <v>1000</v>
-      </c>
-      <c r="AJ46" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK46" s="13" t="s">
         <v>58</v>
@@ -6178,8 +6178,8 @@
       <c r="AT46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU46" s="13" t="s">
-        <v>58</v>
+      <c r="AU46" s="13">
+        <v>0</v>
       </c>
       <c r="AV46" s="13" t="s">
         <v>58</v>
@@ -6190,8 +6190,8 @@
       <c r="AX46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY46" s="13" t="s">
-        <v>58</v>
+      <c r="AY46" s="13">
+        <v>0</v>
       </c>
       <c r="AZ46" s="13" t="s">
         <v>58</v>
@@ -6272,17 +6272,17 @@
       <c r="Y47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z47" s="15" t="s">
-        <v>58</v>
+      <c r="Z47" s="15">
+        <v>1000</v>
       </c>
       <c r="AA47" s="15">
         <v>1000</v>
       </c>
       <c r="AB47" s="15">
+        <v>5000</v>
+      </c>
+      <c r="AC47" s="15">
         <v>1000</v>
-      </c>
-      <c r="AC47" s="15">
-        <v>5000</v>
       </c>
       <c r="AD47" s="15">
         <v>1000</v>
@@ -6300,7 +6300,7 @@
         <v>1000</v>
       </c>
       <c r="AI47" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ47" s="15">
         <v>0</v>
@@ -6488,23 +6488,23 @@
       <c r="Y49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="11" t="s">
-        <v>58</v>
+      <c r="Z49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB49" s="11">
+        <v>-1</v>
       </c>
       <c r="AC49" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="11">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AE49" s="11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AF49" s="11">
         <v>0</v>
@@ -6515,8 +6515,8 @@
       <c r="AH49" s="11">
         <v>0</v>
       </c>
-      <c r="AI49" s="11">
-        <v>0</v>
+      <c r="AI49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ49" s="11" t="s">
         <v>58</v>
@@ -6527,33 +6527,33 @@
       <c r="AL49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN49" s="11">
+      <c r="AM49" s="11">
         <v>1</v>
       </c>
+      <c r="AN49" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AO49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ49" s="11">
+      <c r="AP49" s="11">
         <v>1</v>
       </c>
+      <c r="AQ49" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AR49" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AS49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU49" s="11">
+      <c r="AT49" s="11">
         <v>14</v>
       </c>
+      <c r="AU49" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV49" s="11" t="s">
         <v>58</v>
       </c>
@@ -6563,8 +6563,8 @@
       <c r="AX49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY49" s="11" t="s">
-        <v>58</v>
+      <c r="AY49" s="11">
+        <v>0</v>
       </c>
       <c r="AZ49" s="11" t="s">
         <v>58</v>
@@ -6707,11 +6707,11 @@
       <c r="AS50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU50" s="13">
+      <c r="AT50" s="13">
         <v>8</v>
+      </c>
+      <c r="AU50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV50" s="13" t="s">
         <v>58</v>
@@ -6818,11 +6818,11 @@
       <c r="AC51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD51" s="11" t="s">
-        <v>58</v>
+      <c r="AD51" s="11">
+        <v>-1</v>
       </c>
       <c r="AE51" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="11">
         <v>0</v>
@@ -6833,8 +6833,8 @@
       <c r="AH51" s="11">
         <v>0</v>
       </c>
-      <c r="AI51" s="11">
-        <v>0</v>
+      <c r="AI51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ51" s="11" t="s">
         <v>58</v>
@@ -6866,11 +6866,11 @@
       <c r="AS51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU51" s="11">
+      <c r="AT51" s="11">
         <v>6</v>
+      </c>
+      <c r="AU51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV51" s="11" t="s">
         <v>58</v>
@@ -7040,8 +7040,8 @@
       <c r="AX52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY52" s="13" t="s">
-        <v>58</v>
+      <c r="AY52" s="13">
+        <v>0</v>
       </c>
       <c r="AZ52" s="13" t="s">
         <v>58</v>
@@ -7187,8 +7187,8 @@
       <c r="AT53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU53" s="11" t="s">
-        <v>58</v>
+      <c r="AU53" s="11">
+        <v>0</v>
       </c>
       <c r="AV53" s="11" t="s">
         <v>58</v>
@@ -7199,8 +7199,8 @@
       <c r="AX53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY53" s="11" t="s">
-        <v>58</v>
+      <c r="AY53" s="11">
+        <v>0</v>
       </c>
       <c r="AZ53" s="11" t="s">
         <v>58</v>
@@ -7283,23 +7283,23 @@
       <c r="Y54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z54" s="13" t="s">
-        <v>58</v>
+      <c r="Z54" s="13">
+        <v>0</v>
       </c>
       <c r="AA54" s="13">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB54" s="13">
         <v>-100</v>
       </c>
       <c r="AC54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="13">
         <v>-100</v>
       </c>
-      <c r="AD54" s="13">
-        <v>0</v>
-      </c>
       <c r="AE54" s="13">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AF54" s="13">
         <v>100</v>
@@ -7310,8 +7310,8 @@
       <c r="AH54" s="13">
         <v>100</v>
       </c>
-      <c r="AI54" s="13">
-        <v>100</v>
+      <c r="AI54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ54" s="13" t="s">
         <v>58</v>
@@ -7346,8 +7346,8 @@
       <c r="AT54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU54" s="13" t="s">
-        <v>58</v>
+      <c r="AU54" s="13">
+        <v>0</v>
       </c>
       <c r="AV54" s="13" t="s">
         <v>58</v>
@@ -7358,8 +7358,8 @@
       <c r="AX54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY54" s="13" t="s">
-        <v>58</v>
+      <c r="AY54" s="13">
+        <v>0</v>
       </c>
       <c r="AZ54" s="13" t="s">
         <v>58</v>
@@ -7448,11 +7448,11 @@
       <c r="AA55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB55" s="11" t="s">
-        <v>58</v>
+      <c r="AB55" s="11">
+        <v>-2</v>
       </c>
       <c r="AC55" s="11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD55" s="11">
         <v>0</v>
@@ -7469,8 +7469,8 @@
       <c r="AH55" s="11">
         <v>0</v>
       </c>
-      <c r="AI55" s="11">
-        <v>0</v>
+      <c r="AI55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ55" s="11" t="s">
         <v>58</v>
@@ -7502,11 +7502,11 @@
       <c r="AS55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU55" s="11">
+      <c r="AT55" s="11">
         <v>3</v>
+      </c>
+      <c r="AU55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV55" s="11" t="s">
         <v>58</v>
@@ -7676,8 +7676,8 @@
       <c r="AX56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY56" s="13" t="s">
-        <v>58</v>
+      <c r="AY56" s="13">
+        <v>0</v>
       </c>
       <c r="AZ56" s="13" t="s">
         <v>58</v>
@@ -7808,24 +7808,24 @@
       <c r="AO57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ57" s="11">
+      <c r="AP57" s="11">
         <v>1</v>
       </c>
+      <c r="AQ57" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AR57" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AS57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU57" s="11">
+      <c r="AT57" s="11">
         <v>5</v>
       </c>
+      <c r="AU57" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV57" s="11" t="s">
         <v>58</v>
       </c>
@@ -7835,8 +7835,8 @@
       <c r="AX57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY57" s="11" t="s">
-        <v>58</v>
+      <c r="AY57" s="11">
+        <v>0</v>
       </c>
       <c r="AZ57" s="11" t="s">
         <v>58</v>
@@ -7917,23 +7917,23 @@
       <c r="Y58" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Z58" s="19" t="s">
-        <v>58</v>
+      <c r="Z58" s="19">
+        <v>0</v>
       </c>
       <c r="AA58" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB58" s="19">
-        <v>-100</v>
+        <v>-103</v>
       </c>
       <c r="AC58" s="19">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="19">
         <v>-103</v>
       </c>
-      <c r="AD58" s="19">
-        <v>0</v>
-      </c>
       <c r="AE58" s="19">
-        <v>-103</v>
+        <v>100</v>
       </c>
       <c r="AF58" s="19">
         <v>100</v>
@@ -7945,7 +7945,7 @@
         <v>100</v>
       </c>
       <c r="AI58" s="19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AJ58" s="19">
         <v>0</v>
@@ -7957,19 +7957,19 @@
         <v>0</v>
       </c>
       <c r="AM58" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN58" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO58" s="19">
         <v>0</v>
       </c>
       <c r="AP58" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ58" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR58" s="19">
         <v>0</v>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="AT58" s="19">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AU58" s="19">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AV58" s="19">
         <v>0</v>
@@ -8075,91 +8075,91 @@
         <v>0</v>
       </c>
       <c r="Z59" s="15">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="AA59" s="15">
-        <v>1210</v>
+        <v>1007</v>
       </c>
       <c r="AB59" s="15">
-        <v>1007</v>
+        <v>5010</v>
       </c>
       <c r="AC59" s="15">
-        <v>5010</v>
+        <v>1078</v>
       </c>
       <c r="AD59" s="15">
-        <v>1078</v>
+        <v>946</v>
       </c>
       <c r="AE59" s="15">
-        <v>946</v>
+        <v>1350</v>
       </c>
       <c r="AF59" s="15">
+        <v>1320</v>
+      </c>
+      <c r="AG59" s="15">
+        <v>1281</v>
+      </c>
+      <c r="AH59" s="15">
         <v>1350</v>
       </c>
-      <c r="AG59" s="15">
-        <v>1320</v>
-      </c>
-      <c r="AH59" s="15">
-        <v>1281</v>
-      </c>
       <c r="AI59" s="15">
-        <v>1350</v>
+        <v>51</v>
       </c>
       <c r="AJ59" s="15">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="AK59" s="15">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AL59" s="15">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AM59" s="15">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AN59" s="15">
-        <v>135</v>
+        <v>500</v>
       </c>
       <c r="AO59" s="15">
-        <v>500</v>
+        <v>636</v>
       </c>
       <c r="AP59" s="15">
-        <v>636</v>
+        <v>123</v>
       </c>
       <c r="AQ59" s="15">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c r="AR59" s="15">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="AS59" s="15">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="AT59" s="15">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="AU59" s="15">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="AV59" s="15">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="AW59" s="15">
-        <v>272</v>
+        <v>442</v>
       </c>
       <c r="AX59" s="15">
-        <v>442</v>
+        <v>253</v>
       </c>
       <c r="AY59" s="15">
-        <v>253</v>
+        <v>506</v>
       </c>
       <c r="AZ59" s="15">
-        <v>506</v>
+        <v>981</v>
       </c>
       <c r="BA59" s="15">
-        <v>981</v>
+        <v>583</v>
       </c>
       <c r="BB59" s="15">
-        <v>583</v>
+        <v>591</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.25">
@@ -8667,92 +8667,92 @@
       <c r="Y66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z66" s="11" t="s">
-        <v>58</v>
+      <c r="Z66" s="11">
+        <v>389236</v>
       </c>
       <c r="AA66" s="11">
-        <v>389236</v>
+        <v>36721</v>
       </c>
       <c r="AB66" s="11">
-        <v>36721</v>
+        <v>60851</v>
       </c>
       <c r="AC66" s="11">
-        <v>60851</v>
+        <v>116819</v>
       </c>
       <c r="AD66" s="11">
-        <v>116819</v>
+        <v>57878</v>
       </c>
       <c r="AE66" s="11">
-        <v>57878</v>
+        <v>563209</v>
       </c>
       <c r="AF66" s="11">
-        <v>563209</v>
+        <v>469542</v>
       </c>
       <c r="AG66" s="11">
-        <v>469542</v>
+        <v>309293</v>
       </c>
       <c r="AH66" s="11">
-        <v>309293</v>
+        <v>590644</v>
       </c>
       <c r="AI66" s="11">
-        <v>590644</v>
+        <v>141184</v>
       </c>
       <c r="AJ66" s="11">
-        <v>141184</v>
+        <v>212784</v>
       </c>
       <c r="AK66" s="11">
-        <v>212784</v>
+        <v>551152</v>
       </c>
       <c r="AL66" s="11">
-        <v>551152</v>
+        <v>690050</v>
       </c>
       <c r="AM66" s="11">
-        <v>690050</v>
+        <v>444782</v>
       </c>
       <c r="AN66" s="11">
-        <v>444782</v>
+        <v>1487059</v>
       </c>
       <c r="AO66" s="11">
-        <v>1487059</v>
+        <v>1872111</v>
       </c>
       <c r="AP66" s="11">
-        <v>1872111</v>
+        <v>461318</v>
       </c>
       <c r="AQ66" s="11">
-        <v>461318</v>
+        <v>1891362</v>
       </c>
       <c r="AR66" s="11">
-        <v>1891362</v>
+        <v>2212592</v>
       </c>
       <c r="AS66" s="11">
-        <v>2212592</v>
+        <v>2019541</v>
       </c>
       <c r="AT66" s="11">
-        <v>2019541</v>
+        <v>1124707</v>
       </c>
       <c r="AU66" s="11">
-        <v>1124707</v>
+        <v>0</v>
       </c>
       <c r="AV66" s="11">
-        <v>0</v>
+        <v>1071281</v>
       </c>
       <c r="AW66" s="11">
-        <v>1071281</v>
+        <v>2675061</v>
       </c>
       <c r="AX66" s="11">
-        <v>2675061</v>
+        <v>1332729</v>
       </c>
       <c r="AY66" s="11">
-        <v>1332729</v>
+        <v>2165245</v>
       </c>
       <c r="AZ66" s="11">
-        <v>2165245</v>
+        <v>4226687</v>
       </c>
       <c r="BA66" s="11">
-        <v>4226687</v>
+        <v>2045911</v>
       </c>
       <c r="BB66" s="11">
-        <v>2045911</v>
+        <v>2035028</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.25">
@@ -8826,71 +8826,71 @@
       <c r="Y67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z67" s="13" t="s">
-        <v>58</v>
+      <c r="Z67" s="13">
+        <v>22947</v>
       </c>
       <c r="AA67" s="13">
-        <v>22947</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="13">
-        <v>0</v>
+        <v>42610</v>
       </c>
       <c r="AC67" s="13">
-        <v>42610</v>
+        <v>0</v>
       </c>
       <c r="AD67" s="13">
         <v>0</v>
       </c>
       <c r="AE67" s="13">
-        <v>0</v>
+        <v>51667</v>
       </c>
       <c r="AF67" s="13">
-        <v>51667</v>
+        <v>14091</v>
       </c>
       <c r="AG67" s="13">
+        <v>4697</v>
+      </c>
+      <c r="AH67" s="13">
+        <v>56364</v>
+      </c>
+      <c r="AI67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="13">
+        <v>9394</v>
+      </c>
+      <c r="AM67" s="13">
+        <v>4697</v>
+      </c>
+      <c r="AN67" s="13">
+        <v>9394</v>
+      </c>
+      <c r="AO67" s="13">
+        <v>4697</v>
+      </c>
+      <c r="AP67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="13">
         <v>14091</v>
       </c>
-      <c r="AH67" s="13">
-        <v>4697</v>
-      </c>
-      <c r="AI67" s="13">
-        <v>56364</v>
-      </c>
-      <c r="AJ67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM67" s="13">
-        <v>9394</v>
-      </c>
-      <c r="AN67" s="13">
-        <v>4697</v>
-      </c>
-      <c r="AO67" s="13">
-        <v>9394</v>
-      </c>
-      <c r="AP67" s="13">
-        <v>4697</v>
-      </c>
-      <c r="AQ67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR67" s="13">
-        <v>0</v>
-      </c>
       <c r="AS67" s="13">
-        <v>14091</v>
+        <v>23485</v>
       </c>
       <c r="AT67" s="13">
-        <v>23485</v>
+        <v>37576</v>
       </c>
       <c r="AU67" s="13">
-        <v>37576</v>
+        <v>0</v>
       </c>
       <c r="AV67" s="13">
         <v>0</v>
@@ -9012,44 +9012,44 @@
       <c r="AH68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI68" s="11" t="s">
-        <v>58</v>
+      <c r="AI68" s="11">
+        <v>0</v>
       </c>
       <c r="AJ68" s="11">
         <v>0</v>
       </c>
       <c r="AK68" s="11">
-        <v>0</v>
+        <v>4758</v>
       </c>
       <c r="AL68" s="11">
-        <v>4758</v>
+        <v>362390</v>
       </c>
       <c r="AM68" s="11">
-        <v>362390</v>
+        <v>420840</v>
       </c>
       <c r="AN68" s="11">
-        <v>420840</v>
+        <v>374080</v>
       </c>
       <c r="AO68" s="11">
         <v>374080</v>
       </c>
       <c r="AP68" s="11">
-        <v>374080</v>
+        <v>292250</v>
       </c>
       <c r="AQ68" s="11">
-        <v>292250</v>
+        <v>259015</v>
       </c>
       <c r="AR68" s="11">
-        <v>259015</v>
+        <v>11690</v>
       </c>
       <c r="AS68" s="11">
-        <v>11690</v>
+        <v>1009715</v>
       </c>
       <c r="AT68" s="11">
-        <v>1009715</v>
-      </c>
-      <c r="AU68" s="11">
         <v>764017</v>
+      </c>
+      <c r="AU68" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV68" s="11" t="s">
         <v>58</v>
@@ -9144,92 +9144,92 @@
       <c r="Y69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="13" t="s">
-        <v>58</v>
+      <c r="Z69" s="13">
+        <v>43431</v>
       </c>
       <c r="AA69" s="13">
-        <v>43431</v>
+        <v>40992</v>
       </c>
       <c r="AB69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="13">
+        <v>52704</v>
+      </c>
+      <c r="AD69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="13">
+        <v>93696</v>
+      </c>
+      <c r="AF69" s="13">
         <v>40992</v>
       </c>
-      <c r="AC69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD69" s="13">
-        <v>52704</v>
-      </c>
-      <c r="AE69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF69" s="13">
-        <v>93696</v>
-      </c>
       <c r="AG69" s="13">
-        <v>40992</v>
+        <v>23424</v>
       </c>
       <c r="AH69" s="13">
-        <v>23424</v>
+        <v>163968</v>
       </c>
       <c r="AI69" s="13">
-        <v>163968</v>
+        <v>0</v>
       </c>
       <c r="AJ69" s="13">
-        <v>0</v>
+        <v>29280</v>
       </c>
       <c r="AK69" s="13">
-        <v>29280</v>
+        <v>35136</v>
       </c>
       <c r="AL69" s="13">
-        <v>35136</v>
+        <v>11712</v>
       </c>
       <c r="AM69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN69" s="13">
+        <v>117120</v>
+      </c>
+      <c r="AO69" s="13">
+        <v>122976</v>
+      </c>
+      <c r="AP69" s="13">
         <v>11712</v>
       </c>
-      <c r="AN69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO69" s="13">
-        <v>117120</v>
-      </c>
-      <c r="AP69" s="13">
-        <v>122976</v>
-      </c>
       <c r="AQ69" s="13">
-        <v>11712</v>
+        <v>34622</v>
       </c>
       <c r="AR69" s="13">
-        <v>34622</v>
+        <v>455459</v>
       </c>
       <c r="AS69" s="13">
-        <v>455459</v>
+        <v>287846</v>
       </c>
       <c r="AT69" s="13">
-        <v>287846</v>
+        <v>585917</v>
       </c>
       <c r="AU69" s="13">
-        <v>585917</v>
+        <v>0</v>
       </c>
       <c r="AV69" s="13">
-        <v>0</v>
+        <v>420700</v>
       </c>
       <c r="AW69" s="13">
-        <v>420700</v>
+        <v>207938</v>
       </c>
       <c r="AX69" s="13">
-        <v>207938</v>
+        <v>165136</v>
       </c>
       <c r="AY69" s="13">
-        <v>165136</v>
+        <v>178969</v>
       </c>
       <c r="AZ69" s="13">
-        <v>178969</v>
+        <v>1154634</v>
       </c>
       <c r="BA69" s="13">
-        <v>1154634</v>
+        <v>757065</v>
       </c>
       <c r="BB69" s="13">
-        <v>757065</v>
+        <v>331959</v>
       </c>
     </row>
     <row r="70" spans="2:54" x14ac:dyDescent="0.25">
@@ -9303,41 +9303,41 @@
       <c r="Y70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z70" s="11" t="s">
-        <v>58</v>
+      <c r="Z70" s="11">
+        <v>40568</v>
       </c>
       <c r="AA70" s="11">
-        <v>40568</v>
+        <v>36638</v>
       </c>
       <c r="AB70" s="11">
-        <v>36638</v>
+        <v>47411</v>
       </c>
       <c r="AC70" s="11">
-        <v>47411</v>
+        <v>42291</v>
       </c>
       <c r="AD70" s="11">
-        <v>42291</v>
+        <v>11527</v>
       </c>
       <c r="AE70" s="11">
-        <v>11527</v>
+        <v>427769</v>
       </c>
       <c r="AF70" s="11">
-        <v>427769</v>
+        <v>163234</v>
       </c>
       <c r="AG70" s="11">
-        <v>163234</v>
+        <v>134437</v>
       </c>
       <c r="AH70" s="11">
-        <v>134437</v>
+        <v>364549</v>
       </c>
       <c r="AI70" s="11">
-        <v>364549</v>
+        <v>190155</v>
       </c>
       <c r="AJ70" s="11">
-        <v>190155</v>
-      </c>
-      <c r="AK70" s="11">
         <v>122593</v>
+      </c>
+      <c r="AK70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL70" s="11" t="s">
         <v>58</v>
@@ -9462,23 +9462,23 @@
       <c r="Y71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z71" s="13" t="s">
-        <v>58</v>
+      <c r="Z71" s="13">
+        <v>23567</v>
       </c>
       <c r="AA71" s="13">
-        <v>23567</v>
+        <v>0</v>
       </c>
       <c r="AB71" s="13">
-        <v>0</v>
+        <v>30138</v>
       </c>
       <c r="AC71" s="13">
-        <v>30138</v>
+        <v>0</v>
       </c>
       <c r="AD71" s="13">
-        <v>0</v>
+        <v>7534</v>
       </c>
       <c r="AE71" s="13">
-        <v>7534</v>
+        <v>0</v>
       </c>
       <c r="AF71" s="13">
         <v>0</v>
@@ -9487,13 +9487,13 @@
         <v>0</v>
       </c>
       <c r="AH71" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI71" s="13">
         <v>21762</v>
       </c>
-      <c r="AJ71" s="13" t="s">
-        <v>58</v>
+      <c r="AI71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ71" s="13">
+        <v>0</v>
       </c>
       <c r="AK71" s="13">
         <v>0</v>
@@ -9508,10 +9508,10 @@
         <v>0</v>
       </c>
       <c r="AO71" s="13">
-        <v>0</v>
+        <v>9652</v>
       </c>
       <c r="AP71" s="13">
-        <v>9652</v>
+        <v>0</v>
       </c>
       <c r="AQ71" s="13">
         <v>0</v>
@@ -9523,31 +9523,31 @@
         <v>0</v>
       </c>
       <c r="AT71" s="13">
-        <v>0</v>
+        <v>705471</v>
       </c>
       <c r="AU71" s="13">
-        <v>705471</v>
+        <v>0</v>
       </c>
       <c r="AV71" s="13">
-        <v>0</v>
+        <v>1863235</v>
       </c>
       <c r="AW71" s="13">
-        <v>1863235</v>
+        <v>459058</v>
       </c>
       <c r="AX71" s="13">
-        <v>459058</v>
+        <v>433401</v>
       </c>
       <c r="AY71" s="13">
-        <v>433401</v>
+        <v>1286973</v>
       </c>
       <c r="AZ71" s="13">
-        <v>1286973</v>
+        <v>4163032</v>
       </c>
       <c r="BA71" s="13">
-        <v>4163032</v>
+        <v>3445655</v>
       </c>
       <c r="BB71" s="13">
-        <v>3445655</v>
+        <v>1796799</v>
       </c>
     </row>
     <row r="72" spans="2:54" x14ac:dyDescent="0.25">
@@ -9621,35 +9621,35 @@
       <c r="Y72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z72" s="11" t="s">
-        <v>58</v>
+      <c r="Z72" s="11">
+        <v>125451</v>
       </c>
       <c r="AA72" s="11">
-        <v>125451</v>
+        <v>345387</v>
       </c>
       <c r="AB72" s="11">
-        <v>345387</v>
+        <v>415377</v>
       </c>
       <c r="AC72" s="11">
-        <v>415377</v>
+        <v>76594</v>
       </c>
       <c r="AD72" s="11">
-        <v>76594</v>
+        <v>76697</v>
       </c>
       <c r="AE72" s="11">
-        <v>76697</v>
+        <v>67664</v>
       </c>
       <c r="AF72" s="11">
-        <v>67664</v>
+        <v>152927</v>
       </c>
       <c r="AG72" s="11">
-        <v>152927</v>
+        <v>323910</v>
       </c>
       <c r="AH72" s="11">
-        <v>323910</v>
-      </c>
-      <c r="AI72" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI72" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ72" s="11" t="s">
         <v>58</v>
@@ -9684,29 +9684,29 @@
       <c r="AT72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU72" s="11" t="s">
-        <v>58</v>
+      <c r="AU72" s="11">
+        <v>0</v>
       </c>
       <c r="AV72" s="11">
-        <v>0</v>
+        <v>365612</v>
       </c>
       <c r="AW72" s="11">
-        <v>365612</v>
+        <v>219604</v>
       </c>
       <c r="AX72" s="11">
-        <v>219604</v>
+        <v>228494</v>
       </c>
       <c r="AY72" s="11">
-        <v>228494</v>
+        <v>734200</v>
       </c>
       <c r="AZ72" s="11">
-        <v>734200</v>
+        <v>1252458</v>
       </c>
       <c r="BA72" s="11">
-        <v>1252458</v>
+        <v>14396</v>
       </c>
       <c r="BB72" s="11">
-        <v>14396</v>
+        <v>806180</v>
       </c>
     </row>
     <row r="73" spans="2:54" x14ac:dyDescent="0.25">
@@ -9813,59 +9813,59 @@
       <c r="AJ73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK73" s="13" t="s">
-        <v>58</v>
+      <c r="AK73" s="13">
+        <v>73546</v>
       </c>
       <c r="AL73" s="13">
-        <v>73546</v>
+        <v>115153</v>
       </c>
       <c r="AM73" s="13">
-        <v>115153</v>
+        <v>72264</v>
       </c>
       <c r="AN73" s="13">
-        <v>72264</v>
+        <v>1401764</v>
       </c>
       <c r="AO73" s="13">
-        <v>1401764</v>
+        <v>2215490</v>
       </c>
       <c r="AP73" s="13">
-        <v>2215490</v>
+        <v>65734</v>
       </c>
       <c r="AQ73" s="13">
-        <v>65734</v>
+        <v>15165</v>
       </c>
       <c r="AR73" s="13">
-        <v>15165</v>
+        <v>195134</v>
       </c>
       <c r="AS73" s="13">
-        <v>195134</v>
+        <v>467855</v>
       </c>
       <c r="AT73" s="13">
-        <v>467855</v>
+        <v>760960</v>
       </c>
       <c r="AU73" s="13">
-        <v>760960</v>
+        <v>0</v>
       </c>
       <c r="AV73" s="13">
         <v>0</v>
       </c>
       <c r="AW73" s="13">
-        <v>0</v>
+        <v>465621</v>
       </c>
       <c r="AX73" s="13">
-        <v>465621</v>
+        <v>140972</v>
       </c>
       <c r="AY73" s="13">
-        <v>140972</v>
+        <v>513724</v>
       </c>
       <c r="AZ73" s="13">
-        <v>513724</v>
+        <v>590272</v>
       </c>
       <c r="BA73" s="13">
-        <v>590272</v>
+        <v>434587</v>
       </c>
       <c r="BB73" s="13">
-        <v>434587</v>
+        <v>663028</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.25">
@@ -9938,91 +9938,91 @@
         <v>0</v>
       </c>
       <c r="Z74" s="15">
-        <v>0</v>
+        <v>645200</v>
       </c>
       <c r="AA74" s="15">
-        <v>645200</v>
+        <v>459738</v>
       </c>
       <c r="AB74" s="15">
-        <v>459738</v>
+        <v>596387</v>
       </c>
       <c r="AC74" s="15">
-        <v>596387</v>
+        <v>288408</v>
       </c>
       <c r="AD74" s="15">
-        <v>288408</v>
+        <v>153636</v>
       </c>
       <c r="AE74" s="15">
-        <v>153636</v>
+        <v>1204005</v>
       </c>
       <c r="AF74" s="15">
-        <v>1204005</v>
+        <v>840786</v>
       </c>
       <c r="AG74" s="15">
-        <v>840786</v>
+        <v>795761</v>
       </c>
       <c r="AH74" s="15">
-        <v>795761</v>
+        <v>1197287</v>
       </c>
       <c r="AI74" s="15">
-        <v>1197287</v>
+        <v>331339</v>
       </c>
       <c r="AJ74" s="15">
-        <v>331339</v>
+        <v>364657</v>
       </c>
       <c r="AK74" s="15">
-        <v>364657</v>
+        <v>664592</v>
       </c>
       <c r="AL74" s="15">
-        <v>664592</v>
+        <v>1188699</v>
       </c>
       <c r="AM74" s="15">
-        <v>1188699</v>
+        <v>942583</v>
       </c>
       <c r="AN74" s="15">
-        <v>942583</v>
+        <v>3389417</v>
       </c>
       <c r="AO74" s="15">
-        <v>3389417</v>
+        <v>4599006</v>
       </c>
       <c r="AP74" s="15">
-        <v>4599006</v>
+        <v>831014</v>
       </c>
       <c r="AQ74" s="15">
-        <v>831014</v>
+        <v>2200164</v>
       </c>
       <c r="AR74" s="15">
-        <v>2200164</v>
+        <v>2888966</v>
       </c>
       <c r="AS74" s="15">
-        <v>2888966</v>
+        <v>3808442</v>
       </c>
       <c r="AT74" s="15">
-        <v>3808442</v>
+        <v>3978648</v>
       </c>
       <c r="AU74" s="15">
-        <v>3978648</v>
+        <v>0</v>
       </c>
       <c r="AV74" s="15">
-        <v>0</v>
+        <v>3720828</v>
       </c>
       <c r="AW74" s="15">
-        <v>3720828</v>
+        <v>4027282</v>
       </c>
       <c r="AX74" s="15">
-        <v>4027282</v>
+        <v>2300732</v>
       </c>
       <c r="AY74" s="15">
-        <v>2300732</v>
+        <v>4879111</v>
       </c>
       <c r="AZ74" s="15">
-        <v>4879111</v>
+        <v>11387083</v>
       </c>
       <c r="BA74" s="15">
-        <v>11387083</v>
+        <v>6697614</v>
       </c>
       <c r="BB74" s="15">
-        <v>6697614</v>
+        <v>5632994</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.25">
@@ -10376,8 +10376,8 @@
       <c r="AB78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC78" s="11" t="s">
-        <v>58</v>
+      <c r="AC78" s="11">
+        <v>0</v>
       </c>
       <c r="AD78" s="11">
         <v>0</v>
@@ -10395,64 +10395,64 @@
         <v>0</v>
       </c>
       <c r="AI78" s="11">
-        <v>0</v>
+        <v>59861</v>
       </c>
       <c r="AJ78" s="11">
-        <v>59861</v>
+        <v>137145</v>
       </c>
       <c r="AK78" s="11">
-        <v>137145</v>
+        <v>206704</v>
       </c>
       <c r="AL78" s="11">
-        <v>206704</v>
+        <v>190852</v>
       </c>
       <c r="AM78" s="11">
-        <v>190852</v>
+        <v>172176</v>
       </c>
       <c r="AN78" s="11">
-        <v>172176</v>
+        <v>211093</v>
       </c>
       <c r="AO78" s="11">
-        <v>211093</v>
+        <v>193568</v>
       </c>
       <c r="AP78" s="11">
-        <v>193568</v>
+        <v>218580</v>
       </c>
       <c r="AQ78" s="11">
-        <v>218580</v>
+        <v>269665</v>
       </c>
       <c r="AR78" s="11">
-        <v>269665</v>
+        <v>959793</v>
       </c>
       <c r="AS78" s="11">
-        <v>959793</v>
+        <v>361972</v>
       </c>
       <c r="AT78" s="11">
-        <v>361972</v>
+        <v>226510</v>
       </c>
       <c r="AU78" s="11">
-        <v>226510</v>
+        <v>157929</v>
       </c>
       <c r="AV78" s="11">
-        <v>157929</v>
+        <v>222591</v>
       </c>
       <c r="AW78" s="11">
-        <v>222591</v>
+        <v>436466</v>
       </c>
       <c r="AX78" s="11">
-        <v>436466</v>
+        <v>247939</v>
       </c>
       <c r="AY78" s="11">
-        <v>247939</v>
+        <v>393539</v>
       </c>
       <c r="AZ78" s="11">
-        <v>393539</v>
+        <v>311348</v>
       </c>
       <c r="BA78" s="11">
-        <v>311348</v>
+        <v>335996</v>
       </c>
       <c r="BB78" s="11">
-        <v>335996</v>
+        <v>513735</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.25">
@@ -10526,92 +10526,92 @@
       <c r="Y79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z79" s="13" t="s">
-        <v>58</v>
+      <c r="Z79" s="13">
+        <v>205535</v>
       </c>
       <c r="AA79" s="13">
-        <v>205535</v>
+        <v>144758</v>
       </c>
       <c r="AB79" s="13">
-        <v>144758</v>
+        <v>229839</v>
       </c>
       <c r="AC79" s="13">
-        <v>229839</v>
+        <v>154828</v>
       </c>
       <c r="AD79" s="13">
-        <v>154828</v>
+        <v>103627</v>
       </c>
       <c r="AE79" s="13">
-        <v>103627</v>
+        <v>403061</v>
       </c>
       <c r="AF79" s="13">
-        <v>403061</v>
+        <v>219925</v>
       </c>
       <c r="AG79" s="13">
-        <v>219925</v>
+        <v>265284</v>
       </c>
       <c r="AH79" s="13">
-        <v>265284</v>
+        <v>430975</v>
       </c>
       <c r="AI79" s="13">
-        <v>430975</v>
+        <v>545</v>
       </c>
       <c r="AJ79" s="13">
-        <v>545</v>
+        <v>1555</v>
       </c>
       <c r="AK79" s="13">
-        <v>1555</v>
+        <v>1670</v>
       </c>
       <c r="AL79" s="13">
-        <v>1670</v>
+        <v>1474</v>
       </c>
       <c r="AM79" s="13">
-        <v>1474</v>
+        <v>1580</v>
       </c>
       <c r="AN79" s="13">
-        <v>1580</v>
+        <v>2418</v>
       </c>
       <c r="AO79" s="13">
-        <v>2418</v>
+        <v>2271</v>
       </c>
       <c r="AP79" s="13">
-        <v>2271</v>
+        <v>3086</v>
       </c>
       <c r="AQ79" s="13">
-        <v>3086</v>
+        <v>3177</v>
       </c>
       <c r="AR79" s="13">
-        <v>3177</v>
+        <v>3019</v>
       </c>
       <c r="AS79" s="13">
-        <v>3019</v>
+        <v>2234</v>
       </c>
       <c r="AT79" s="13">
-        <v>2234</v>
+        <v>186904</v>
       </c>
       <c r="AU79" s="13">
-        <v>186904</v>
+        <v>1471</v>
       </c>
       <c r="AV79" s="13">
-        <v>1471</v>
+        <v>2757</v>
       </c>
       <c r="AW79" s="13">
-        <v>2757</v>
+        <v>355207</v>
       </c>
       <c r="AX79" s="13">
-        <v>355207</v>
+        <v>212784</v>
       </c>
       <c r="AY79" s="13">
-        <v>212784</v>
+        <v>203775</v>
       </c>
       <c r="AZ79" s="13">
-        <v>203775</v>
+        <v>310984</v>
       </c>
       <c r="BA79" s="13">
-        <v>310984</v>
+        <v>225176</v>
       </c>
       <c r="BB79" s="13">
-        <v>225176</v>
+        <v>393616</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.25">
@@ -10685,92 +10685,92 @@
       <c r="Y80" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z80" s="15" t="s">
-        <v>58</v>
+      <c r="Z80" s="15">
+        <v>205535</v>
       </c>
       <c r="AA80" s="15">
-        <v>205535</v>
+        <v>144758</v>
       </c>
       <c r="AB80" s="15">
-        <v>144758</v>
+        <v>229839</v>
       </c>
       <c r="AC80" s="15">
-        <v>229839</v>
+        <v>154828</v>
       </c>
       <c r="AD80" s="15">
-        <v>154828</v>
+        <v>103627</v>
       </c>
       <c r="AE80" s="15">
-        <v>103627</v>
+        <v>403061</v>
       </c>
       <c r="AF80" s="15">
-        <v>403061</v>
+        <v>219925</v>
       </c>
       <c r="AG80" s="15">
-        <v>219925</v>
+        <v>265284</v>
       </c>
       <c r="AH80" s="15">
-        <v>265284</v>
+        <v>430975</v>
       </c>
       <c r="AI80" s="15">
-        <v>430975</v>
+        <v>60406</v>
       </c>
       <c r="AJ80" s="15">
-        <v>60406</v>
+        <v>138700</v>
       </c>
       <c r="AK80" s="15">
-        <v>138700</v>
+        <v>208374</v>
       </c>
       <c r="AL80" s="15">
-        <v>208374</v>
+        <v>192326</v>
       </c>
       <c r="AM80" s="15">
-        <v>192326</v>
+        <v>173756</v>
       </c>
       <c r="AN80" s="15">
-        <v>173756</v>
+        <v>213511</v>
       </c>
       <c r="AO80" s="15">
-        <v>213511</v>
+        <v>195839</v>
       </c>
       <c r="AP80" s="15">
-        <v>195839</v>
+        <v>221666</v>
       </c>
       <c r="AQ80" s="15">
-        <v>221666</v>
+        <v>272842</v>
       </c>
       <c r="AR80" s="15">
-        <v>272842</v>
+        <v>962812</v>
       </c>
       <c r="AS80" s="15">
-        <v>962812</v>
+        <v>364206</v>
       </c>
       <c r="AT80" s="15">
-        <v>364206</v>
+        <v>413414</v>
       </c>
       <c r="AU80" s="15">
-        <v>413414</v>
+        <v>159400</v>
       </c>
       <c r="AV80" s="15">
-        <v>159400</v>
+        <v>225348</v>
       </c>
       <c r="AW80" s="15">
-        <v>225348</v>
+        <v>791673</v>
       </c>
       <c r="AX80" s="15">
-        <v>791673</v>
+        <v>460723</v>
       </c>
       <c r="AY80" s="15">
-        <v>460723</v>
+        <v>597314</v>
       </c>
       <c r="AZ80" s="15">
-        <v>597314</v>
+        <v>622332</v>
       </c>
       <c r="BA80" s="15">
-        <v>622332</v>
+        <v>561172</v>
       </c>
       <c r="BB80" s="15">
-        <v>561172</v>
+        <v>907351</v>
       </c>
     </row>
     <row r="81" spans="2:54" x14ac:dyDescent="0.25">
@@ -10901,23 +10901,23 @@
       <c r="Y82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB82" s="11" t="s">
-        <v>58</v>
+      <c r="Z82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB82" s="11">
+        <v>-2636</v>
       </c>
       <c r="AC82" s="11">
-        <v>-2636</v>
+        <v>0</v>
       </c>
       <c r="AD82" s="11">
-        <v>0</v>
+        <v>-5272</v>
       </c>
       <c r="AE82" s="11">
-        <v>-5272</v>
+        <v>0</v>
       </c>
       <c r="AF82" s="11">
         <v>0</v>
@@ -10928,8 +10928,8 @@
       <c r="AH82" s="11">
         <v>0</v>
       </c>
-      <c r="AI82" s="11">
-        <v>0</v>
+      <c r="AI82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ82" s="11" t="s">
         <v>58</v>
@@ -10940,20 +10940,20 @@
       <c r="AL82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM82" s="11" t="s">
-        <v>58</v>
+      <c r="AM82" s="11">
+        <v>-5490</v>
       </c>
       <c r="AN82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP82" s="11">
         <v>-5490</v>
       </c>
-      <c r="AO82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP82" s="11">
-        <v>0</v>
-      </c>
       <c r="AQ82" s="11">
-        <v>-5490</v>
+        <v>0</v>
       </c>
       <c r="AR82" s="11">
         <v>0</v>
@@ -10962,28 +10962,28 @@
         <v>0</v>
       </c>
       <c r="AT82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU82" s="11">
         <v>-107182</v>
       </c>
+      <c r="AU82" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW82" s="11" t="s">
-        <v>58</v>
+      <c r="AW82" s="11">
+        <v>-9041</v>
       </c>
       <c r="AX82" s="11">
-        <v>-9041</v>
+        <v>-31679</v>
       </c>
       <c r="AY82" s="11">
-        <v>-31679</v>
+        <v>0</v>
       </c>
       <c r="AZ82" s="11">
-        <v>0</v>
+        <v>-8474</v>
       </c>
       <c r="BA82" s="11">
-        <v>-8474</v>
+        <v>0</v>
       </c>
       <c r="BB82" s="11">
         <v>0</v>
@@ -11120,11 +11120,11 @@
       <c r="AS83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU83" s="13">
+      <c r="AT83" s="13">
         <v>-37576</v>
+      </c>
+      <c r="AU83" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV83" s="13" t="s">
         <v>58</v>
@@ -11231,11 +11231,11 @@
       <c r="AC84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AD84" s="11" t="s">
-        <v>58</v>
+      <c r="AD84" s="11">
+        <v>-6649</v>
       </c>
       <c r="AE84" s="11">
-        <v>-6649</v>
+        <v>0</v>
       </c>
       <c r="AF84" s="11">
         <v>0</v>
@@ -11246,8 +11246,8 @@
       <c r="AH84" s="11">
         <v>0</v>
       </c>
-      <c r="AI84" s="11">
-        <v>0</v>
+      <c r="AI84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ84" s="11" t="s">
         <v>58</v>
@@ -11267,8 +11267,8 @@
       <c r="AO84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AP84" s="11" t="s">
-        <v>58</v>
+      <c r="AP84" s="11">
+        <v>0</v>
       </c>
       <c r="AQ84" s="11">
         <v>0</v>
@@ -11280,10 +11280,10 @@
         <v>0</v>
       </c>
       <c r="AT84" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU84" s="11">
         <v>-70614</v>
+      </c>
+      <c r="AU84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV84" s="11" t="s">
         <v>58</v>
@@ -11453,11 +11453,11 @@
       <c r="AX85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY85" s="13" t="s">
-        <v>58</v>
+      <c r="AY85" s="13">
+        <v>-9836</v>
       </c>
       <c r="AZ85" s="13">
-        <v>-9836</v>
+        <v>0</v>
       </c>
       <c r="BA85" s="13">
         <v>0</v>
@@ -11579,50 +11579,50 @@
       <c r="AM86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN86" s="11" t="s">
-        <v>58</v>
+      <c r="AN86" s="11">
+        <v>-1463</v>
       </c>
       <c r="AO86" s="11">
-        <v>-1463</v>
+        <v>-1119</v>
       </c>
       <c r="AP86" s="11">
-        <v>-1119</v>
+        <v>-1505</v>
       </c>
       <c r="AQ86" s="11">
-        <v>-1505</v>
+        <v>-131</v>
       </c>
       <c r="AR86" s="11">
-        <v>-131</v>
+        <v>-61</v>
       </c>
       <c r="AS86" s="11">
-        <v>-61</v>
+        <v>-328</v>
       </c>
       <c r="AT86" s="11">
-        <v>-328</v>
+        <v>-27022</v>
       </c>
       <c r="AU86" s="11">
-        <v>-27022</v>
+        <v>0</v>
       </c>
       <c r="AV86" s="11">
-        <v>-3189</v>
+        <v>-167</v>
       </c>
       <c r="AW86" s="11">
-        <v>-167</v>
+        <v>-891</v>
       </c>
       <c r="AX86" s="11">
-        <v>-891</v>
+        <v>-172</v>
       </c>
       <c r="AY86" s="11">
-        <v>-172</v>
+        <v>-21203</v>
       </c>
       <c r="AZ86" s="11">
-        <v>-18014</v>
+        <v>-287</v>
       </c>
       <c r="BA86" s="11">
-        <v>-287</v>
+        <v>-1137</v>
       </c>
       <c r="BB86" s="11">
-        <v>-1137</v>
+        <v>-2984</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.25">
@@ -11696,50 +11696,50 @@
       <c r="Y87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z87" s="13" t="s">
-        <v>58</v>
+      <c r="Z87" s="13">
+        <v>0</v>
       </c>
       <c r="AA87" s="13">
-        <v>0</v>
+        <v>-3097</v>
       </c>
       <c r="AB87" s="13">
-        <v>-3097</v>
+        <v>-654</v>
       </c>
       <c r="AC87" s="13">
-        <v>-654</v>
+        <v>0</v>
       </c>
       <c r="AD87" s="13">
-        <v>0</v>
+        <v>-2303</v>
       </c>
       <c r="AE87" s="13">
-        <v>-2303</v>
+        <v>-1615</v>
       </c>
       <c r="AF87" s="13">
-        <v>-1615</v>
+        <v>-62</v>
       </c>
       <c r="AG87" s="13">
-        <v>-62</v>
+        <v>-452</v>
       </c>
       <c r="AH87" s="13">
-        <v>-452</v>
-      </c>
-      <c r="AI87" s="13">
         <v>-116</v>
       </c>
-      <c r="AJ87" s="13" t="s">
-        <v>58</v>
+      <c r="AI87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ87" s="13">
+        <v>-1035</v>
       </c>
       <c r="AK87" s="13">
-        <v>-1035</v>
+        <v>-162</v>
       </c>
       <c r="AL87" s="13">
-        <v>-162</v>
+        <v>-261</v>
       </c>
       <c r="AM87" s="13">
-        <v>-261</v>
+        <v>-170</v>
       </c>
       <c r="AN87" s="13">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="AO87" s="13">
         <v>0</v>
@@ -11762,8 +11762,8 @@
       <c r="AU87" s="13">
         <v>0</v>
       </c>
-      <c r="AV87" s="13" t="s">
-        <v>58</v>
+      <c r="AV87" s="13">
+        <v>0</v>
       </c>
       <c r="AW87" s="13">
         <v>0</v>
@@ -11772,7 +11772,7 @@
         <v>0</v>
       </c>
       <c r="AY87" s="13">
-        <v>0</v>
+        <v>3189</v>
       </c>
       <c r="AZ87" s="13">
         <v>0</v>
@@ -11861,11 +11861,11 @@
       <c r="AA88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB88" s="11" t="s">
-        <v>58</v>
+      <c r="AB88" s="11">
+        <v>-15069</v>
       </c>
       <c r="AC88" s="11">
-        <v>-15069</v>
+        <v>0</v>
       </c>
       <c r="AD88" s="11">
         <v>0</v>
@@ -11877,13 +11877,13 @@
         <v>0</v>
       </c>
       <c r="AG88" s="11">
-        <v>0</v>
+        <v>-4373</v>
       </c>
       <c r="AH88" s="11">
-        <v>-4373</v>
-      </c>
-      <c r="AI88" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ88" s="11" t="s">
         <v>58</v>
@@ -11897,8 +11897,8 @@
       <c r="AM88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN88" s="11" t="s">
-        <v>58</v>
+      <c r="AN88" s="11">
+        <v>0</v>
       </c>
       <c r="AO88" s="11">
         <v>0</v>
@@ -11916,11 +11916,11 @@
         <v>0</v>
       </c>
       <c r="AT88" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU88" s="11">
         <v>-30386</v>
       </c>
+      <c r="AU88" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV88" s="11" t="s">
         <v>58</v>
       </c>
@@ -11936,11 +11936,11 @@
       <c r="AZ88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA88" s="11" t="s">
-        <v>58</v>
+      <c r="BA88" s="11">
+        <v>-28893</v>
       </c>
       <c r="BB88" s="11">
-        <v>-28893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.25">
@@ -12086,11 +12086,11 @@
       <c r="AW89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX89" s="13" t="s">
-        <v>58</v>
+      <c r="AX89" s="13">
+        <v>-12607</v>
       </c>
       <c r="AY89" s="13">
-        <v>-12607</v>
+        <v>0</v>
       </c>
       <c r="AZ89" s="13">
         <v>0</v>
@@ -12212,20 +12212,20 @@
       <c r="AL90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM90" s="11" t="s">
-        <v>58</v>
+      <c r="AM90" s="11">
+        <v>-17405</v>
       </c>
       <c r="AN90" s="11">
-        <v>-17405</v>
+        <v>0</v>
       </c>
       <c r="AO90" s="11">
         <v>0</v>
       </c>
       <c r="AP90" s="11">
-        <v>0</v>
+        <v>-12991</v>
       </c>
       <c r="AQ90" s="11">
-        <v>-12991</v>
+        <v>0</v>
       </c>
       <c r="AR90" s="11">
         <v>0</v>
@@ -12234,25 +12234,25 @@
         <v>0</v>
       </c>
       <c r="AT90" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU90" s="11">
         <v>-14148</v>
       </c>
+      <c r="AU90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV90" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX90" s="11" t="s">
-        <v>58</v>
+      <c r="AX90" s="11">
+        <v>-14893</v>
       </c>
       <c r="AY90" s="11">
-        <v>-14893</v>
+        <v>-1587</v>
       </c>
       <c r="AZ90" s="11">
-        <v>-1587</v>
+        <v>0</v>
       </c>
       <c r="BA90" s="11">
         <v>0</v>
@@ -12332,92 +12332,92 @@
       <c r="Y91" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Z91" s="19" t="s">
-        <v>58</v>
+      <c r="Z91" s="19">
+        <v>0</v>
       </c>
       <c r="AA91" s="19">
-        <v>0</v>
+        <v>-3097</v>
       </c>
       <c r="AB91" s="19">
-        <v>-3097</v>
+        <v>-18359</v>
       </c>
       <c r="AC91" s="19">
-        <v>-18359</v>
+        <v>0</v>
       </c>
       <c r="AD91" s="19">
-        <v>0</v>
+        <v>-14224</v>
       </c>
       <c r="AE91" s="19">
-        <v>-14224</v>
+        <v>-1615</v>
       </c>
       <c r="AF91" s="19">
-        <v>-1615</v>
+        <v>-62</v>
       </c>
       <c r="AG91" s="19">
-        <v>-62</v>
+        <v>-4825</v>
       </c>
       <c r="AH91" s="19">
-        <v>-4825</v>
+        <v>-116</v>
       </c>
       <c r="AI91" s="19">
-        <v>-116</v>
+        <v>0</v>
       </c>
       <c r="AJ91" s="19">
-        <v>0</v>
+        <v>-1035</v>
       </c>
       <c r="AK91" s="19">
-        <v>-1035</v>
+        <v>-162</v>
       </c>
       <c r="AL91" s="19">
-        <v>-162</v>
+        <v>-261</v>
       </c>
       <c r="AM91" s="19">
-        <v>-261</v>
+        <v>-23065</v>
       </c>
       <c r="AN91" s="19">
-        <v>-23065</v>
+        <v>-1463</v>
       </c>
       <c r="AO91" s="19">
-        <v>-1463</v>
+        <v>-1119</v>
       </c>
       <c r="AP91" s="19">
-        <v>-1119</v>
+        <v>-19986</v>
       </c>
       <c r="AQ91" s="19">
-        <v>-19986</v>
+        <v>-131</v>
       </c>
       <c r="AR91" s="19">
-        <v>-131</v>
+        <v>-61</v>
       </c>
       <c r="AS91" s="19">
-        <v>-61</v>
+        <v>-328</v>
       </c>
       <c r="AT91" s="19">
-        <v>-328</v>
+        <v>-286928</v>
       </c>
       <c r="AU91" s="19">
-        <v>-286928</v>
+        <v>-3189</v>
       </c>
       <c r="AV91" s="19">
-        <v>-3189</v>
+        <v>-167</v>
       </c>
       <c r="AW91" s="19">
-        <v>-167</v>
+        <v>-9932</v>
       </c>
       <c r="AX91" s="19">
-        <v>-9932</v>
+        <v>-59351</v>
       </c>
       <c r="AY91" s="19">
-        <v>-59351</v>
+        <v>-29437</v>
       </c>
       <c r="AZ91" s="19">
-        <v>-29437</v>
+        <v>-8761</v>
       </c>
       <c r="BA91" s="19">
-        <v>-8761</v>
+        <v>-30030</v>
       </c>
       <c r="BB91" s="19">
-        <v>-30030</v>
+        <v>-2984</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.25">
@@ -12548,92 +12548,92 @@
       <c r="Y93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z93" s="11" t="s">
-        <v>58</v>
+      <c r="Z93" s="11">
+        <v>-40011</v>
       </c>
       <c r="AA93" s="11">
-        <v>-40011</v>
+        <v>-13877</v>
       </c>
       <c r="AB93" s="11">
-        <v>-13877</v>
+        <v>-18824</v>
       </c>
       <c r="AC93" s="11">
-        <v>-18824</v>
+        <v>0</v>
       </c>
       <c r="AD93" s="11">
-        <v>0</v>
+        <v>-12804</v>
       </c>
       <c r="AE93" s="11">
-        <v>-12804</v>
+        <v>-18914</v>
       </c>
       <c r="AF93" s="11">
-        <v>-18914</v>
+        <v>-21977</v>
       </c>
       <c r="AG93" s="11">
-        <v>-21977</v>
+        <v>-23570</v>
       </c>
       <c r="AH93" s="11">
-        <v>-23570</v>
+        <v>-19266</v>
       </c>
       <c r="AI93" s="11">
-        <v>-19266</v>
+        <v>-11400</v>
       </c>
       <c r="AJ93" s="11">
-        <v>-11400</v>
+        <v>-22632</v>
       </c>
       <c r="AK93" s="11">
-        <v>-22632</v>
+        <v>-27895</v>
       </c>
       <c r="AL93" s="11">
-        <v>-27895</v>
+        <v>-80056</v>
       </c>
       <c r="AM93" s="11">
-        <v>-80056</v>
+        <v>-78578</v>
       </c>
       <c r="AN93" s="11">
-        <v>-78578</v>
+        <v>-77596</v>
       </c>
       <c r="AO93" s="11">
-        <v>-77596</v>
+        <v>-61991</v>
       </c>
       <c r="AP93" s="11">
-        <v>-61991</v>
+        <v>-45253</v>
       </c>
       <c r="AQ93" s="11">
-        <v>-45253</v>
+        <v>-45636</v>
       </c>
       <c r="AR93" s="11">
-        <v>-45636</v>
+        <v>-30643</v>
       </c>
       <c r="AS93" s="11">
-        <v>-30643</v>
+        <v>-47617</v>
       </c>
       <c r="AT93" s="11">
-        <v>-47617</v>
+        <v>-48126</v>
       </c>
       <c r="AU93" s="11">
-        <v>-48126</v>
+        <v>-23469</v>
       </c>
       <c r="AV93" s="11">
-        <v>-23469</v>
+        <v>-31324</v>
       </c>
       <c r="AW93" s="11">
-        <v>-31324</v>
+        <v>-44385</v>
       </c>
       <c r="AX93" s="11">
-        <v>-44385</v>
+        <v>-34437</v>
       </c>
       <c r="AY93" s="11">
-        <v>-34437</v>
+        <v>-61128</v>
       </c>
       <c r="AZ93" s="11">
-        <v>-61128</v>
+        <v>-44357</v>
       </c>
       <c r="BA93" s="11">
-        <v>-44357</v>
+        <v>-33852</v>
       </c>
       <c r="BB93" s="11">
-        <v>-33852</v>
+        <v>-59452</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.25">
@@ -12706,91 +12706,91 @@
         <v>0</v>
       </c>
       <c r="Z94" s="19">
-        <v>0</v>
+        <v>810724</v>
       </c>
       <c r="AA94" s="19">
-        <v>810724</v>
+        <v>587522</v>
       </c>
       <c r="AB94" s="19">
-        <v>587522</v>
+        <v>789043</v>
       </c>
       <c r="AC94" s="19">
-        <v>789043</v>
+        <v>443236</v>
       </c>
       <c r="AD94" s="19">
-        <v>443236</v>
+        <v>230235</v>
       </c>
       <c r="AE94" s="19">
-        <v>230235</v>
+        <v>1586537</v>
       </c>
       <c r="AF94" s="19">
-        <v>1586537</v>
+        <v>1038672</v>
       </c>
       <c r="AG94" s="19">
-        <v>1038672</v>
+        <v>1032650</v>
       </c>
       <c r="AH94" s="19">
-        <v>1032650</v>
+        <v>1608880</v>
       </c>
       <c r="AI94" s="19">
-        <v>1608880</v>
+        <v>380345</v>
       </c>
       <c r="AJ94" s="19">
-        <v>380345</v>
+        <v>479690</v>
       </c>
       <c r="AK94" s="19">
-        <v>479690</v>
+        <v>844909</v>
       </c>
       <c r="AL94" s="19">
-        <v>844909</v>
+        <v>1300708</v>
       </c>
       <c r="AM94" s="19">
-        <v>1300708</v>
+        <v>1014696</v>
       </c>
       <c r="AN94" s="19">
-        <v>1014696</v>
+        <v>3523869</v>
       </c>
       <c r="AO94" s="19">
-        <v>3523869</v>
+        <v>4731735</v>
       </c>
       <c r="AP94" s="19">
-        <v>4731735</v>
+        <v>987441</v>
       </c>
       <c r="AQ94" s="19">
-        <v>987441</v>
+        <v>2427239</v>
       </c>
       <c r="AR94" s="19">
-        <v>2427239</v>
+        <v>3821074</v>
       </c>
       <c r="AS94" s="19">
-        <v>3821074</v>
+        <v>4124703</v>
       </c>
       <c r="AT94" s="19">
-        <v>4124703</v>
+        <v>4057008</v>
       </c>
       <c r="AU94" s="19">
-        <v>4057008</v>
+        <v>135931</v>
       </c>
       <c r="AV94" s="19">
-        <v>132742</v>
+        <v>3914685</v>
       </c>
       <c r="AW94" s="19">
-        <v>3914685</v>
+        <v>4764638</v>
       </c>
       <c r="AX94" s="19">
-        <v>4764638</v>
+        <v>2667667</v>
       </c>
       <c r="AY94" s="19">
-        <v>2667667</v>
+        <v>5385860</v>
       </c>
       <c r="AZ94" s="19">
-        <v>5385860</v>
+        <v>11956297</v>
       </c>
       <c r="BA94" s="19">
-        <v>11956297</v>
+        <v>7194904</v>
       </c>
       <c r="BB94" s="19">
-        <v>7194904</v>
+        <v>6477909</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.25">
@@ -13298,92 +13298,92 @@
       <c r="Y101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z101" s="11" t="s">
-        <v>58</v>
+      <c r="Z101" s="11">
+        <v>3139000000</v>
       </c>
       <c r="AA101" s="11">
-        <v>3139000000</v>
+        <v>4080111111</v>
       </c>
       <c r="AB101" s="11">
-        <v>4080111111</v>
+        <v>5070916667</v>
       </c>
       <c r="AC101" s="11">
-        <v>5070916667</v>
+        <v>4672760000</v>
       </c>
       <c r="AD101" s="11">
-        <v>4672760000</v>
+        <v>4823166667</v>
       </c>
       <c r="AE101" s="11">
-        <v>4823166667</v>
+        <v>5313292453</v>
       </c>
       <c r="AF101" s="11">
-        <v>5313292453</v>
+        <v>5275752809</v>
       </c>
       <c r="AG101" s="11">
-        <v>5275752809</v>
+        <v>5154883333</v>
       </c>
       <c r="AH101" s="11">
-        <v>5154883333</v>
+        <v>5226938053</v>
       </c>
       <c r="AI101" s="11">
-        <v>5226938053</v>
+        <v>5430153846</v>
       </c>
       <c r="AJ101" s="11">
-        <v>5430153846</v>
+        <v>5456000000</v>
       </c>
       <c r="AK101" s="11">
-        <v>5456000000</v>
+        <v>6263090909</v>
       </c>
       <c r="AL101" s="11">
-        <v>6263090909</v>
+        <v>6765196078</v>
       </c>
       <c r="AM101" s="11">
-        <v>6765196078</v>
+        <v>6842800000</v>
       </c>
       <c r="AN101" s="11">
-        <v>6842800000</v>
+        <v>6301097458</v>
       </c>
       <c r="AO101" s="11">
-        <v>6301097458</v>
+        <v>6219637874</v>
       </c>
       <c r="AP101" s="11">
-        <v>6219637874</v>
+        <v>7208093750</v>
       </c>
       <c r="AQ101" s="11">
-        <v>7208093750</v>
+        <v>7626459677</v>
       </c>
       <c r="AR101" s="11">
-        <v>7626459677</v>
+        <v>7254400000</v>
       </c>
       <c r="AS101" s="11">
-        <v>7254400000</v>
+        <v>7370587591</v>
       </c>
       <c r="AT101" s="11">
-        <v>7370587591</v>
-      </c>
-      <c r="AU101" s="11">
         <v>6985757764</v>
       </c>
-      <c r="AV101" s="11" t="s">
-        <v>58</v>
+      <c r="AU101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV101" s="11">
+        <v>8369382813</v>
       </c>
       <c r="AW101" s="11">
-        <v>8369382813</v>
+        <v>8281922601</v>
       </c>
       <c r="AX101" s="11">
-        <v>8281922601</v>
+        <v>8381943396</v>
       </c>
       <c r="AY101" s="11">
-        <v>8381943396</v>
+        <v>8327865385</v>
       </c>
       <c r="AZ101" s="11">
-        <v>8327865385</v>
+        <v>8750904762</v>
       </c>
       <c r="BA101" s="11">
-        <v>8750904762</v>
+        <v>8743209402</v>
       </c>
       <c r="BB101" s="11">
-        <v>8743209402</v>
+        <v>8809645022</v>
       </c>
     </row>
     <row r="102" spans="2:54" x14ac:dyDescent="0.25">
@@ -13457,23 +13457,23 @@
       <c r="Y102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA102" s="13">
+      <c r="Z102" s="13">
         <v>3278142857</v>
       </c>
-      <c r="AB102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC102" s="13">
+      <c r="AA102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB102" s="13">
         <v>4734444444</v>
       </c>
+      <c r="AC102" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AD102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE102" s="13" t="s">
-        <v>58</v>
+      <c r="AE102" s="13">
+        <v>4697000000</v>
       </c>
       <c r="AF102" s="13">
         <v>4697000000</v>
@@ -13484,17 +13484,17 @@
       <c r="AH102" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AI102" s="13">
+      <c r="AI102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL102" s="13">
         <v>4697000000</v>
-      </c>
-      <c r="AJ102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL102" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AM102" s="13">
         <v>4697000000</v>
@@ -13505,14 +13505,14 @@
       <c r="AO102" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AP102" s="13">
+      <c r="AP102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR102" s="13">
         <v>4697000000</v>
-      </c>
-      <c r="AQ102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR102" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AS102" s="13">
         <v>4697000000</v>
@@ -13520,8 +13520,8 @@
       <c r="AT102" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AU102" s="13">
-        <v>4697000000</v>
+      <c r="AU102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV102" s="13" t="s">
         <v>58</v>
@@ -13649,11 +13649,11 @@
       <c r="AJ103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK103" s="11" t="s">
-        <v>58</v>
+      <c r="AK103" s="11">
+        <v>4758000000</v>
       </c>
       <c r="AL103" s="11">
-        <v>4758000000</v>
+        <v>11690000000</v>
       </c>
       <c r="AM103" s="11">
         <v>11690000000</v>
@@ -13668,19 +13668,19 @@
         <v>11690000000</v>
       </c>
       <c r="AQ103" s="11">
+        <v>11773409091</v>
+      </c>
+      <c r="AR103" s="11">
         <v>11690000000</v>
       </c>
-      <c r="AR103" s="11">
-        <v>11773409091</v>
-      </c>
       <c r="AS103" s="11">
-        <v>11690000000</v>
+        <v>12165240964</v>
       </c>
       <c r="AT103" s="11">
-        <v>12165240964</v>
-      </c>
-      <c r="AU103" s="11">
         <v>12524868852</v>
+      </c>
+      <c r="AU103" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV103" s="11" t="s">
         <v>58</v>
@@ -13775,23 +13775,23 @@
       <c r="Y104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z104" s="13" t="s">
-        <v>58</v>
+      <c r="Z104" s="13">
+        <v>4343100000</v>
       </c>
       <c r="AA104" s="13">
-        <v>4343100000</v>
-      </c>
-      <c r="AB104" s="13">
         <v>5856000000</v>
       </c>
-      <c r="AC104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD104" s="13">
+      <c r="AB104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC104" s="13">
         <v>5856000000</v>
       </c>
-      <c r="AE104" s="13" t="s">
-        <v>58</v>
+      <c r="AD104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE104" s="13">
+        <v>5856000000</v>
       </c>
       <c r="AF104" s="13">
         <v>5856000000</v>
@@ -13800,13 +13800,13 @@
         <v>5856000000</v>
       </c>
       <c r="AH104" s="13">
+        <v>6072888889</v>
+      </c>
+      <c r="AI104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ104" s="13">
         <v>5856000000</v>
-      </c>
-      <c r="AI104" s="13">
-        <v>6072888889</v>
-      </c>
-      <c r="AJ104" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AK104" s="13">
         <v>5856000000</v>
@@ -13814,11 +13814,11 @@
       <c r="AL104" s="13">
         <v>5856000000</v>
       </c>
-      <c r="AM104" s="13">
+      <c r="AM104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN104" s="13">
         <v>5856000000</v>
-      </c>
-      <c r="AN104" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AO104" s="13">
         <v>5856000000</v>
@@ -13827,40 +13827,40 @@
         <v>5856000000</v>
       </c>
       <c r="AQ104" s="13">
-        <v>5856000000</v>
+        <v>8655500000</v>
       </c>
       <c r="AR104" s="13">
-        <v>8655500000</v>
+        <v>7346112903</v>
       </c>
       <c r="AS104" s="13">
-        <v>7346112903</v>
+        <v>8722606061</v>
       </c>
       <c r="AT104" s="13">
-        <v>8722606061</v>
-      </c>
-      <c r="AU104" s="13">
         <v>9300269841</v>
       </c>
-      <c r="AV104" s="13" t="s">
-        <v>58</v>
+      <c r="AU104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV104" s="13">
+        <v>9145652174</v>
       </c>
       <c r="AW104" s="13">
-        <v>9145652174</v>
+        <v>9040782609</v>
       </c>
       <c r="AX104" s="13">
-        <v>9040782609</v>
+        <v>9174222222</v>
       </c>
       <c r="AY104" s="13">
-        <v>9174222222</v>
+        <v>9419421053</v>
       </c>
       <c r="AZ104" s="13">
-        <v>9419421053</v>
+        <v>9702806723</v>
       </c>
       <c r="BA104" s="13">
-        <v>9702806723</v>
+        <v>9583101266</v>
       </c>
       <c r="BB104" s="13">
-        <v>9583101266</v>
+        <v>8511769231</v>
       </c>
     </row>
     <row r="105" spans="2:54" x14ac:dyDescent="0.25">
@@ -13934,41 +13934,41 @@
       <c r="Y105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z105" s="11" t="s">
-        <v>58</v>
+      <c r="Z105" s="11">
+        <v>1014200000</v>
       </c>
       <c r="AA105" s="11">
-        <v>1014200000</v>
+        <v>1077588235</v>
       </c>
       <c r="AB105" s="11">
-        <v>1077588235</v>
+        <v>1975458333</v>
       </c>
       <c r="AC105" s="11">
-        <v>1975458333</v>
+        <v>1321593750</v>
       </c>
       <c r="AD105" s="11">
-        <v>1321593750</v>
+        <v>523954545</v>
       </c>
       <c r="AE105" s="11">
-        <v>523954545</v>
+        <v>4035556604</v>
       </c>
       <c r="AF105" s="11">
-        <v>4035556604</v>
+        <v>1665653061</v>
       </c>
       <c r="AG105" s="11">
-        <v>1665653061</v>
+        <v>2006522388</v>
       </c>
       <c r="AH105" s="11">
-        <v>2006522388</v>
+        <v>3797385417</v>
       </c>
       <c r="AI105" s="11">
-        <v>3797385417</v>
+        <v>7606200000</v>
       </c>
       <c r="AJ105" s="11">
-        <v>7606200000</v>
-      </c>
-      <c r="AK105" s="11">
         <v>3714939394</v>
+      </c>
+      <c r="AK105" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL105" s="11" t="s">
         <v>58</v>
@@ -14093,36 +14093,36 @@
       <c r="Y106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA106" s="13">
+      <c r="Z106" s="13">
         <v>7855666667</v>
       </c>
-      <c r="AB106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC106" s="13">
+      <c r="AA106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB106" s="13">
         <v>7534500000</v>
       </c>
-      <c r="AD106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE106" s="13">
+      <c r="AC106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD106" s="13">
         <v>7534000000</v>
       </c>
+      <c r="AE106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AF106" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AG106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI106" s="13">
+      <c r="AH106" s="13">
         <v>10881000000</v>
       </c>
+      <c r="AI106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ106" s="13" t="s">
         <v>58</v>
       </c>
@@ -14138,12 +14138,12 @@
       <c r="AN106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP106" s="13">
+      <c r="AO106" s="13">
         <v>9652000000</v>
       </c>
+      <c r="AP106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ106" s="13" t="s">
         <v>58</v>
       </c>
@@ -14153,32 +14153,32 @@
       <c r="AS106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU106" s="13">
+      <c r="AT106" s="13">
         <v>25195392857</v>
       </c>
-      <c r="AV106" s="13" t="s">
-        <v>58</v>
+      <c r="AU106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AV106" s="13">
+        <v>27003405797</v>
       </c>
       <c r="AW106" s="13">
-        <v>27003405797</v>
+        <v>27003411765</v>
       </c>
       <c r="AX106" s="13">
-        <v>27003411765</v>
+        <v>28893400000</v>
       </c>
       <c r="AY106" s="13">
-        <v>28893400000</v>
+        <v>28599400000</v>
       </c>
       <c r="AZ106" s="13">
-        <v>28599400000</v>
+        <v>29112111888</v>
       </c>
       <c r="BA106" s="13">
-        <v>29112111888</v>
+        <v>30492522124</v>
       </c>
       <c r="BB106" s="13">
-        <v>30492522124</v>
+        <v>30454220339</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.25">
@@ -14252,33 +14252,33 @@
       <c r="Y107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z107" s="11" t="s">
-        <v>58</v>
+      <c r="Z107" s="11">
+        <v>4825038462</v>
       </c>
       <c r="AA107" s="11">
-        <v>4825038462</v>
+        <v>6059421053</v>
       </c>
       <c r="AB107" s="11">
-        <v>6059421053</v>
+        <v>6490265625</v>
       </c>
       <c r="AC107" s="11">
-        <v>6490265625</v>
+        <v>6382833333</v>
       </c>
       <c r="AD107" s="11">
-        <v>6382833333</v>
+        <v>5478357143</v>
       </c>
       <c r="AE107" s="11">
-        <v>5478357143</v>
+        <v>6151272727</v>
       </c>
       <c r="AF107" s="11">
-        <v>6151272727</v>
+        <v>6649000000</v>
       </c>
       <c r="AG107" s="11">
-        <v>6649000000</v>
-      </c>
-      <c r="AH107" s="11">
         <v>6610408163</v>
       </c>
+      <c r="AH107" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI107" s="11" t="s">
         <v>58</v>
       </c>
@@ -14318,26 +14318,26 @@
       <c r="AU107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV107" s="11" t="s">
-        <v>58</v>
+      <c r="AV107" s="11">
+        <v>12607310345</v>
       </c>
       <c r="AW107" s="11">
-        <v>12607310345</v>
+        <v>13725250000</v>
       </c>
       <c r="AX107" s="11">
-        <v>13725250000</v>
+        <v>14280875000</v>
       </c>
       <c r="AY107" s="11">
-        <v>14280875000</v>
+        <v>14396078431</v>
       </c>
       <c r="AZ107" s="11">
-        <v>14396078431</v>
+        <v>14396068966</v>
       </c>
       <c r="BA107" s="11">
-        <v>14396068966</v>
+        <v>14396000000</v>
       </c>
       <c r="BB107" s="11">
-        <v>14396000000</v>
+        <v>14396071429</v>
       </c>
     </row>
     <row r="108" spans="2:54" x14ac:dyDescent="0.25">
@@ -14444,59 +14444,59 @@
       <c r="AJ108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK108" s="13" t="s">
-        <v>58</v>
+      <c r="AK108" s="13">
+        <v>2042944444</v>
       </c>
       <c r="AL108" s="13">
-        <v>2042944444</v>
+        <v>5234227273</v>
       </c>
       <c r="AM108" s="13">
-        <v>5234227273</v>
+        <v>2258250000</v>
       </c>
       <c r="AN108" s="13">
-        <v>2258250000</v>
+        <v>6675066667</v>
       </c>
       <c r="AO108" s="13">
-        <v>6675066667</v>
+        <v>7912464286</v>
       </c>
       <c r="AP108" s="13">
-        <v>7912464286</v>
+        <v>2191133333</v>
       </c>
       <c r="AQ108" s="13">
-        <v>2191133333</v>
+        <v>1263750000</v>
       </c>
       <c r="AR108" s="13">
-        <v>1263750000</v>
+        <v>9756700000</v>
       </c>
       <c r="AS108" s="13">
-        <v>9756700000</v>
+        <v>9173627451</v>
       </c>
       <c r="AT108" s="13">
-        <v>9173627451</v>
-      </c>
-      <c r="AU108" s="13">
         <v>7844948454</v>
       </c>
+      <c r="AU108" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW108" s="13" t="s">
-        <v>58</v>
+      <c r="AW108" s="13">
+        <v>7390809524</v>
       </c>
       <c r="AX108" s="13">
-        <v>7390809524</v>
+        <v>3132711111</v>
       </c>
       <c r="AY108" s="13">
-        <v>3132711111</v>
+        <v>3921557252</v>
       </c>
       <c r="AZ108" s="13">
-        <v>3921557252</v>
+        <v>3961557047</v>
       </c>
       <c r="BA108" s="13">
-        <v>3961557047</v>
+        <v>2785814103</v>
       </c>
       <c r="BB108" s="13">
-        <v>2785814103</v>
+        <v>3218582524</v>
       </c>
     </row>
     <row r="109" spans="2:54" x14ac:dyDescent="0.25">
@@ -14636,8 +14636,8 @@
       <c r="AB110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC110" s="11" t="s">
-        <v>58</v>
+      <c r="AC110" s="11">
+        <v>0</v>
       </c>
       <c r="AD110" s="11">
         <v>0</v>
@@ -14786,35 +14786,35 @@
       <c r="Y111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z111" s="13" t="s">
-        <v>58</v>
+      <c r="Z111" s="13">
+        <v>205535000</v>
       </c>
       <c r="AA111" s="13">
-        <v>205535000</v>
+        <v>144758000</v>
       </c>
       <c r="AB111" s="13">
-        <v>144758000</v>
+        <v>45967800</v>
       </c>
       <c r="AC111" s="13">
-        <v>45967800</v>
+        <v>154828000</v>
       </c>
       <c r="AD111" s="13">
-        <v>154828000</v>
+        <v>103627000</v>
       </c>
       <c r="AE111" s="13">
-        <v>103627000</v>
+        <v>403061000</v>
       </c>
       <c r="AF111" s="13">
-        <v>403061000</v>
+        <v>219925000</v>
       </c>
       <c r="AG111" s="13">
-        <v>219925000</v>
+        <v>265284000</v>
       </c>
       <c r="AH111" s="13">
-        <v>265284000</v>
+        <v>430975000</v>
       </c>
       <c r="AI111" s="13">
-        <v>430975000</v>
+        <v>0</v>
       </c>
       <c r="AJ111" s="13">
         <v>0</v>

--- a/database/industries/khodro/khedizel/product/monthly_seprated.xlsx
+++ b/database/industries/khodro/khedizel/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khedizel\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50301005-90B8-4C5C-9656-AE5827C69D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2457" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -309,7 +310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,7 +503,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -514,7 +515,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -561,6 +562,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -596,6 +614,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -747,17 +782,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -812,7 +847,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -869,7 +904,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -926,7 +961,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -981,7 +1016,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1038,7 +1073,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1095,7 +1130,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1150,7 +1185,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1307,7 +1342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1362,7 +1397,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1419,7 +1454,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1487,98 +1522,98 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>20</v>
       </c>
       <c r="Z11" s="11">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="AA11" s="11">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="AB11" s="11">
-        <v>99</v>
+        <v>12</v>
       </c>
       <c r="AC11" s="11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AD11" s="11">
-        <v>17</v>
+        <v>188</v>
       </c>
       <c r="AE11" s="11">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="AF11" s="11">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="AG11" s="11">
-        <v>170</v>
+        <v>9</v>
       </c>
       <c r="AH11" s="11">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="AI11" s="11">
-        <v>36</v>
+        <v>118</v>
       </c>
       <c r="AJ11" s="11">
-        <v>118</v>
+        <v>189</v>
       </c>
       <c r="AK11" s="11">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="AL11" s="11">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="AM11" s="11">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="AN11" s="11">
-        <v>191</v>
+        <v>126</v>
       </c>
       <c r="AO11" s="11">
-        <v>126</v>
+        <v>225</v>
       </c>
       <c r="AP11" s="11">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="AQ11" s="11">
-        <v>241</v>
+        <v>67</v>
       </c>
       <c r="AR11" s="11">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="AS11" s="11">
-        <v>94</v>
+        <v>202</v>
       </c>
       <c r="AT11" s="11">
-        <v>202</v>
+        <v>62</v>
       </c>
       <c r="AU11" s="11">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="AV11" s="11">
-        <v>235</v>
+        <v>327</v>
       </c>
       <c r="AW11" s="11">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="AX11" s="11">
-        <v>283</v>
+        <v>169</v>
       </c>
       <c r="AY11" s="11">
-        <v>169</v>
+        <v>328</v>
       </c>
       <c r="AZ11" s="11">
-        <v>328</v>
+        <v>207</v>
       </c>
       <c r="BA11" s="11">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="BB11" s="11">
-        <v>220</v>
+        <v>316</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1646,14 +1681,14 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>0</v>
       </c>
       <c r="Z12" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA12" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AB12" s="13">
         <v>0</v>
@@ -1662,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="AD12" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AE12" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AF12" s="13">
         <v>0</v>
@@ -1676,8 +1711,8 @@
       <c r="AH12" s="13">
         <v>0</v>
       </c>
-      <c r="AI12" s="13">
-        <v>0</v>
+      <c r="AI12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ12" s="13" t="s">
         <v>58</v>
@@ -1691,26 +1726,26 @@
       <c r="AM12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN12" s="13" t="s">
-        <v>58</v>
+      <c r="AN12" s="13">
+        <v>1</v>
       </c>
       <c r="AO12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS12" s="13">
         <v>1</v>
       </c>
-      <c r="AP12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS12" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AT12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="13">
         <v>0</v>
@@ -1737,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1832,45 +1867,45 @@
       <c r="AG13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH13" s="11" t="s">
-        <v>58</v>
+      <c r="AH13" s="11">
+        <v>10</v>
       </c>
       <c r="AI13" s="11">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AJ13" s="11">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AK13" s="11">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AL13" s="11">
+        <v>19</v>
+      </c>
+      <c r="AM13" s="11">
         <v>25</v>
       </c>
-      <c r="AM13" s="11">
-        <v>19</v>
-      </c>
       <c r="AN13" s="11">
-        <v>25</v>
-      </c>
-      <c r="AO13" s="11">
         <v>16</v>
       </c>
-      <c r="AP13" s="11" t="s">
-        <v>58</v>
+      <c r="AO13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>36</v>
       </c>
       <c r="AQ13" s="11">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AR13" s="11">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="AS13" s="11">
-        <v>56</v>
-      </c>
-      <c r="AT13" s="11">
         <v>41</v>
       </c>
+      <c r="AT13" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU13" s="11" t="s">
         <v>58</v>
       </c>
@@ -1896,7 +1931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1964,98 +1999,98 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>4</v>
       </c>
       <c r="Z14" s="13">
         <v>4</v>
       </c>
       <c r="AA14" s="13">
+        <v>40</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>12</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>38</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>23</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="13">
         <v>4</v>
       </c>
-      <c r="AB14" s="13">
-        <v>40</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="13">
+      <c r="AI14" s="13">
+        <v>8</v>
+      </c>
+      <c r="AJ14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" s="13">
         <v>12</v>
       </c>
-      <c r="AF14" s="13">
-        <v>38</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>23</v>
-      </c>
-      <c r="AH14" s="13">
+      <c r="AL14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>49</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>30</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>24</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>47</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>101</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>5</v>
+      </c>
+      <c r="AU14" s="13">
+        <v>25</v>
+      </c>
+      <c r="AV14" s="13">
+        <v>72</v>
+      </c>
+      <c r="AW14" s="13">
         <v>1</v>
       </c>
-      <c r="AI14" s="13">
-        <v>4</v>
-      </c>
-      <c r="AJ14" s="13">
+      <c r="AX14" s="13">
         <v>8</v>
       </c>
-      <c r="AK14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>12</v>
-      </c>
-      <c r="AM14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>49</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>30</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>24</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>47</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>101</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>25</v>
-      </c>
-      <c r="AW14" s="13">
-        <v>72</v>
-      </c>
-      <c r="AX14" s="13">
-        <v>1</v>
-      </c>
       <c r="AY14" s="13">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="AZ14" s="13">
         <v>88</v>
       </c>
       <c r="BA14" s="13">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="BB14" s="13">
-        <v>99</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2123,39 +2158,39 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>53</v>
       </c>
       <c r="Z15" s="11">
-        <v>53</v>
+        <v>7</v>
       </c>
       <c r="AA15" s="11">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="AB15" s="11">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="AC15" s="11">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD15" s="11">
-        <v>23</v>
+        <v>109</v>
       </c>
       <c r="AE15" s="11">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="AF15" s="11">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="11">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="AH15" s="11">
-        <v>155</v>
-      </c>
-      <c r="AI15" s="11">
         <v>37</v>
       </c>
+      <c r="AI15" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ15" s="11" t="s">
         <v>58</v>
       </c>
@@ -2214,7 +2249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2282,8 +2317,8 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>0</v>
       </c>
       <c r="Z16" s="13">
         <v>0</v>
@@ -2309,8 +2344,8 @@
       <c r="AG16" s="13">
         <v>0</v>
       </c>
-      <c r="AH16" s="13">
-        <v>0</v>
+      <c r="AH16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI16" s="13" t="s">
         <v>58</v>
@@ -2336,44 +2371,44 @@
       <c r="AP16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ16" s="13" t="s">
-        <v>58</v>
+      <c r="AQ16" s="13">
+        <v>13</v>
       </c>
       <c r="AR16" s="13">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AS16" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="13">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AU16" s="13">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AV16" s="13">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="AW16" s="13">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="AX16" s="13">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="AY16" s="13">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="AZ16" s="13">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="BA16" s="13">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="BB16" s="13">
-        <v>189</v>
+        <v>133</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2441,98 +2476,98 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>77</v>
       </c>
       <c r="Z17" s="11">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="AA17" s="11">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AB17" s="11">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="AC17" s="11">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="11">
         <v>2</v>
       </c>
-      <c r="AD17" s="11">
+      <c r="AE17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="11">
+        <v>7</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>15</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT17" s="11">
+        <v>21</v>
+      </c>
+      <c r="AU17" s="11">
+        <v>47</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>49</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>31</v>
+      </c>
+      <c r="AX17" s="11">
+        <v>32</v>
+      </c>
+      <c r="AY17" s="11">
+        <v>24</v>
+      </c>
+      <c r="AZ17" s="11">
         <v>1</v>
       </c>
-      <c r="AE17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>7</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>15</v>
-      </c>
-      <c r="AI17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU17" s="11">
-        <v>21</v>
-      </c>
-      <c r="AV17" s="11">
-        <v>47</v>
-      </c>
-      <c r="AW17" s="11">
-        <v>49</v>
-      </c>
-      <c r="AX17" s="11">
-        <v>31</v>
-      </c>
-      <c r="AY17" s="11">
-        <v>32</v>
-      </c>
-      <c r="AZ17" s="11">
-        <v>24</v>
-      </c>
       <c r="BA17" s="11">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="BB17" s="11">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2633,65 +2668,65 @@
       <c r="AI18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ18" s="13" t="s">
-        <v>58</v>
+      <c r="AJ18" s="13">
+        <v>33</v>
       </c>
       <c r="AK18" s="13">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="AL18" s="13">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AM18" s="13">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="AN18" s="13">
-        <v>213</v>
+        <v>298</v>
       </c>
       <c r="AO18" s="13">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="AP18" s="13">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="AQ18" s="13">
         <v>23</v>
       </c>
       <c r="AR18" s="13">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="AS18" s="13">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="AT18" s="13">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV18" s="13">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="AW18" s="13">
-        <v>176</v>
+        <v>51</v>
       </c>
       <c r="AX18" s="13">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AY18" s="13">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="AZ18" s="13">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="BA18" s="13">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="BB18" s="13">
-        <v>233</v>
+        <v>213</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>66</v>
       </c>
@@ -2758,97 +2793,97 @@
         <v>0</v>
       </c>
       <c r="Y19" s="15">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="Z19" s="15">
-        <v>154</v>
+        <v>62</v>
       </c>
       <c r="AA19" s="15">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="AB19" s="15">
+        <v>40</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>41</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>333</v>
+      </c>
+      <c r="AE19" s="15">
+        <v>248</v>
+      </c>
+      <c r="AF19" s="15">
+        <v>200</v>
+      </c>
+      <c r="AG19" s="15">
+        <v>180</v>
+      </c>
+      <c r="AH19" s="15">
+        <v>87</v>
+      </c>
+      <c r="AI19" s="15">
+        <v>139</v>
+      </c>
+      <c r="AJ19" s="15">
         <v>242</v>
       </c>
-      <c r="AC19" s="15">
-        <v>40</v>
-      </c>
-      <c r="AD19" s="15">
-        <v>41</v>
-      </c>
-      <c r="AE19" s="15">
-        <v>333</v>
-      </c>
-      <c r="AF19" s="15">
-        <v>248</v>
-      </c>
-      <c r="AG19" s="15">
-        <v>200</v>
-      </c>
-      <c r="AH19" s="15">
-        <v>180</v>
-      </c>
-      <c r="AI19" s="15">
-        <v>87</v>
-      </c>
-      <c r="AJ19" s="15">
-        <v>139</v>
-      </c>
       <c r="AK19" s="15">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AL19" s="15">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="AM19" s="15">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="AN19" s="15">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="AO19" s="15">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="AP19" s="15">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="AQ19" s="15">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="AR19" s="15">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="AS19" s="15">
-        <v>267</v>
+        <v>442</v>
       </c>
       <c r="AT19" s="15">
-        <v>442</v>
+        <v>124</v>
       </c>
       <c r="AU19" s="15">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="AV19" s="15">
-        <v>357</v>
+        <v>625</v>
       </c>
       <c r="AW19" s="15">
-        <v>625</v>
+        <v>418</v>
       </c>
       <c r="AX19" s="15">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="AY19" s="15">
-        <v>376</v>
+        <v>698</v>
       </c>
       <c r="AZ19" s="15">
-        <v>698</v>
+        <v>599</v>
       </c>
       <c r="BA19" s="15">
-        <v>599</v>
+        <v>809</v>
       </c>
       <c r="BB19" s="15">
-        <v>809</v>
+        <v>739</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>67</v>
       </c>
@@ -2905,7 +2940,7 @@
       <c r="BA20" s="17"/>
       <c r="BB20" s="17"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>68</v>
       </c>
@@ -3062,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>69</v>
       </c>
@@ -3119,7 +3154,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3196,8 +3231,8 @@
       <c r="AA23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB23" s="11" t="s">
-        <v>58</v>
+      <c r="AB23" s="11">
+        <v>0</v>
       </c>
       <c r="AC23" s="11">
         <v>0</v>
@@ -3217,8 +3252,8 @@
       <c r="AH23" s="11">
         <v>0</v>
       </c>
-      <c r="AI23" s="11">
-        <v>0</v>
+      <c r="AI23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ23" s="11" t="s">
         <v>58</v>
@@ -3250,11 +3285,11 @@
       <c r="AS23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU23" s="11">
-        <v>0</v>
+      <c r="AT23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV23" s="11" t="s">
         <v>58</v>
@@ -3262,11 +3297,11 @@
       <c r="AW23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY23" s="11">
-        <v>0</v>
+      <c r="AX23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ23" s="11" t="s">
         <v>58</v>
@@ -3278,7 +3313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>72</v>
       </c>
@@ -3346,8 +3381,8 @@
       <c r="X24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y24" s="13" t="s">
-        <v>58</v>
+      <c r="Y24" s="13">
+        <v>1000</v>
       </c>
       <c r="Z24" s="13">
         <v>1000</v>
@@ -3368,7 +3403,7 @@
         <v>1000</v>
       </c>
       <c r="AF24" s="13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG24" s="13">
         <v>0</v>
@@ -3376,8 +3411,8 @@
       <c r="AH24" s="13">
         <v>0</v>
       </c>
-      <c r="AI24" s="13">
-        <v>0</v>
+      <c r="AI24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ24" s="13" t="s">
         <v>58</v>
@@ -3409,11 +3444,11 @@
       <c r="AS24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU24" s="13">
-        <v>0</v>
+      <c r="AT24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV24" s="13" t="s">
         <v>58</v>
@@ -3421,11 +3456,11 @@
       <c r="AW24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY24" s="13">
-        <v>0</v>
+      <c r="AX24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ24" s="13" t="s">
         <v>58</v>
@@ -3437,7 +3472,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>73</v>
       </c>
@@ -3503,8 +3538,8 @@
       <c r="X25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y25" s="15" t="s">
-        <v>58</v>
+      <c r="Y25" s="15">
+        <v>0</v>
       </c>
       <c r="Z25" s="15">
         <v>0</v>
@@ -3594,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>74</v>
       </c>
@@ -3661,97 +3696,97 @@
         <v>0</v>
       </c>
       <c r="Y26" s="19">
-        <v>0</v>
+        <v>1154</v>
       </c>
       <c r="Z26" s="19">
-        <v>1154</v>
+        <v>1062</v>
       </c>
       <c r="AA26" s="19">
-        <v>1062</v>
+        <v>1242</v>
       </c>
       <c r="AB26" s="19">
-        <v>1242</v>
+        <v>1040</v>
       </c>
       <c r="AC26" s="19">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="AD26" s="19">
-        <v>1041</v>
+        <v>1333</v>
       </c>
       <c r="AE26" s="19">
-        <v>1333</v>
+        <v>1248</v>
       </c>
       <c r="AF26" s="19">
-        <v>1248</v>
+        <v>200</v>
       </c>
       <c r="AG26" s="19">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AH26" s="19">
-        <v>180</v>
+        <v>87</v>
       </c>
       <c r="AI26" s="19">
-        <v>87</v>
+        <v>139</v>
       </c>
       <c r="AJ26" s="19">
-        <v>139</v>
+        <v>242</v>
       </c>
       <c r="AK26" s="19">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="AL26" s="19">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="AM26" s="19">
-        <v>194</v>
+        <v>429</v>
       </c>
       <c r="AN26" s="19">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="AO26" s="19">
-        <v>441</v>
+        <v>280</v>
       </c>
       <c r="AP26" s="19">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="AQ26" s="19">
-        <v>330</v>
+        <v>170</v>
       </c>
       <c r="AR26" s="19">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="AS26" s="19">
-        <v>267</v>
+        <v>442</v>
       </c>
       <c r="AT26" s="19">
-        <v>442</v>
+        <v>124</v>
       </c>
       <c r="AU26" s="19">
-        <v>124</v>
+        <v>357</v>
       </c>
       <c r="AV26" s="19">
-        <v>357</v>
+        <v>625</v>
       </c>
       <c r="AW26" s="19">
-        <v>625</v>
+        <v>418</v>
       </c>
       <c r="AX26" s="19">
-        <v>418</v>
+        <v>376</v>
       </c>
       <c r="AY26" s="19">
-        <v>376</v>
+        <v>698</v>
       </c>
       <c r="AZ26" s="19">
-        <v>698</v>
+        <v>599</v>
       </c>
       <c r="BA26" s="19">
-        <v>599</v>
+        <v>809</v>
       </c>
       <c r="BB26" s="19">
-        <v>809</v>
+        <v>739</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3806,7 +3841,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3861,7 +3896,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3916,7 +3951,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>75</v>
       </c>
@@ -4073,7 +4108,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4128,7 +4163,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>76</v>
       </c>
@@ -4185,7 +4220,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
@@ -4253,98 +4288,98 @@
       <c r="X33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>58</v>
+      <c r="Y33" s="11">
+        <v>124</v>
       </c>
       <c r="Z33" s="11">
-        <v>124</v>
+        <v>9</v>
       </c>
       <c r="AA33" s="11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB33" s="11">
+        <v>25</v>
+      </c>
+      <c r="AC33" s="11">
         <v>12</v>
       </c>
-      <c r="AC33" s="11">
-        <v>25</v>
-      </c>
       <c r="AD33" s="11">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="AE33" s="11">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="AF33" s="11">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="AG33" s="11">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="AH33" s="11">
-        <v>113</v>
+        <v>26</v>
       </c>
       <c r="AI33" s="11">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="AJ33" s="11">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="AK33" s="11">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="AL33" s="11">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="AM33" s="11">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="AN33" s="11">
-        <v>236</v>
+        <v>301</v>
       </c>
       <c r="AO33" s="11">
-        <v>301</v>
+        <v>64</v>
       </c>
       <c r="AP33" s="11">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="AQ33" s="11">
-        <v>248</v>
+        <v>305</v>
       </c>
       <c r="AR33" s="11">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="AS33" s="11">
-        <v>274</v>
+        <v>161</v>
       </c>
       <c r="AT33" s="11">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="11">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="AV33" s="11">
-        <v>128</v>
+        <v>323</v>
       </c>
       <c r="AW33" s="11">
-        <v>323</v>
+        <v>159</v>
       </c>
       <c r="AX33" s="11">
-        <v>159</v>
+        <v>260</v>
       </c>
       <c r="AY33" s="11">
-        <v>260</v>
+        <v>483</v>
       </c>
       <c r="AZ33" s="11">
-        <v>483</v>
+        <v>234</v>
       </c>
       <c r="BA33" s="11">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="BB33" s="11">
-        <v>231</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>59</v>
       </c>
@@ -4412,71 +4447,71 @@
       <c r="X34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="13" t="s">
-        <v>58</v>
+      <c r="Y34" s="13">
+        <v>7</v>
       </c>
       <c r="Z34" s="13">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AA34" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AB34" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC34" s="13">
         <v>0</v>
       </c>
       <c r="AD34" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE34" s="13">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="AF34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG34" s="13">
+        <v>12</v>
+      </c>
+      <c r="AH34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AN34" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ34" s="13">
         <v>3</v>
       </c>
-      <c r="AG34" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH34" s="13">
-        <v>12</v>
-      </c>
-      <c r="AI34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL34" s="13">
-        <v>2</v>
-      </c>
-      <c r="AM34" s="13">
-        <v>1</v>
-      </c>
-      <c r="AN34" s="13">
-        <v>2</v>
-      </c>
-      <c r="AO34" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ34" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AR34" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AS34" s="13">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AT34" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="13">
         <v>0</v>
@@ -4503,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>60</v>
       </c>
@@ -4598,45 +4633,45 @@
       <c r="AG35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH35" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="11" t="s">
-        <v>58</v>
+      <c r="AH35" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ35" s="11">
+        <v>1</v>
       </c>
       <c r="AK35" s="11">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="AL35" s="11">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="AM35" s="11">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AN35" s="11">
         <v>32</v>
       </c>
       <c r="AO35" s="11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AP35" s="11">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AQ35" s="11">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="AR35" s="11">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="AS35" s="11">
-        <v>83</v>
-      </c>
-      <c r="AT35" s="11">
         <v>61</v>
       </c>
+      <c r="AT35" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU35" s="11" t="s">
         <v>58</v>
       </c>
@@ -4662,7 +4697,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>61</v>
       </c>
@@ -4730,98 +4765,98 @@
       <c r="X36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y36" s="13" t="s">
-        <v>58</v>
+      <c r="Y36" s="13">
+        <v>10</v>
       </c>
       <c r="Z36" s="13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AA36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>9</v>
+      </c>
+      <c r="AC36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="13">
+        <v>16</v>
+      </c>
+      <c r="AE36" s="13">
         <v>7</v>
       </c>
-      <c r="AB36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="13">
-        <v>9</v>
-      </c>
-      <c r="AD36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="13">
-        <v>16</v>
-      </c>
       <c r="AF36" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AG36" s="13">
+        <v>27</v>
+      </c>
+      <c r="AH36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="13">
+        <v>5</v>
+      </c>
+      <c r="AJ36" s="13">
+        <v>6</v>
+      </c>
+      <c r="AK36" s="13">
+        <v>2</v>
+      </c>
+      <c r="AL36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM36" s="13">
+        <v>20</v>
+      </c>
+      <c r="AN36" s="13">
+        <v>21</v>
+      </c>
+      <c r="AO36" s="13">
+        <v>2</v>
+      </c>
+      <c r="AP36" s="13">
         <v>4</v>
       </c>
-      <c r="AH36" s="13">
-        <v>27</v>
-      </c>
-      <c r="AI36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="13">
-        <v>5</v>
-      </c>
-      <c r="AK36" s="13">
-        <v>6</v>
-      </c>
-      <c r="AL36" s="13">
-        <v>2</v>
-      </c>
-      <c r="AM36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN36" s="13">
-        <v>20</v>
-      </c>
-      <c r="AO36" s="13">
-        <v>21</v>
-      </c>
-      <c r="AP36" s="13">
-        <v>2</v>
-      </c>
       <c r="AQ36" s="13">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="AR36" s="13">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="AS36" s="13">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="AT36" s="13">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="AU36" s="13">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AV36" s="13">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="AW36" s="13">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="AX36" s="13">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AY36" s="13">
-        <v>19</v>
+        <v>119</v>
       </c>
       <c r="AZ36" s="13">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="BA36" s="13">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="BB36" s="13">
-        <v>39</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>62</v>
       </c>
@@ -4889,42 +4924,42 @@
       <c r="X37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>58</v>
+      <c r="Y37" s="11">
+        <v>40</v>
       </c>
       <c r="Z37" s="11">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA37" s="11">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AB37" s="11">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AC37" s="11">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AD37" s="11">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="AE37" s="11">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="AF37" s="11">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="AG37" s="11">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="AH37" s="11">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="AI37" s="11">
-        <v>25</v>
-      </c>
-      <c r="AJ37" s="11">
         <v>33</v>
       </c>
+      <c r="AJ37" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AK37" s="11" t="s">
         <v>58</v>
       </c>
@@ -4980,7 +5015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>63</v>
       </c>
@@ -5048,98 +5083,98 @@
       <c r="X38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>58</v>
+      <c r="Y38" s="13">
+        <v>3</v>
       </c>
       <c r="Z38" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB38" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="13">
+        <v>2</v>
+      </c>
+      <c r="AH38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN38" s="13">
         <v>1</v>
       </c>
-      <c r="AE38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="13">
-        <v>2</v>
-      </c>
-      <c r="AI38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO38" s="13">
-        <v>1</v>
+      <c r="AO38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS38" s="13" t="s">
-        <v>58</v>
+      <c r="AQ38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS38" s="13">
+        <v>28</v>
       </c>
       <c r="AT38" s="13">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="13">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AV38" s="13">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="AW38" s="13">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX38" s="13">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="AY38" s="13">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="AZ38" s="13">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="BA38" s="13">
-        <v>113</v>
+        <v>59</v>
       </c>
       <c r="BB38" s="13">
-        <v>59</v>
+        <v>214</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
@@ -5207,35 +5242,35 @@
       <c r="X39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>58</v>
+      <c r="Y39" s="11">
+        <v>26</v>
       </c>
       <c r="Z39" s="11">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="AA39" s="11">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AB39" s="11">
-        <v>64</v>
+        <v>12</v>
       </c>
       <c r="AC39" s="11">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AD39" s="11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AE39" s="11">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AF39" s="11">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="AG39" s="11">
-        <v>49</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI39" s="11" t="s">
         <v>58</v>
@@ -5270,35 +5305,35 @@
       <c r="AS39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT39" s="11" t="s">
-        <v>58</v>
+      <c r="AT39" s="11">
+        <v>0</v>
       </c>
       <c r="AU39" s="11">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AV39" s="11">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AW39" s="11">
         <v>16</v>
       </c>
       <c r="AX39" s="11">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="AY39" s="11">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="AZ39" s="11">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="BA39" s="11">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="BB39" s="11">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>65</v>
       </c>
@@ -5399,65 +5434,65 @@
       <c r="AI40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ40" s="13" t="s">
-        <v>58</v>
+      <c r="AJ40" s="13">
+        <v>36</v>
       </c>
       <c r="AK40" s="13">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="AL40" s="13">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AM40" s="13">
-        <v>32</v>
+        <v>210</v>
       </c>
       <c r="AN40" s="13">
-        <v>210</v>
+        <v>280</v>
       </c>
       <c r="AO40" s="13">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="AP40" s="13">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AQ40" s="13">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="AR40" s="13">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="AS40" s="13">
-        <v>51</v>
+        <v>97</v>
       </c>
       <c r="AT40" s="13">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="13">
         <v>0</v>
       </c>
       <c r="AV40" s="13">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AW40" s="13">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="AX40" s="13">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="AY40" s="13">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="AZ40" s="13">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="BA40" s="13">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="BB40" s="13">
-        <v>206</v>
+        <v>224</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>77</v>
       </c>
@@ -5524,97 +5559,97 @@
         <v>0</v>
       </c>
       <c r="Y41" s="15">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="Z41" s="15">
-        <v>210</v>
+        <v>107</v>
       </c>
       <c r="AA41" s="15">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AB41" s="15">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC41" s="15">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="AD41" s="15">
-        <v>49</v>
+        <v>250</v>
       </c>
       <c r="AE41" s="15">
+        <v>220</v>
+      </c>
+      <c r="AF41" s="15">
+        <v>181</v>
+      </c>
+      <c r="AG41" s="15">
         <v>250</v>
       </c>
-      <c r="AF41" s="15">
-        <v>220</v>
-      </c>
-      <c r="AG41" s="15">
-        <v>181</v>
-      </c>
       <c r="AH41" s="15">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AI41" s="15">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="AJ41" s="15">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AK41" s="15">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AL41" s="15">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="AM41" s="15">
-        <v>134</v>
+        <v>500</v>
       </c>
       <c r="AN41" s="15">
-        <v>500</v>
+        <v>636</v>
       </c>
       <c r="AO41" s="15">
-        <v>636</v>
+        <v>121</v>
       </c>
       <c r="AP41" s="15">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="AQ41" s="15">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="AR41" s="15">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="AS41" s="15">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="AT41" s="15">
-        <v>418</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="15">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="AV41" s="15">
-        <v>272</v>
+        <v>442</v>
       </c>
       <c r="AW41" s="15">
-        <v>442</v>
+        <v>253</v>
       </c>
       <c r="AX41" s="15">
-        <v>253</v>
+        <v>506</v>
       </c>
       <c r="AY41" s="15">
-        <v>506</v>
+        <v>981</v>
       </c>
       <c r="AZ41" s="15">
-        <v>981</v>
+        <v>583</v>
       </c>
       <c r="BA41" s="15">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="BB41" s="15">
-        <v>591</v>
+        <v>710</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>78</v>
       </c>
@@ -5671,7 +5706,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>79</v>
       </c>
@@ -5828,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
         <v>69</v>
       </c>
@@ -5885,7 +5920,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="10" t="s">
         <v>70</v>
       </c>
@@ -5962,8 +5997,8 @@
       <c r="AA45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB45" s="11" t="s">
-        <v>58</v>
+      <c r="AB45" s="11">
+        <v>0</v>
       </c>
       <c r="AC45" s="11">
         <v>0</v>
@@ -5983,8 +6018,8 @@
       <c r="AH45" s="11">
         <v>0</v>
       </c>
-      <c r="AI45" s="11">
-        <v>0</v>
+      <c r="AI45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ45" s="11" t="s">
         <v>58</v>
@@ -6016,11 +6051,11 @@
       <c r="AS45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU45" s="11">
-        <v>0</v>
+      <c r="AT45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV45" s="11" t="s">
         <v>58</v>
@@ -6028,11 +6063,11 @@
       <c r="AW45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY45" s="11">
-        <v>0</v>
+      <c r="AX45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ45" s="11" t="s">
         <v>58</v>
@@ -6044,7 +6079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="12" t="s">
         <v>72</v>
       </c>
@@ -6112,17 +6147,17 @@
       <c r="X46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="13" t="s">
-        <v>58</v>
+      <c r="Y46" s="13">
+        <v>1000</v>
       </c>
       <c r="Z46" s="13">
         <v>1000</v>
       </c>
       <c r="AA46" s="13">
+        <v>5000</v>
+      </c>
+      <c r="AB46" s="13">
         <v>1000</v>
-      </c>
-      <c r="AB46" s="13">
-        <v>5000</v>
       </c>
       <c r="AC46" s="13">
         <v>1000</v>
@@ -6140,10 +6175,10 @@
         <v>1000</v>
       </c>
       <c r="AH46" s="13">
-        <v>1000</v>
-      </c>
-      <c r="AI46" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ46" s="13" t="s">
         <v>58</v>
@@ -6175,11 +6210,11 @@
       <c r="AS46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU46" s="13">
-        <v>0</v>
+      <c r="AT46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV46" s="13" t="s">
         <v>58</v>
@@ -6187,11 +6222,11 @@
       <c r="AW46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY46" s="13">
-        <v>0</v>
+      <c r="AX46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ46" s="13" t="s">
         <v>58</v>
@@ -6203,7 +6238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>73</v>
       </c>
@@ -6269,17 +6304,17 @@
       <c r="X47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="15" t="s">
-        <v>58</v>
+      <c r="Y47" s="15">
+        <v>1000</v>
       </c>
       <c r="Z47" s="15">
         <v>1000</v>
       </c>
       <c r="AA47" s="15">
+        <v>5000</v>
+      </c>
+      <c r="AB47" s="15">
         <v>1000</v>
-      </c>
-      <c r="AB47" s="15">
-        <v>5000</v>
       </c>
       <c r="AC47" s="15">
         <v>1000</v>
@@ -6297,7 +6332,7 @@
         <v>1000</v>
       </c>
       <c r="AH47" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI47" s="15">
         <v>0</v>
@@ -6360,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>80</v>
       </c>
@@ -6417,7 +6452,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>56</v>
       </c>
@@ -6485,23 +6520,23 @@
       <c r="X49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="11" t="s">
-        <v>58</v>
+      <c r="Y49" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA49" s="11">
+        <v>-1</v>
       </c>
       <c r="AB49" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC49" s="11">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="AD49" s="11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="11">
         <v>0</v>
@@ -6512,8 +6547,8 @@
       <c r="AG49" s="11">
         <v>0</v>
       </c>
-      <c r="AH49" s="11">
-        <v>0</v>
+      <c r="AH49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI49" s="11" t="s">
         <v>58</v>
@@ -6524,33 +6559,33 @@
       <c r="AK49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM49" s="11">
+      <c r="AL49" s="11">
         <v>1</v>
       </c>
+      <c r="AM49" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AN49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP49" s="11">
+      <c r="AO49" s="11">
         <v>1</v>
       </c>
+      <c r="AP49" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ49" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AR49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT49" s="11">
+      <c r="AS49" s="11">
         <v>14</v>
       </c>
+      <c r="AT49" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU49" s="11" t="s">
         <v>58</v>
       </c>
@@ -6560,11 +6595,11 @@
       <c r="AW49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY49" s="11">
-        <v>0</v>
+      <c r="AX49" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ49" s="11" t="s">
         <v>58</v>
@@ -6576,7 +6611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
         <v>59</v>
       </c>
@@ -6704,12 +6739,12 @@
       <c r="AR50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT50" s="13">
+      <c r="AS50" s="13">
         <v>8</v>
       </c>
+      <c r="AT50" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU50" s="13" t="s">
         <v>58</v>
       </c>
@@ -6735,7 +6770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>60</v>
       </c>
@@ -6815,11 +6850,11 @@
       <c r="AB51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC51" s="11" t="s">
-        <v>58</v>
+      <c r="AC51" s="11">
+        <v>-1</v>
       </c>
       <c r="AD51" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="11">
         <v>0</v>
@@ -6830,8 +6865,8 @@
       <c r="AG51" s="11">
         <v>0</v>
       </c>
-      <c r="AH51" s="11">
-        <v>0</v>
+      <c r="AH51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI51" s="11" t="s">
         <v>58</v>
@@ -6863,12 +6898,12 @@
       <c r="AR51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT51" s="11">
+      <c r="AS51" s="11">
         <v>6</v>
       </c>
+      <c r="AT51" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU51" s="11" t="s">
         <v>58</v>
       </c>
@@ -6894,7 +6929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
         <v>61</v>
       </c>
@@ -7037,11 +7072,11 @@
       <c r="AW52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY52" s="13">
-        <v>0</v>
+      <c r="AX52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ52" s="13" t="s">
         <v>58</v>
@@ -7053,7 +7088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>70</v>
       </c>
@@ -7184,11 +7219,11 @@
       <c r="AS53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU53" s="11">
-        <v>0</v>
+      <c r="AT53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV53" s="11" t="s">
         <v>58</v>
@@ -7196,11 +7231,11 @@
       <c r="AW53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY53" s="11">
-        <v>0</v>
+      <c r="AX53" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ53" s="11" t="s">
         <v>58</v>
@@ -7212,7 +7247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>72</v>
       </c>
@@ -7280,23 +7315,23 @@
       <c r="X54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="13" t="s">
-        <v>58</v>
+      <c r="Y54" s="13">
+        <v>0</v>
       </c>
       <c r="Z54" s="13">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA54" s="13">
         <v>-100</v>
       </c>
       <c r="AB54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="13">
         <v>-100</v>
       </c>
-      <c r="AC54" s="13">
-        <v>0</v>
-      </c>
       <c r="AD54" s="13">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AE54" s="13">
         <v>100</v>
@@ -7307,8 +7342,8 @@
       <c r="AG54" s="13">
         <v>100</v>
       </c>
-      <c r="AH54" s="13">
-        <v>100</v>
+      <c r="AH54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI54" s="13" t="s">
         <v>58</v>
@@ -7343,11 +7378,11 @@
       <c r="AS54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU54" s="13">
-        <v>0</v>
+      <c r="AT54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV54" s="13" t="s">
         <v>58</v>
@@ -7355,11 +7390,11 @@
       <c r="AW54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY54" s="13">
-        <v>0</v>
+      <c r="AX54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ54" s="13" t="s">
         <v>58</v>
@@ -7371,7 +7406,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>63</v>
       </c>
@@ -7445,11 +7480,11 @@
       <c r="Z55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA55" s="11" t="s">
-        <v>58</v>
+      <c r="AA55" s="11">
+        <v>-2</v>
       </c>
       <c r="AB55" s="11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AC55" s="11">
         <v>0</v>
@@ -7466,8 +7501,8 @@
       <c r="AG55" s="11">
         <v>0</v>
       </c>
-      <c r="AH55" s="11">
-        <v>0</v>
+      <c r="AH55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI55" s="11" t="s">
         <v>58</v>
@@ -7499,12 +7534,12 @@
       <c r="AR55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT55" s="11">
+      <c r="AS55" s="11">
         <v>3</v>
       </c>
+      <c r="AT55" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU55" s="11" t="s">
         <v>58</v>
       </c>
@@ -7530,7 +7565,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>64</v>
       </c>
@@ -7673,11 +7708,11 @@
       <c r="AW56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY56" s="13">
-        <v>0</v>
+      <c r="AX56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AZ56" s="13" t="s">
         <v>58</v>
@@ -7689,7 +7724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>65</v>
       </c>
@@ -7805,24 +7840,24 @@
       <c r="AN57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP57" s="11">
+      <c r="AO57" s="11">
         <v>1</v>
       </c>
+      <c r="AP57" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AQ57" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AR57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT57" s="11">
+      <c r="AS57" s="11">
         <v>5</v>
       </c>
+      <c r="AT57" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU57" s="11" t="s">
         <v>58</v>
       </c>
@@ -7832,11 +7867,11 @@
       <c r="AW57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX57" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY57" s="11">
-        <v>0</v>
+      <c r="AX57" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AZ57" s="11" t="s">
         <v>58</v>
@@ -7848,7 +7883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="18" t="s">
         <v>81</v>
       </c>
@@ -7914,23 +7949,23 @@
       <c r="X58" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="19" t="s">
-        <v>58</v>
+      <c r="Y58" s="19">
+        <v>0</v>
       </c>
       <c r="Z58" s="19">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA58" s="19">
-        <v>-100</v>
+        <v>-103</v>
       </c>
       <c r="AB58" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="19">
         <v>-103</v>
       </c>
-      <c r="AC58" s="19">
-        <v>0</v>
-      </c>
       <c r="AD58" s="19">
-        <v>-103</v>
+        <v>100</v>
       </c>
       <c r="AE58" s="19">
         <v>100</v>
@@ -7942,7 +7977,7 @@
         <v>100</v>
       </c>
       <c r="AH58" s="19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AI58" s="19">
         <v>0</v>
@@ -7954,19 +7989,19 @@
         <v>0</v>
       </c>
       <c r="AL58" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM58" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN58" s="19">
         <v>0</v>
       </c>
       <c r="AO58" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP58" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ58" s="19">
         <v>0</v>
@@ -7975,10 +8010,10 @@
         <v>0</v>
       </c>
       <c r="AS58" s="19">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AT58" s="19">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AU58" s="19">
         <v>0</v>
@@ -8005,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
         <v>74</v>
       </c>
@@ -8072,97 +8107,97 @@
         <v>0</v>
       </c>
       <c r="Y59" s="15">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="Z59" s="15">
-        <v>1210</v>
+        <v>1007</v>
       </c>
       <c r="AA59" s="15">
-        <v>1007</v>
+        <v>5010</v>
       </c>
       <c r="AB59" s="15">
-        <v>5010</v>
+        <v>1078</v>
       </c>
       <c r="AC59" s="15">
-        <v>1078</v>
+        <v>946</v>
       </c>
       <c r="AD59" s="15">
-        <v>946</v>
+        <v>1350</v>
       </c>
       <c r="AE59" s="15">
+        <v>1320</v>
+      </c>
+      <c r="AF59" s="15">
+        <v>1281</v>
+      </c>
+      <c r="AG59" s="15">
         <v>1350</v>
       </c>
-      <c r="AF59" s="15">
-        <v>1320</v>
-      </c>
-      <c r="AG59" s="15">
-        <v>1281</v>
-      </c>
       <c r="AH59" s="15">
-        <v>1350</v>
+        <v>51</v>
       </c>
       <c r="AI59" s="15">
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="AJ59" s="15">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="AK59" s="15">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="AL59" s="15">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="AM59" s="15">
-        <v>135</v>
+        <v>500</v>
       </c>
       <c r="AN59" s="15">
-        <v>500</v>
+        <v>636</v>
       </c>
       <c r="AO59" s="15">
-        <v>636</v>
+        <v>123</v>
       </c>
       <c r="AP59" s="15">
-        <v>123</v>
+        <v>286</v>
       </c>
       <c r="AQ59" s="15">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="AR59" s="15">
-        <v>391</v>
+        <v>446</v>
       </c>
       <c r="AS59" s="15">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="AT59" s="15">
-        <v>454</v>
+        <v>0</v>
       </c>
       <c r="AU59" s="15">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="AV59" s="15">
-        <v>272</v>
+        <v>442</v>
       </c>
       <c r="AW59" s="15">
-        <v>442</v>
+        <v>253</v>
       </c>
       <c r="AX59" s="15">
-        <v>253</v>
+        <v>506</v>
       </c>
       <c r="AY59" s="15">
-        <v>506</v>
+        <v>981</v>
       </c>
       <c r="AZ59" s="15">
-        <v>981</v>
+        <v>583</v>
       </c>
       <c r="BA59" s="15">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="BB59" s="15">
-        <v>591</v>
+        <v>710</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8217,7 +8252,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8272,7 +8307,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -8327,7 +8362,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>82</v>
       </c>
@@ -8484,7 +8519,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8539,7 +8574,7 @@
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
         <v>83</v>
       </c>
@@ -8596,7 +8631,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
@@ -8664,98 +8699,98 @@
       <c r="X66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y66" s="11" t="s">
-        <v>58</v>
+      <c r="Y66" s="11">
+        <v>389236</v>
       </c>
       <c r="Z66" s="11">
-        <v>389236</v>
+        <v>36721</v>
       </c>
       <c r="AA66" s="11">
-        <v>36721</v>
+        <v>60851</v>
       </c>
       <c r="AB66" s="11">
-        <v>60851</v>
+        <v>116819</v>
       </c>
       <c r="AC66" s="11">
-        <v>116819</v>
+        <v>57878</v>
       </c>
       <c r="AD66" s="11">
-        <v>57878</v>
+        <v>563209</v>
       </c>
       <c r="AE66" s="11">
-        <v>563209</v>
+        <v>469542</v>
       </c>
       <c r="AF66" s="11">
-        <v>469542</v>
+        <v>309293</v>
       </c>
       <c r="AG66" s="11">
-        <v>309293</v>
+        <v>590644</v>
       </c>
       <c r="AH66" s="11">
-        <v>590644</v>
+        <v>141184</v>
       </c>
       <c r="AI66" s="11">
-        <v>141184</v>
+        <v>212784</v>
       </c>
       <c r="AJ66" s="11">
-        <v>212784</v>
+        <v>551152</v>
       </c>
       <c r="AK66" s="11">
-        <v>551152</v>
+        <v>690050</v>
       </c>
       <c r="AL66" s="11">
-        <v>690050</v>
+        <v>444782</v>
       </c>
       <c r="AM66" s="11">
-        <v>444782</v>
+        <v>1487059</v>
       </c>
       <c r="AN66" s="11">
-        <v>1487059</v>
+        <v>1872111</v>
       </c>
       <c r="AO66" s="11">
-        <v>1872111</v>
+        <v>461318</v>
       </c>
       <c r="AP66" s="11">
-        <v>461318</v>
+        <v>1891362</v>
       </c>
       <c r="AQ66" s="11">
-        <v>1891362</v>
+        <v>2212592</v>
       </c>
       <c r="AR66" s="11">
-        <v>2212592</v>
+        <v>2019541</v>
       </c>
       <c r="AS66" s="11">
-        <v>2019541</v>
+        <v>1124707</v>
       </c>
       <c r="AT66" s="11">
-        <v>1124707</v>
+        <v>0</v>
       </c>
       <c r="AU66" s="11">
-        <v>0</v>
+        <v>1071281</v>
       </c>
       <c r="AV66" s="11">
-        <v>1071281</v>
+        <v>2675061</v>
       </c>
       <c r="AW66" s="11">
-        <v>2675061</v>
+        <v>1332729</v>
       </c>
       <c r="AX66" s="11">
-        <v>1332729</v>
+        <v>2165245</v>
       </c>
       <c r="AY66" s="11">
-        <v>2165245</v>
+        <v>4226687</v>
       </c>
       <c r="AZ66" s="11">
-        <v>4226687</v>
+        <v>2045911</v>
       </c>
       <c r="BA66" s="11">
-        <v>2045911</v>
+        <v>2035028</v>
       </c>
       <c r="BB66" s="11">
-        <v>2035028</v>
+        <v>1074537</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>59</v>
       </c>
@@ -8823,71 +8858,71 @@
       <c r="X67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="13" t="s">
-        <v>58</v>
+      <c r="Y67" s="13">
+        <v>22947</v>
       </c>
       <c r="Z67" s="13">
-        <v>22947</v>
+        <v>0</v>
       </c>
       <c r="AA67" s="13">
-        <v>0</v>
+        <v>42610</v>
       </c>
       <c r="AB67" s="13">
-        <v>42610</v>
+        <v>0</v>
       </c>
       <c r="AC67" s="13">
         <v>0</v>
       </c>
       <c r="AD67" s="13">
-        <v>0</v>
+        <v>51667</v>
       </c>
       <c r="AE67" s="13">
-        <v>51667</v>
+        <v>14091</v>
       </c>
       <c r="AF67" s="13">
+        <v>4697</v>
+      </c>
+      <c r="AG67" s="13">
+        <v>56364</v>
+      </c>
+      <c r="AH67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="13">
+        <v>9394</v>
+      </c>
+      <c r="AL67" s="13">
+        <v>4697</v>
+      </c>
+      <c r="AM67" s="13">
+        <v>9394</v>
+      </c>
+      <c r="AN67" s="13">
+        <v>4697</v>
+      </c>
+      <c r="AO67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="13">
         <v>14091</v>
       </c>
-      <c r="AG67" s="13">
-        <v>4697</v>
-      </c>
-      <c r="AH67" s="13">
-        <v>56364</v>
-      </c>
-      <c r="AI67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL67" s="13">
-        <v>9394</v>
-      </c>
-      <c r="AM67" s="13">
-        <v>4697</v>
-      </c>
-      <c r="AN67" s="13">
-        <v>9394</v>
-      </c>
-      <c r="AO67" s="13">
-        <v>4697</v>
-      </c>
-      <c r="AP67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ67" s="13">
-        <v>0</v>
-      </c>
       <c r="AR67" s="13">
-        <v>14091</v>
+        <v>23485</v>
       </c>
       <c r="AS67" s="13">
-        <v>23485</v>
+        <v>37576</v>
       </c>
       <c r="AT67" s="13">
-        <v>37576</v>
+        <v>0</v>
       </c>
       <c r="AU67" s="13">
         <v>0</v>
@@ -8914,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="10" t="s">
         <v>60</v>
       </c>
@@ -9009,45 +9044,45 @@
       <c r="AG68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH68" s="11" t="s">
-        <v>58</v>
+      <c r="AH68" s="11">
+        <v>0</v>
       </c>
       <c r="AI68" s="11">
         <v>0</v>
       </c>
       <c r="AJ68" s="11">
-        <v>0</v>
+        <v>4758</v>
       </c>
       <c r="AK68" s="11">
-        <v>4758</v>
+        <v>362390</v>
       </c>
       <c r="AL68" s="11">
-        <v>362390</v>
+        <v>420840</v>
       </c>
       <c r="AM68" s="11">
-        <v>420840</v>
+        <v>374080</v>
       </c>
       <c r="AN68" s="11">
         <v>374080</v>
       </c>
       <c r="AO68" s="11">
-        <v>374080</v>
+        <v>292250</v>
       </c>
       <c r="AP68" s="11">
-        <v>292250</v>
+        <v>259015</v>
       </c>
       <c r="AQ68" s="11">
-        <v>259015</v>
+        <v>11690</v>
       </c>
       <c r="AR68" s="11">
-        <v>11690</v>
+        <v>1009715</v>
       </c>
       <c r="AS68" s="11">
-        <v>1009715</v>
-      </c>
-      <c r="AT68" s="11">
         <v>764017</v>
       </c>
+      <c r="AT68" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU68" s="11" t="s">
         <v>58</v>
       </c>
@@ -9073,7 +9108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>61</v>
       </c>
@@ -9141,98 +9176,98 @@
       <c r="X69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="13" t="s">
-        <v>58</v>
+      <c r="Y69" s="13">
+        <v>43431</v>
       </c>
       <c r="Z69" s="13">
-        <v>43431</v>
+        <v>40992</v>
       </c>
       <c r="AA69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="13">
+        <v>52704</v>
+      </c>
+      <c r="AC69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="13">
+        <v>93696</v>
+      </c>
+      <c r="AE69" s="13">
         <v>40992</v>
       </c>
-      <c r="AB69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC69" s="13">
-        <v>52704</v>
-      </c>
-      <c r="AD69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE69" s="13">
-        <v>93696</v>
-      </c>
       <c r="AF69" s="13">
-        <v>40992</v>
+        <v>23424</v>
       </c>
       <c r="AG69" s="13">
-        <v>23424</v>
+        <v>163968</v>
       </c>
       <c r="AH69" s="13">
-        <v>163968</v>
+        <v>0</v>
       </c>
       <c r="AI69" s="13">
-        <v>0</v>
+        <v>29280</v>
       </c>
       <c r="AJ69" s="13">
-        <v>29280</v>
+        <v>35136</v>
       </c>
       <c r="AK69" s="13">
-        <v>35136</v>
+        <v>11712</v>
       </c>
       <c r="AL69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM69" s="13">
+        <v>117120</v>
+      </c>
+      <c r="AN69" s="13">
+        <v>122976</v>
+      </c>
+      <c r="AO69" s="13">
         <v>11712</v>
       </c>
-      <c r="AM69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN69" s="13">
-        <v>117120</v>
-      </c>
-      <c r="AO69" s="13">
-        <v>122976</v>
-      </c>
       <c r="AP69" s="13">
-        <v>11712</v>
+        <v>34622</v>
       </c>
       <c r="AQ69" s="13">
-        <v>34622</v>
+        <v>455459</v>
       </c>
       <c r="AR69" s="13">
-        <v>455459</v>
+        <v>287846</v>
       </c>
       <c r="AS69" s="13">
-        <v>287846</v>
+        <v>585917</v>
       </c>
       <c r="AT69" s="13">
-        <v>585917</v>
+        <v>0</v>
       </c>
       <c r="AU69" s="13">
-        <v>0</v>
+        <v>420700</v>
       </c>
       <c r="AV69" s="13">
-        <v>420700</v>
+        <v>207938</v>
       </c>
       <c r="AW69" s="13">
-        <v>207938</v>
+        <v>165136</v>
       </c>
       <c r="AX69" s="13">
-        <v>165136</v>
+        <v>178969</v>
       </c>
       <c r="AY69" s="13">
-        <v>178969</v>
+        <v>1154634</v>
       </c>
       <c r="AZ69" s="13">
-        <v>1154634</v>
+        <v>757065</v>
       </c>
       <c r="BA69" s="13">
-        <v>757065</v>
+        <v>331959</v>
       </c>
       <c r="BB69" s="13">
-        <v>331959</v>
+        <v>966118</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>62</v>
       </c>
@@ -9300,42 +9335,42 @@
       <c r="X70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y70" s="11" t="s">
-        <v>58</v>
+      <c r="Y70" s="11">
+        <v>40568</v>
       </c>
       <c r="Z70" s="11">
-        <v>40568</v>
+        <v>36638</v>
       </c>
       <c r="AA70" s="11">
-        <v>36638</v>
+        <v>47411</v>
       </c>
       <c r="AB70" s="11">
-        <v>47411</v>
+        <v>42291</v>
       </c>
       <c r="AC70" s="11">
-        <v>42291</v>
+        <v>11527</v>
       </c>
       <c r="AD70" s="11">
-        <v>11527</v>
+        <v>427769</v>
       </c>
       <c r="AE70" s="11">
-        <v>427769</v>
+        <v>163234</v>
       </c>
       <c r="AF70" s="11">
-        <v>163234</v>
+        <v>134437</v>
       </c>
       <c r="AG70" s="11">
-        <v>134437</v>
+        <v>364549</v>
       </c>
       <c r="AH70" s="11">
-        <v>364549</v>
+        <v>190155</v>
       </c>
       <c r="AI70" s="11">
-        <v>190155</v>
-      </c>
-      <c r="AJ70" s="11">
         <v>122593</v>
       </c>
+      <c r="AJ70" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AK70" s="11" t="s">
         <v>58</v>
       </c>
@@ -9391,7 +9426,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>63</v>
       </c>
@@ -9459,23 +9494,23 @@
       <c r="X71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="13" t="s">
-        <v>58</v>
+      <c r="Y71" s="13">
+        <v>23567</v>
       </c>
       <c r="Z71" s="13">
-        <v>23567</v>
+        <v>0</v>
       </c>
       <c r="AA71" s="13">
-        <v>0</v>
+        <v>30138</v>
       </c>
       <c r="AB71" s="13">
-        <v>30138</v>
+        <v>0</v>
       </c>
       <c r="AC71" s="13">
-        <v>0</v>
+        <v>7534</v>
       </c>
       <c r="AD71" s="13">
-        <v>7534</v>
+        <v>0</v>
       </c>
       <c r="AE71" s="13">
         <v>0</v>
@@ -9484,13 +9519,13 @@
         <v>0</v>
       </c>
       <c r="AG71" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH71" s="13">
         <v>21762</v>
       </c>
-      <c r="AI71" s="13" t="s">
-        <v>58</v>
+      <c r="AH71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI71" s="13">
+        <v>0</v>
       </c>
       <c r="AJ71" s="13">
         <v>0</v>
@@ -9505,10 +9540,10 @@
         <v>0</v>
       </c>
       <c r="AN71" s="13">
-        <v>0</v>
+        <v>9652</v>
       </c>
       <c r="AO71" s="13">
-        <v>9652</v>
+        <v>0</v>
       </c>
       <c r="AP71" s="13">
         <v>0</v>
@@ -9520,37 +9555,37 @@
         <v>0</v>
       </c>
       <c r="AS71" s="13">
-        <v>0</v>
+        <v>705471</v>
       </c>
       <c r="AT71" s="13">
-        <v>705471</v>
+        <v>0</v>
       </c>
       <c r="AU71" s="13">
-        <v>0</v>
+        <v>1863235</v>
       </c>
       <c r="AV71" s="13">
-        <v>1863235</v>
+        <v>459058</v>
       </c>
       <c r="AW71" s="13">
-        <v>459058</v>
+        <v>433401</v>
       </c>
       <c r="AX71" s="13">
-        <v>433401</v>
+        <v>1286973</v>
       </c>
       <c r="AY71" s="13">
-        <v>1286973</v>
+        <v>4163032</v>
       </c>
       <c r="AZ71" s="13">
-        <v>4163032</v>
+        <v>3445655</v>
       </c>
       <c r="BA71" s="13">
-        <v>3445655</v>
+        <v>1796799</v>
       </c>
       <c r="BB71" s="13">
-        <v>1796799</v>
+        <v>6616390</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>64</v>
       </c>
@@ -9618,35 +9653,35 @@
       <c r="X72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y72" s="11" t="s">
-        <v>58</v>
+      <c r="Y72" s="11">
+        <v>125451</v>
       </c>
       <c r="Z72" s="11">
-        <v>125451</v>
+        <v>345387</v>
       </c>
       <c r="AA72" s="11">
-        <v>345387</v>
+        <v>415377</v>
       </c>
       <c r="AB72" s="11">
-        <v>415377</v>
+        <v>76594</v>
       </c>
       <c r="AC72" s="11">
-        <v>76594</v>
+        <v>76697</v>
       </c>
       <c r="AD72" s="11">
-        <v>76697</v>
+        <v>67664</v>
       </c>
       <c r="AE72" s="11">
-        <v>67664</v>
+        <v>152927</v>
       </c>
       <c r="AF72" s="11">
-        <v>152927</v>
+        <v>323910</v>
       </c>
       <c r="AG72" s="11">
-        <v>323910</v>
-      </c>
-      <c r="AH72" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH72" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI72" s="11" t="s">
         <v>58</v>
@@ -9681,35 +9716,35 @@
       <c r="AS72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT72" s="11" t="s">
-        <v>58</v>
+      <c r="AT72" s="11">
+        <v>0</v>
       </c>
       <c r="AU72" s="11">
-        <v>0</v>
+        <v>365612</v>
       </c>
       <c r="AV72" s="11">
-        <v>365612</v>
+        <v>219604</v>
       </c>
       <c r="AW72" s="11">
-        <v>219604</v>
+        <v>228494</v>
       </c>
       <c r="AX72" s="11">
-        <v>228494</v>
+        <v>734200</v>
       </c>
       <c r="AY72" s="11">
-        <v>734200</v>
+        <v>1252458</v>
       </c>
       <c r="AZ72" s="11">
-        <v>1252458</v>
+        <v>14396</v>
       </c>
       <c r="BA72" s="11">
-        <v>14396</v>
+        <v>806180</v>
       </c>
       <c r="BB72" s="11">
-        <v>806180</v>
+        <v>417486</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>65</v>
       </c>
@@ -9810,65 +9845,65 @@
       <c r="AI73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ73" s="13" t="s">
-        <v>58</v>
+      <c r="AJ73" s="13">
+        <v>73546</v>
       </c>
       <c r="AK73" s="13">
-        <v>73546</v>
+        <v>115153</v>
       </c>
       <c r="AL73" s="13">
-        <v>115153</v>
+        <v>72264</v>
       </c>
       <c r="AM73" s="13">
-        <v>72264</v>
+        <v>1401764</v>
       </c>
       <c r="AN73" s="13">
-        <v>1401764</v>
+        <v>2215490</v>
       </c>
       <c r="AO73" s="13">
-        <v>2215490</v>
+        <v>65734</v>
       </c>
       <c r="AP73" s="13">
-        <v>65734</v>
+        <v>15165</v>
       </c>
       <c r="AQ73" s="13">
-        <v>15165</v>
+        <v>195134</v>
       </c>
       <c r="AR73" s="13">
-        <v>195134</v>
+        <v>467855</v>
       </c>
       <c r="AS73" s="13">
-        <v>467855</v>
+        <v>760960</v>
       </c>
       <c r="AT73" s="13">
-        <v>760960</v>
+        <v>0</v>
       </c>
       <c r="AU73" s="13">
         <v>0</v>
       </c>
       <c r="AV73" s="13">
-        <v>0</v>
+        <v>465621</v>
       </c>
       <c r="AW73" s="13">
-        <v>465621</v>
+        <v>140972</v>
       </c>
       <c r="AX73" s="13">
-        <v>140972</v>
+        <v>513724</v>
       </c>
       <c r="AY73" s="13">
-        <v>513724</v>
+        <v>590272</v>
       </c>
       <c r="AZ73" s="13">
-        <v>590272</v>
+        <v>434587</v>
       </c>
       <c r="BA73" s="13">
-        <v>434587</v>
+        <v>663028</v>
       </c>
       <c r="BB73" s="13">
-        <v>663028</v>
+        <v>754603</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>77</v>
       </c>
@@ -9935,97 +9970,97 @@
         <v>0</v>
       </c>
       <c r="Y74" s="15">
-        <v>0</v>
+        <v>645200</v>
       </c>
       <c r="Z74" s="15">
-        <v>645200</v>
+        <v>459738</v>
       </c>
       <c r="AA74" s="15">
-        <v>459738</v>
+        <v>596387</v>
       </c>
       <c r="AB74" s="15">
-        <v>596387</v>
+        <v>288408</v>
       </c>
       <c r="AC74" s="15">
-        <v>288408</v>
+        <v>153636</v>
       </c>
       <c r="AD74" s="15">
-        <v>153636</v>
+        <v>1204005</v>
       </c>
       <c r="AE74" s="15">
-        <v>1204005</v>
+        <v>840786</v>
       </c>
       <c r="AF74" s="15">
-        <v>840786</v>
+        <v>795761</v>
       </c>
       <c r="AG74" s="15">
-        <v>795761</v>
+        <v>1197287</v>
       </c>
       <c r="AH74" s="15">
-        <v>1197287</v>
+        <v>331339</v>
       </c>
       <c r="AI74" s="15">
-        <v>331339</v>
+        <v>364657</v>
       </c>
       <c r="AJ74" s="15">
-        <v>364657</v>
+        <v>664592</v>
       </c>
       <c r="AK74" s="15">
-        <v>664592</v>
+        <v>1188699</v>
       </c>
       <c r="AL74" s="15">
-        <v>1188699</v>
+        <v>942583</v>
       </c>
       <c r="AM74" s="15">
-        <v>942583</v>
+        <v>3389417</v>
       </c>
       <c r="AN74" s="15">
-        <v>3389417</v>
+        <v>4599006</v>
       </c>
       <c r="AO74" s="15">
-        <v>4599006</v>
+        <v>831014</v>
       </c>
       <c r="AP74" s="15">
-        <v>831014</v>
+        <v>2200164</v>
       </c>
       <c r="AQ74" s="15">
-        <v>2200164</v>
+        <v>2888966</v>
       </c>
       <c r="AR74" s="15">
-        <v>2888966</v>
+        <v>3808442</v>
       </c>
       <c r="AS74" s="15">
-        <v>3808442</v>
+        <v>3978648</v>
       </c>
       <c r="AT74" s="15">
-        <v>3978648</v>
+        <v>0</v>
       </c>
       <c r="AU74" s="15">
-        <v>0</v>
+        <v>3720828</v>
       </c>
       <c r="AV74" s="15">
-        <v>3720828</v>
+        <v>4027282</v>
       </c>
       <c r="AW74" s="15">
-        <v>4027282</v>
+        <v>2300732</v>
       </c>
       <c r="AX74" s="15">
-        <v>2300732</v>
+        <v>4879111</v>
       </c>
       <c r="AY74" s="15">
-        <v>4879111</v>
+        <v>11387083</v>
       </c>
       <c r="AZ74" s="15">
-        <v>11387083</v>
+        <v>6697614</v>
       </c>
       <c r="BA74" s="15">
-        <v>6697614</v>
+        <v>5632994</v>
       </c>
       <c r="BB74" s="15">
-        <v>5632994</v>
+        <v>9829134</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="16" t="s">
         <v>85</v>
       </c>
@@ -10082,7 +10117,7 @@
       <c r="BA75" s="17"/>
       <c r="BB75" s="17"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="14" t="s">
         <v>79</v>
       </c>
@@ -10239,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>86</v>
       </c>
@@ -10296,7 +10331,7 @@
       <c r="BA77" s="9"/>
       <c r="BB77" s="9"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>70</v>
       </c>
@@ -10373,8 +10408,8 @@
       <c r="AA78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB78" s="11" t="s">
-        <v>58</v>
+      <c r="AB78" s="11">
+        <v>0</v>
       </c>
       <c r="AC78" s="11">
         <v>0</v>
@@ -10392,70 +10427,70 @@
         <v>0</v>
       </c>
       <c r="AH78" s="11">
-        <v>0</v>
+        <v>59861</v>
       </c>
       <c r="AI78" s="11">
-        <v>59861</v>
+        <v>137145</v>
       </c>
       <c r="AJ78" s="11">
-        <v>137145</v>
+        <v>206704</v>
       </c>
       <c r="AK78" s="11">
-        <v>206704</v>
+        <v>190852</v>
       </c>
       <c r="AL78" s="11">
-        <v>190852</v>
+        <v>172176</v>
       </c>
       <c r="AM78" s="11">
-        <v>172176</v>
+        <v>211093</v>
       </c>
       <c r="AN78" s="11">
-        <v>211093</v>
+        <v>193568</v>
       </c>
       <c r="AO78" s="11">
-        <v>193568</v>
+        <v>218580</v>
       </c>
       <c r="AP78" s="11">
-        <v>218580</v>
+        <v>269665</v>
       </c>
       <c r="AQ78" s="11">
-        <v>269665</v>
+        <v>959793</v>
       </c>
       <c r="AR78" s="11">
-        <v>959793</v>
+        <v>361972</v>
       </c>
       <c r="AS78" s="11">
-        <v>361972</v>
+        <v>226510</v>
       </c>
       <c r="AT78" s="11">
-        <v>226510</v>
+        <v>157929</v>
       </c>
       <c r="AU78" s="11">
-        <v>157929</v>
+        <v>222591</v>
       </c>
       <c r="AV78" s="11">
-        <v>222591</v>
+        <v>436466</v>
       </c>
       <c r="AW78" s="11">
-        <v>436466</v>
+        <v>247939</v>
       </c>
       <c r="AX78" s="11">
-        <v>247939</v>
+        <v>393539</v>
       </c>
       <c r="AY78" s="11">
-        <v>393539</v>
+        <v>311348</v>
       </c>
       <c r="AZ78" s="11">
-        <v>311348</v>
+        <v>335996</v>
       </c>
       <c r="BA78" s="11">
-        <v>335996</v>
+        <v>513735</v>
       </c>
       <c r="BB78" s="11">
-        <v>513735</v>
+        <v>1245246</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>72</v>
       </c>
@@ -10523,98 +10558,98 @@
       <c r="X79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="13" t="s">
-        <v>58</v>
+      <c r="Y79" s="13">
+        <v>205535</v>
       </c>
       <c r="Z79" s="13">
-        <v>205535</v>
+        <v>144758</v>
       </c>
       <c r="AA79" s="13">
-        <v>144758</v>
+        <v>229839</v>
       </c>
       <c r="AB79" s="13">
-        <v>229839</v>
+        <v>154828</v>
       </c>
       <c r="AC79" s="13">
-        <v>154828</v>
+        <v>103627</v>
       </c>
       <c r="AD79" s="13">
-        <v>103627</v>
+        <v>403061</v>
       </c>
       <c r="AE79" s="13">
-        <v>403061</v>
+        <v>219925</v>
       </c>
       <c r="AF79" s="13">
-        <v>219925</v>
+        <v>265284</v>
       </c>
       <c r="AG79" s="13">
-        <v>265284</v>
+        <v>430975</v>
       </c>
       <c r="AH79" s="13">
-        <v>430975</v>
+        <v>545</v>
       </c>
       <c r="AI79" s="13">
-        <v>545</v>
+        <v>1555</v>
       </c>
       <c r="AJ79" s="13">
-        <v>1555</v>
+        <v>1670</v>
       </c>
       <c r="AK79" s="13">
-        <v>1670</v>
+        <v>1474</v>
       </c>
       <c r="AL79" s="13">
-        <v>1474</v>
+        <v>1580</v>
       </c>
       <c r="AM79" s="13">
-        <v>1580</v>
+        <v>2418</v>
       </c>
       <c r="AN79" s="13">
-        <v>2418</v>
+        <v>2271</v>
       </c>
       <c r="AO79" s="13">
-        <v>2271</v>
+        <v>3086</v>
       </c>
       <c r="AP79" s="13">
-        <v>3086</v>
+        <v>3177</v>
       </c>
       <c r="AQ79" s="13">
-        <v>3177</v>
+        <v>3019</v>
       </c>
       <c r="AR79" s="13">
-        <v>3019</v>
+        <v>2234</v>
       </c>
       <c r="AS79" s="13">
-        <v>2234</v>
+        <v>186904</v>
       </c>
       <c r="AT79" s="13">
-        <v>186904</v>
+        <v>1471</v>
       </c>
       <c r="AU79" s="13">
-        <v>1471</v>
+        <v>2757</v>
       </c>
       <c r="AV79" s="13">
-        <v>2757</v>
+        <v>355207</v>
       </c>
       <c r="AW79" s="13">
-        <v>355207</v>
+        <v>212784</v>
       </c>
       <c r="AX79" s="13">
-        <v>212784</v>
+        <v>203775</v>
       </c>
       <c r="AY79" s="13">
-        <v>203775</v>
+        <v>310984</v>
       </c>
       <c r="AZ79" s="13">
-        <v>310984</v>
+        <v>225176</v>
       </c>
       <c r="BA79" s="13">
-        <v>225176</v>
+        <v>393616</v>
       </c>
       <c r="BB79" s="13">
-        <v>393616</v>
+        <v>269201</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>73</v>
       </c>
@@ -10682,98 +10717,98 @@
       <c r="X80" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="15" t="s">
-        <v>58</v>
+      <c r="Y80" s="15">
+        <v>205535</v>
       </c>
       <c r="Z80" s="15">
-        <v>205535</v>
+        <v>144758</v>
       </c>
       <c r="AA80" s="15">
-        <v>144758</v>
+        <v>229839</v>
       </c>
       <c r="AB80" s="15">
-        <v>229839</v>
+        <v>154828</v>
       </c>
       <c r="AC80" s="15">
-        <v>154828</v>
+        <v>103627</v>
       </c>
       <c r="AD80" s="15">
-        <v>103627</v>
+        <v>403061</v>
       </c>
       <c r="AE80" s="15">
-        <v>403061</v>
+        <v>219925</v>
       </c>
       <c r="AF80" s="15">
-        <v>219925</v>
+        <v>265284</v>
       </c>
       <c r="AG80" s="15">
-        <v>265284</v>
+        <v>430975</v>
       </c>
       <c r="AH80" s="15">
-        <v>430975</v>
+        <v>60406</v>
       </c>
       <c r="AI80" s="15">
-        <v>60406</v>
+        <v>138700</v>
       </c>
       <c r="AJ80" s="15">
-        <v>138700</v>
+        <v>208374</v>
       </c>
       <c r="AK80" s="15">
-        <v>208374</v>
+        <v>192326</v>
       </c>
       <c r="AL80" s="15">
-        <v>192326</v>
+        <v>173756</v>
       </c>
       <c r="AM80" s="15">
-        <v>173756</v>
+        <v>213511</v>
       </c>
       <c r="AN80" s="15">
-        <v>213511</v>
+        <v>195839</v>
       </c>
       <c r="AO80" s="15">
-        <v>195839</v>
+        <v>221666</v>
       </c>
       <c r="AP80" s="15">
-        <v>221666</v>
+        <v>272842</v>
       </c>
       <c r="AQ80" s="15">
-        <v>272842</v>
+        <v>962812</v>
       </c>
       <c r="AR80" s="15">
-        <v>962812</v>
+        <v>364206</v>
       </c>
       <c r="AS80" s="15">
-        <v>364206</v>
+        <v>413414</v>
       </c>
       <c r="AT80" s="15">
-        <v>413414</v>
+        <v>159400</v>
       </c>
       <c r="AU80" s="15">
-        <v>159400</v>
+        <v>225348</v>
       </c>
       <c r="AV80" s="15">
-        <v>225348</v>
+        <v>791673</v>
       </c>
       <c r="AW80" s="15">
-        <v>791673</v>
+        <v>460723</v>
       </c>
       <c r="AX80" s="15">
-        <v>460723</v>
+        <v>597314</v>
       </c>
       <c r="AY80" s="15">
-        <v>597314</v>
+        <v>622332</v>
       </c>
       <c r="AZ80" s="15">
-        <v>622332</v>
+        <v>561172</v>
       </c>
       <c r="BA80" s="15">
-        <v>561172</v>
+        <v>907351</v>
       </c>
       <c r="BB80" s="15">
-        <v>907351</v>
+        <v>1514447</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>87</v>
       </c>
@@ -10830,7 +10865,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
@@ -10898,23 +10933,23 @@
       <c r="X82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA82" s="11" t="s">
-        <v>58</v>
+      <c r="Y82" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA82" s="11">
+        <v>-2636</v>
       </c>
       <c r="AB82" s="11">
-        <v>-2636</v>
+        <v>0</v>
       </c>
       <c r="AC82" s="11">
-        <v>0</v>
+        <v>-5272</v>
       </c>
       <c r="AD82" s="11">
-        <v>-5272</v>
+        <v>0</v>
       </c>
       <c r="AE82" s="11">
         <v>0</v>
@@ -10925,8 +10960,8 @@
       <c r="AG82" s="11">
         <v>0</v>
       </c>
-      <c r="AH82" s="11">
-        <v>0</v>
+      <c r="AH82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI82" s="11" t="s">
         <v>58</v>
@@ -10937,20 +10972,20 @@
       <c r="AK82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL82" s="11" t="s">
-        <v>58</v>
+      <c r="AL82" s="11">
+        <v>-5490</v>
       </c>
       <c r="AM82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO82" s="11">
         <v>-5490</v>
       </c>
-      <c r="AN82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO82" s="11">
-        <v>0</v>
-      </c>
       <c r="AP82" s="11">
-        <v>-5490</v>
+        <v>0</v>
       </c>
       <c r="AQ82" s="11">
         <v>0</v>
@@ -10959,28 +10994,28 @@
         <v>0</v>
       </c>
       <c r="AS82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT82" s="11">
         <v>-107182</v>
       </c>
+      <c r="AT82" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV82" s="11" t="s">
-        <v>58</v>
+      <c r="AV82" s="11">
+        <v>-9041</v>
       </c>
       <c r="AW82" s="11">
-        <v>-9041</v>
+        <v>-31679</v>
       </c>
       <c r="AX82" s="11">
-        <v>-31679</v>
+        <v>0</v>
       </c>
       <c r="AY82" s="11">
-        <v>0</v>
+        <v>-8474</v>
       </c>
       <c r="AZ82" s="11">
-        <v>-8474</v>
+        <v>0</v>
       </c>
       <c r="BA82" s="11">
         <v>0</v>
@@ -10989,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>59</v>
       </c>
@@ -11117,12 +11152,12 @@
       <c r="AR83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT83" s="13">
+      <c r="AS83" s="13">
         <v>-37576</v>
       </c>
+      <c r="AT83" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU83" s="13" t="s">
         <v>58</v>
       </c>
@@ -11148,7 +11183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>60</v>
       </c>
@@ -11228,11 +11263,11 @@
       <c r="AB84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AC84" s="11" t="s">
-        <v>58</v>
+      <c r="AC84" s="11">
+        <v>-6649</v>
       </c>
       <c r="AD84" s="11">
-        <v>-6649</v>
+        <v>0</v>
       </c>
       <c r="AE84" s="11">
         <v>0</v>
@@ -11243,8 +11278,8 @@
       <c r="AG84" s="11">
         <v>0</v>
       </c>
-      <c r="AH84" s="11">
-        <v>0</v>
+      <c r="AH84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI84" s="11" t="s">
         <v>58</v>
@@ -11264,8 +11299,8 @@
       <c r="AN84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO84" s="11" t="s">
-        <v>58</v>
+      <c r="AO84" s="11">
+        <v>0</v>
       </c>
       <c r="AP84" s="11">
         <v>0</v>
@@ -11277,11 +11312,11 @@
         <v>0</v>
       </c>
       <c r="AS84" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT84" s="11">
         <v>-70614</v>
       </c>
+      <c r="AT84" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU84" s="11" t="s">
         <v>58</v>
       </c>
@@ -11307,7 +11342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>61</v>
       </c>
@@ -11450,11 +11485,11 @@
       <c r="AW85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX85" s="13" t="s">
-        <v>58</v>
+      <c r="AX85" s="13">
+        <v>-9836</v>
       </c>
       <c r="AY85" s="13">
-        <v>-9836</v>
+        <v>0</v>
       </c>
       <c r="AZ85" s="13">
         <v>0</v>
@@ -11466,7 +11501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>70</v>
       </c>
@@ -11576,56 +11611,56 @@
       <c r="AL86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM86" s="11" t="s">
-        <v>58</v>
+      <c r="AM86" s="11">
+        <v>-1463</v>
       </c>
       <c r="AN86" s="11">
-        <v>-1463</v>
+        <v>-1119</v>
       </c>
       <c r="AO86" s="11">
-        <v>-1119</v>
+        <v>-1505</v>
       </c>
       <c r="AP86" s="11">
-        <v>-1505</v>
+        <v>-131</v>
       </c>
       <c r="AQ86" s="11">
-        <v>-131</v>
+        <v>-61</v>
       </c>
       <c r="AR86" s="11">
-        <v>-61</v>
+        <v>-328</v>
       </c>
       <c r="AS86" s="11">
-        <v>-328</v>
+        <v>-27022</v>
       </c>
       <c r="AT86" s="11">
-        <v>-27022</v>
+        <v>0</v>
       </c>
       <c r="AU86" s="11">
-        <v>0</v>
+        <v>-167</v>
       </c>
       <c r="AV86" s="11">
-        <v>-167</v>
+        <v>-891</v>
       </c>
       <c r="AW86" s="11">
-        <v>-891</v>
+        <v>-172</v>
       </c>
       <c r="AX86" s="11">
-        <v>-172</v>
+        <v>-21203</v>
       </c>
       <c r="AY86" s="11">
-        <v>-21203</v>
+        <v>-287</v>
       </c>
       <c r="AZ86" s="11">
-        <v>-287</v>
+        <v>-1137</v>
       </c>
       <c r="BA86" s="11">
-        <v>-1137</v>
+        <v>-2984</v>
       </c>
       <c r="BB86" s="11">
-        <v>-2984</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>72</v>
       </c>
@@ -11693,50 +11728,50 @@
       <c r="X87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="13" t="s">
-        <v>58</v>
+      <c r="Y87" s="13">
+        <v>0</v>
       </c>
       <c r="Z87" s="13">
-        <v>0</v>
+        <v>-3097</v>
       </c>
       <c r="AA87" s="13">
-        <v>-3097</v>
+        <v>-654</v>
       </c>
       <c r="AB87" s="13">
-        <v>-654</v>
+        <v>0</v>
       </c>
       <c r="AC87" s="13">
-        <v>0</v>
+        <v>-2303</v>
       </c>
       <c r="AD87" s="13">
-        <v>-2303</v>
+        <v>-1615</v>
       </c>
       <c r="AE87" s="13">
-        <v>-1615</v>
+        <v>-62</v>
       </c>
       <c r="AF87" s="13">
-        <v>-62</v>
+        <v>-452</v>
       </c>
       <c r="AG87" s="13">
-        <v>-452</v>
-      </c>
-      <c r="AH87" s="13">
         <v>-116</v>
       </c>
-      <c r="AI87" s="13" t="s">
-        <v>58</v>
+      <c r="AH87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI87" s="13">
+        <v>-1035</v>
       </c>
       <c r="AJ87" s="13">
-        <v>-1035</v>
+        <v>-162</v>
       </c>
       <c r="AK87" s="13">
-        <v>-162</v>
+        <v>-261</v>
       </c>
       <c r="AL87" s="13">
-        <v>-261</v>
+        <v>-170</v>
       </c>
       <c r="AM87" s="13">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="AN87" s="13">
         <v>0</v>
@@ -11769,10 +11804,10 @@
         <v>0</v>
       </c>
       <c r="AX87" s="13">
-        <v>0</v>
+        <v>3189</v>
       </c>
       <c r="AY87" s="13">
-        <v>3189</v>
+        <v>0</v>
       </c>
       <c r="AZ87" s="13">
         <v>0</v>
@@ -11784,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>63</v>
       </c>
@@ -11858,11 +11893,11 @@
       <c r="Z88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA88" s="11" t="s">
-        <v>58</v>
+      <c r="AA88" s="11">
+        <v>-15069</v>
       </c>
       <c r="AB88" s="11">
-        <v>-15069</v>
+        <v>0</v>
       </c>
       <c r="AC88" s="11">
         <v>0</v>
@@ -11874,13 +11909,13 @@
         <v>0</v>
       </c>
       <c r="AF88" s="11">
-        <v>0</v>
+        <v>-4373</v>
       </c>
       <c r="AG88" s="11">
-        <v>-4373</v>
-      </c>
-      <c r="AH88" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI88" s="11" t="s">
         <v>58</v>
@@ -11894,8 +11929,8 @@
       <c r="AL88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM88" s="11" t="s">
-        <v>58</v>
+      <c r="AM88" s="11">
+        <v>0</v>
       </c>
       <c r="AN88" s="11">
         <v>0</v>
@@ -11913,11 +11948,11 @@
         <v>0</v>
       </c>
       <c r="AS88" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT88" s="11">
         <v>-30386</v>
       </c>
+      <c r="AT88" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU88" s="11" t="s">
         <v>58</v>
       </c>
@@ -11933,17 +11968,17 @@
       <c r="AY88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ88" s="11" t="s">
-        <v>58</v>
+      <c r="AZ88" s="11">
+        <v>-28893</v>
       </c>
       <c r="BA88" s="11">
-        <v>-28893</v>
+        <v>0</v>
       </c>
       <c r="BB88" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>64</v>
       </c>
@@ -12083,11 +12118,11 @@
       <c r="AV89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW89" s="13" t="s">
-        <v>58</v>
+      <c r="AW89" s="13">
+        <v>-12607</v>
       </c>
       <c r="AX89" s="13">
-        <v>-12607</v>
+        <v>0</v>
       </c>
       <c r="AY89" s="13">
         <v>0</v>
@@ -12102,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>65</v>
       </c>
@@ -12209,20 +12244,20 @@
       <c r="AK90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL90" s="11" t="s">
-        <v>58</v>
+      <c r="AL90" s="11">
+        <v>-17405</v>
       </c>
       <c r="AM90" s="11">
-        <v>-17405</v>
+        <v>0</v>
       </c>
       <c r="AN90" s="11">
         <v>0</v>
       </c>
       <c r="AO90" s="11">
-        <v>0</v>
+        <v>-12991</v>
       </c>
       <c r="AP90" s="11">
-        <v>-12991</v>
+        <v>0</v>
       </c>
       <c r="AQ90" s="11">
         <v>0</v>
@@ -12231,25 +12266,25 @@
         <v>0</v>
       </c>
       <c r="AS90" s="11">
-        <v>0</v>
-      </c>
-      <c r="AT90" s="11">
         <v>-14148</v>
       </c>
+      <c r="AT90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU90" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AV90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW90" s="11" t="s">
-        <v>58</v>
+      <c r="AW90" s="11">
+        <v>-14893</v>
       </c>
       <c r="AX90" s="11">
-        <v>-14893</v>
+        <v>-1587</v>
       </c>
       <c r="AY90" s="11">
-        <v>-1587</v>
+        <v>0</v>
       </c>
       <c r="AZ90" s="11">
         <v>0</v>
@@ -12261,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B91" s="18" t="s">
         <v>81</v>
       </c>
@@ -12329,98 +12364,98 @@
       <c r="X91" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y91" s="19" t="s">
-        <v>58</v>
+      <c r="Y91" s="19">
+        <v>0</v>
       </c>
       <c r="Z91" s="19">
-        <v>0</v>
+        <v>-3097</v>
       </c>
       <c r="AA91" s="19">
-        <v>-3097</v>
+        <v>-18359</v>
       </c>
       <c r="AB91" s="19">
-        <v>-18359</v>
+        <v>0</v>
       </c>
       <c r="AC91" s="19">
-        <v>0</v>
+        <v>-14224</v>
       </c>
       <c r="AD91" s="19">
-        <v>-14224</v>
+        <v>-1615</v>
       </c>
       <c r="AE91" s="19">
-        <v>-1615</v>
+        <v>-62</v>
       </c>
       <c r="AF91" s="19">
-        <v>-62</v>
+        <v>-4825</v>
       </c>
       <c r="AG91" s="19">
-        <v>-4825</v>
+        <v>-116</v>
       </c>
       <c r="AH91" s="19">
-        <v>-116</v>
+        <v>0</v>
       </c>
       <c r="AI91" s="19">
-        <v>0</v>
+        <v>-1035</v>
       </c>
       <c r="AJ91" s="19">
-        <v>-1035</v>
+        <v>-162</v>
       </c>
       <c r="AK91" s="19">
-        <v>-162</v>
+        <v>-261</v>
       </c>
       <c r="AL91" s="19">
-        <v>-261</v>
+        <v>-23065</v>
       </c>
       <c r="AM91" s="19">
-        <v>-23065</v>
+        <v>-1463</v>
       </c>
       <c r="AN91" s="19">
-        <v>-1463</v>
+        <v>-1119</v>
       </c>
       <c r="AO91" s="19">
-        <v>-1119</v>
+        <v>-19986</v>
       </c>
       <c r="AP91" s="19">
-        <v>-19986</v>
+        <v>-131</v>
       </c>
       <c r="AQ91" s="19">
-        <v>-131</v>
+        <v>-61</v>
       </c>
       <c r="AR91" s="19">
-        <v>-61</v>
+        <v>-328</v>
       </c>
       <c r="AS91" s="19">
-        <v>-328</v>
+        <v>-286928</v>
       </c>
       <c r="AT91" s="19">
-        <v>-286928</v>
+        <v>-3189</v>
       </c>
       <c r="AU91" s="19">
-        <v>-3189</v>
+        <v>-167</v>
       </c>
       <c r="AV91" s="19">
-        <v>-167</v>
+        <v>-9932</v>
       </c>
       <c r="AW91" s="19">
-        <v>-9932</v>
+        <v>-59351</v>
       </c>
       <c r="AX91" s="19">
-        <v>-59351</v>
+        <v>-29437</v>
       </c>
       <c r="AY91" s="19">
-        <v>-29437</v>
+        <v>-8761</v>
       </c>
       <c r="AZ91" s="19">
-        <v>-8761</v>
+        <v>-30030</v>
       </c>
       <c r="BA91" s="19">
-        <v>-30030</v>
+        <v>-2984</v>
       </c>
       <c r="BB91" s="19">
-        <v>-2984</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B92" s="8" t="s">
         <v>88</v>
       </c>
@@ -12477,7 +12512,7 @@
       <c r="BA92" s="9"/>
       <c r="BB92" s="9"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B93" s="10" t="s">
         <v>89</v>
       </c>
@@ -12545,98 +12580,98 @@
       <c r="X93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y93" s="11" t="s">
-        <v>58</v>
+      <c r="Y93" s="11">
+        <v>-40011</v>
       </c>
       <c r="Z93" s="11">
-        <v>-40011</v>
+        <v>-13877</v>
       </c>
       <c r="AA93" s="11">
-        <v>-13877</v>
+        <v>-18824</v>
       </c>
       <c r="AB93" s="11">
-        <v>-18824</v>
+        <v>0</v>
       </c>
       <c r="AC93" s="11">
-        <v>0</v>
+        <v>-12804</v>
       </c>
       <c r="AD93" s="11">
-        <v>-12804</v>
+        <v>-18914</v>
       </c>
       <c r="AE93" s="11">
-        <v>-18914</v>
+        <v>-21977</v>
       </c>
       <c r="AF93" s="11">
-        <v>-21977</v>
+        <v>-23570</v>
       </c>
       <c r="AG93" s="11">
-        <v>-23570</v>
+        <v>-19266</v>
       </c>
       <c r="AH93" s="11">
-        <v>-19266</v>
+        <v>-11400</v>
       </c>
       <c r="AI93" s="11">
-        <v>-11400</v>
+        <v>-22632</v>
       </c>
       <c r="AJ93" s="11">
-        <v>-22632</v>
+        <v>-27895</v>
       </c>
       <c r="AK93" s="11">
-        <v>-27895</v>
+        <v>-80056</v>
       </c>
       <c r="AL93" s="11">
-        <v>-80056</v>
+        <v>-78578</v>
       </c>
       <c r="AM93" s="11">
-        <v>-78578</v>
+        <v>-77596</v>
       </c>
       <c r="AN93" s="11">
-        <v>-77596</v>
+        <v>-61991</v>
       </c>
       <c r="AO93" s="11">
-        <v>-61991</v>
+        <v>-45253</v>
       </c>
       <c r="AP93" s="11">
-        <v>-45253</v>
+        <v>-45636</v>
       </c>
       <c r="AQ93" s="11">
-        <v>-45636</v>
+        <v>-30643</v>
       </c>
       <c r="AR93" s="11">
-        <v>-30643</v>
+        <v>-47617</v>
       </c>
       <c r="AS93" s="11">
-        <v>-47617</v>
+        <v>-48126</v>
       </c>
       <c r="AT93" s="11">
-        <v>-48126</v>
+        <v>-23469</v>
       </c>
       <c r="AU93" s="11">
-        <v>-23469</v>
+        <v>-31324</v>
       </c>
       <c r="AV93" s="11">
-        <v>-31324</v>
+        <v>-44385</v>
       </c>
       <c r="AW93" s="11">
-        <v>-44385</v>
+        <v>-34437</v>
       </c>
       <c r="AX93" s="11">
-        <v>-34437</v>
+        <v>-61128</v>
       </c>
       <c r="AY93" s="11">
-        <v>-61128</v>
+        <v>-44357</v>
       </c>
       <c r="AZ93" s="11">
-        <v>-44357</v>
+        <v>-33852</v>
       </c>
       <c r="BA93" s="11">
-        <v>-33852</v>
+        <v>-59452</v>
       </c>
       <c r="BB93" s="11">
-        <v>-59452</v>
+        <v>-71733</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B94" s="18" t="s">
         <v>74</v>
       </c>
@@ -12703,97 +12738,97 @@
         <v>0</v>
       </c>
       <c r="Y94" s="19">
-        <v>0</v>
+        <v>810724</v>
       </c>
       <c r="Z94" s="19">
-        <v>810724</v>
+        <v>587522</v>
       </c>
       <c r="AA94" s="19">
-        <v>587522</v>
+        <v>789043</v>
       </c>
       <c r="AB94" s="19">
-        <v>789043</v>
+        <v>443236</v>
       </c>
       <c r="AC94" s="19">
-        <v>443236</v>
+        <v>230235</v>
       </c>
       <c r="AD94" s="19">
-        <v>230235</v>
+        <v>1586537</v>
       </c>
       <c r="AE94" s="19">
-        <v>1586537</v>
+        <v>1038672</v>
       </c>
       <c r="AF94" s="19">
-        <v>1038672</v>
+        <v>1032650</v>
       </c>
       <c r="AG94" s="19">
-        <v>1032650</v>
+        <v>1608880</v>
       </c>
       <c r="AH94" s="19">
-        <v>1608880</v>
+        <v>380345</v>
       </c>
       <c r="AI94" s="19">
-        <v>380345</v>
+        <v>479690</v>
       </c>
       <c r="AJ94" s="19">
-        <v>479690</v>
+        <v>844909</v>
       </c>
       <c r="AK94" s="19">
-        <v>844909</v>
+        <v>1300708</v>
       </c>
       <c r="AL94" s="19">
-        <v>1300708</v>
+        <v>1014696</v>
       </c>
       <c r="AM94" s="19">
-        <v>1014696</v>
+        <v>3523869</v>
       </c>
       <c r="AN94" s="19">
-        <v>3523869</v>
+        <v>4731735</v>
       </c>
       <c r="AO94" s="19">
-        <v>4731735</v>
+        <v>987441</v>
       </c>
       <c r="AP94" s="19">
-        <v>987441</v>
+        <v>2427239</v>
       </c>
       <c r="AQ94" s="19">
-        <v>2427239</v>
+        <v>3821074</v>
       </c>
       <c r="AR94" s="19">
-        <v>3821074</v>
+        <v>4124703</v>
       </c>
       <c r="AS94" s="19">
-        <v>4124703</v>
+        <v>4057008</v>
       </c>
       <c r="AT94" s="19">
-        <v>4057008</v>
+        <v>135931</v>
       </c>
       <c r="AU94" s="19">
-        <v>135931</v>
+        <v>3914685</v>
       </c>
       <c r="AV94" s="19">
-        <v>3914685</v>
+        <v>4764638</v>
       </c>
       <c r="AW94" s="19">
-        <v>4764638</v>
+        <v>2667667</v>
       </c>
       <c r="AX94" s="19">
-        <v>2667667</v>
+        <v>5385860</v>
       </c>
       <c r="AY94" s="19">
-        <v>5385860</v>
+        <v>11956297</v>
       </c>
       <c r="AZ94" s="19">
-        <v>11956297</v>
+        <v>7194904</v>
       </c>
       <c r="BA94" s="19">
-        <v>7194904</v>
+        <v>6477909</v>
       </c>
       <c r="BB94" s="19">
-        <v>6477909</v>
+        <v>11271848</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -12848,7 +12883,7 @@
       <c r="BA95" s="1"/>
       <c r="BB95" s="1"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -12903,7 +12938,7 @@
       <c r="BA96" s="1"/>
       <c r="BB96" s="1"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -12958,7 +12993,7 @@
       <c r="BA97" s="1"/>
       <c r="BB97" s="1"/>
     </row>
-    <row r="98" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>90</v>
       </c>
@@ -13115,7 +13150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -13170,7 +13205,7 @@
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>91</v>
       </c>
@@ -13227,7 +13262,7 @@
       <c r="BA100" s="9"/>
       <c r="BB100" s="9"/>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>56</v>
       </c>
@@ -13295,98 +13330,98 @@
       <c r="X101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y101" s="11" t="s">
-        <v>58</v>
+      <c r="Y101" s="11">
+        <v>3139000000</v>
       </c>
       <c r="Z101" s="11">
-        <v>3139000000</v>
+        <v>4080111111</v>
       </c>
       <c r="AA101" s="11">
-        <v>4080111111</v>
+        <v>5070916667</v>
       </c>
       <c r="AB101" s="11">
-        <v>5070916667</v>
+        <v>4672760000</v>
       </c>
       <c r="AC101" s="11">
-        <v>4672760000</v>
+        <v>4823166667</v>
       </c>
       <c r="AD101" s="11">
-        <v>4823166667</v>
+        <v>5313292453</v>
       </c>
       <c r="AE101" s="11">
-        <v>5313292453</v>
+        <v>5275752809</v>
       </c>
       <c r="AF101" s="11">
-        <v>5275752809</v>
+        <v>5154883333</v>
       </c>
       <c r="AG101" s="11">
-        <v>5154883333</v>
+        <v>5226938053</v>
       </c>
       <c r="AH101" s="11">
-        <v>5226938053</v>
+        <v>5430153846</v>
       </c>
       <c r="AI101" s="11">
-        <v>5430153846</v>
+        <v>5456000000</v>
       </c>
       <c r="AJ101" s="11">
-        <v>5456000000</v>
+        <v>6263090909</v>
       </c>
       <c r="AK101" s="11">
-        <v>6263090909</v>
+        <v>6765196078</v>
       </c>
       <c r="AL101" s="11">
-        <v>6765196078</v>
+        <v>6842800000</v>
       </c>
       <c r="AM101" s="11">
-        <v>6842800000</v>
+        <v>6301097458</v>
       </c>
       <c r="AN101" s="11">
-        <v>6301097458</v>
+        <v>6219637874</v>
       </c>
       <c r="AO101" s="11">
-        <v>6219637874</v>
+        <v>7208093750</v>
       </c>
       <c r="AP101" s="11">
-        <v>7208093750</v>
+        <v>7626459677</v>
       </c>
       <c r="AQ101" s="11">
-        <v>7626459677</v>
+        <v>7254400000</v>
       </c>
       <c r="AR101" s="11">
-        <v>7254400000</v>
+        <v>7370587591</v>
       </c>
       <c r="AS101" s="11">
-        <v>7370587591</v>
-      </c>
-      <c r="AT101" s="11">
         <v>6985757764</v>
       </c>
-      <c r="AU101" s="11" t="s">
-        <v>58</v>
+      <c r="AT101" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU101" s="11">
+        <v>8369382813</v>
       </c>
       <c r="AV101" s="11">
-        <v>8369382813</v>
+        <v>8281922601</v>
       </c>
       <c r="AW101" s="11">
-        <v>8281922601</v>
+        <v>8381943396</v>
       </c>
       <c r="AX101" s="11">
-        <v>8381943396</v>
+        <v>8327865385</v>
       </c>
       <c r="AY101" s="11">
-        <v>8327865385</v>
+        <v>8750904762</v>
       </c>
       <c r="AZ101" s="11">
-        <v>8750904762</v>
+        <v>8743209402</v>
       </c>
       <c r="BA101" s="11">
-        <v>8743209402</v>
+        <v>8809645022</v>
       </c>
       <c r="BB101" s="11">
-        <v>8809645022</v>
+        <v>8460921260</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>59</v>
       </c>
@@ -13454,23 +13489,23 @@
       <c r="X102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z102" s="13">
+      <c r="Y102" s="13">
         <v>3278142857</v>
       </c>
-      <c r="AA102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB102" s="13">
+      <c r="Z102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA102" s="13">
         <v>4734444444</v>
       </c>
+      <c r="AB102" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AC102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AD102" s="13" t="s">
-        <v>58</v>
+      <c r="AD102" s="13">
+        <v>4697000000</v>
       </c>
       <c r="AE102" s="13">
         <v>4697000000</v>
@@ -13481,17 +13516,17 @@
       <c r="AG102" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AH102" s="13">
+      <c r="AH102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK102" s="13">
         <v>4697000000</v>
-      </c>
-      <c r="AI102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK102" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AL102" s="13">
         <v>4697000000</v>
@@ -13502,14 +13537,14 @@
       <c r="AN102" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AO102" s="13">
+      <c r="AO102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ102" s="13">
         <v>4697000000</v>
-      </c>
-      <c r="AP102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ102" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AR102" s="13">
         <v>4697000000</v>
@@ -13517,8 +13552,8 @@
       <c r="AS102" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AT102" s="13">
-        <v>4697000000</v>
+      <c r="AT102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU102" s="13" t="s">
         <v>58</v>
@@ -13545,7 +13580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>60</v>
       </c>
@@ -13646,11 +13681,11 @@
       <c r="AI103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ103" s="11" t="s">
-        <v>58</v>
+      <c r="AJ103" s="11">
+        <v>4758000000</v>
       </c>
       <c r="AK103" s="11">
-        <v>4758000000</v>
+        <v>11690000000</v>
       </c>
       <c r="AL103" s="11">
         <v>11690000000</v>
@@ -13665,20 +13700,20 @@
         <v>11690000000</v>
       </c>
       <c r="AP103" s="11">
+        <v>11773409091</v>
+      </c>
+      <c r="AQ103" s="11">
         <v>11690000000</v>
       </c>
-      <c r="AQ103" s="11">
-        <v>11773409091</v>
-      </c>
       <c r="AR103" s="11">
-        <v>11690000000</v>
+        <v>12165240964</v>
       </c>
       <c r="AS103" s="11">
-        <v>12165240964</v>
-      </c>
-      <c r="AT103" s="11">
         <v>12524868852</v>
       </c>
+      <c r="AT103" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AU103" s="11" t="s">
         <v>58</v>
       </c>
@@ -13704,7 +13739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>61</v>
       </c>
@@ -13772,23 +13807,23 @@
       <c r="X104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y104" s="13" t="s">
-        <v>58</v>
+      <c r="Y104" s="13">
+        <v>4343100000</v>
       </c>
       <c r="Z104" s="13">
-        <v>4343100000</v>
-      </c>
-      <c r="AA104" s="13">
         <v>5856000000</v>
       </c>
-      <c r="AB104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC104" s="13">
+      <c r="AA104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB104" s="13">
         <v>5856000000</v>
       </c>
-      <c r="AD104" s="13" t="s">
-        <v>58</v>
+      <c r="AC104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD104" s="13">
+        <v>5856000000</v>
       </c>
       <c r="AE104" s="13">
         <v>5856000000</v>
@@ -13797,13 +13832,13 @@
         <v>5856000000</v>
       </c>
       <c r="AG104" s="13">
+        <v>6072888889</v>
+      </c>
+      <c r="AH104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI104" s="13">
         <v>5856000000</v>
-      </c>
-      <c r="AH104" s="13">
-        <v>6072888889</v>
-      </c>
-      <c r="AI104" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AJ104" s="13">
         <v>5856000000</v>
@@ -13811,11 +13846,11 @@
       <c r="AK104" s="13">
         <v>5856000000</v>
       </c>
-      <c r="AL104" s="13">
+      <c r="AL104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM104" s="13">
         <v>5856000000</v>
-      </c>
-      <c r="AM104" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AN104" s="13">
         <v>5856000000</v>
@@ -13824,46 +13859,46 @@
         <v>5856000000</v>
       </c>
       <c r="AP104" s="13">
-        <v>5856000000</v>
+        <v>8655500000</v>
       </c>
       <c r="AQ104" s="13">
-        <v>8655500000</v>
+        <v>7346112903</v>
       </c>
       <c r="AR104" s="13">
-        <v>7346112903</v>
+        <v>8722606061</v>
       </c>
       <c r="AS104" s="13">
-        <v>8722606061</v>
-      </c>
-      <c r="AT104" s="13">
         <v>9300269841</v>
       </c>
-      <c r="AU104" s="13" t="s">
-        <v>58</v>
+      <c r="AT104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU104" s="13">
+        <v>9145652174</v>
       </c>
       <c r="AV104" s="13">
-        <v>9145652174</v>
+        <v>9040782609</v>
       </c>
       <c r="AW104" s="13">
-        <v>9040782609</v>
+        <v>9174222222</v>
       </c>
       <c r="AX104" s="13">
-        <v>9174222222</v>
+        <v>9419421053</v>
       </c>
       <c r="AY104" s="13">
-        <v>9419421053</v>
+        <v>9702806723</v>
       </c>
       <c r="AZ104" s="13">
-        <v>9702806723</v>
+        <v>9583101266</v>
       </c>
       <c r="BA104" s="13">
-        <v>9583101266</v>
+        <v>8511769231</v>
       </c>
       <c r="BB104" s="13">
-        <v>8511769231</v>
+        <v>8328603448</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>62</v>
       </c>
@@ -13931,42 +13966,42 @@
       <c r="X105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y105" s="11" t="s">
-        <v>58</v>
+      <c r="Y105" s="11">
+        <v>1014200000</v>
       </c>
       <c r="Z105" s="11">
-        <v>1014200000</v>
+        <v>1077588235</v>
       </c>
       <c r="AA105" s="11">
-        <v>1077588235</v>
+        <v>1975458333</v>
       </c>
       <c r="AB105" s="11">
-        <v>1975458333</v>
+        <v>1321593750</v>
       </c>
       <c r="AC105" s="11">
-        <v>1321593750</v>
+        <v>523954545</v>
       </c>
       <c r="AD105" s="11">
-        <v>523954545</v>
+        <v>4035556604</v>
       </c>
       <c r="AE105" s="11">
-        <v>4035556604</v>
+        <v>1665653061</v>
       </c>
       <c r="AF105" s="11">
-        <v>1665653061</v>
+        <v>2006522388</v>
       </c>
       <c r="AG105" s="11">
-        <v>2006522388</v>
+        <v>3797385417</v>
       </c>
       <c r="AH105" s="11">
-        <v>3797385417</v>
+        <v>7606200000</v>
       </c>
       <c r="AI105" s="11">
-        <v>7606200000</v>
-      </c>
-      <c r="AJ105" s="11">
         <v>3714939394</v>
       </c>
+      <c r="AJ105" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AK105" s="11" t="s">
         <v>58</v>
       </c>
@@ -14022,7 +14057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B106" s="12" t="s">
         <v>63</v>
       </c>
@@ -14090,36 +14125,36 @@
       <c r="X106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z106" s="13">
+      <c r="Y106" s="13">
         <v>7855666667</v>
       </c>
-      <c r="AA106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB106" s="13">
+      <c r="Z106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA106" s="13">
         <v>7534500000</v>
       </c>
-      <c r="AC106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AD106" s="13">
+      <c r="AB106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC106" s="13">
         <v>7534000000</v>
       </c>
+      <c r="AD106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AE106" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AF106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH106" s="13">
+      <c r="AG106" s="13">
         <v>10881000000</v>
       </c>
+      <c r="AH106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI106" s="13" t="s">
         <v>58</v>
       </c>
@@ -14135,12 +14170,12 @@
       <c r="AM106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO106" s="13">
+      <c r="AN106" s="13">
         <v>9652000000</v>
       </c>
+      <c r="AO106" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AP106" s="13" t="s">
         <v>58</v>
       </c>
@@ -14150,38 +14185,38 @@
       <c r="AR106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS106" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT106" s="13">
+      <c r="AS106" s="13">
         <v>25195392857</v>
       </c>
-      <c r="AU106" s="13" t="s">
-        <v>58</v>
+      <c r="AT106" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU106" s="13">
+        <v>27003405797</v>
       </c>
       <c r="AV106" s="13">
-        <v>27003405797</v>
+        <v>27003411765</v>
       </c>
       <c r="AW106" s="13">
-        <v>27003411765</v>
+        <v>28893400000</v>
       </c>
       <c r="AX106" s="13">
-        <v>28893400000</v>
+        <v>28599400000</v>
       </c>
       <c r="AY106" s="13">
-        <v>28599400000</v>
+        <v>29112111888</v>
       </c>
       <c r="AZ106" s="13">
-        <v>29112111888</v>
+        <v>30492522124</v>
       </c>
       <c r="BA106" s="13">
-        <v>30492522124</v>
+        <v>30454220339</v>
       </c>
       <c r="BB106" s="13">
-        <v>30454220339</v>
+        <v>30917710280</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B107" s="10" t="s">
         <v>64</v>
       </c>
@@ -14249,33 +14284,33 @@
       <c r="X107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y107" s="11" t="s">
-        <v>58</v>
+      <c r="Y107" s="11">
+        <v>4825038462</v>
       </c>
       <c r="Z107" s="11">
-        <v>4825038462</v>
+        <v>6059421053</v>
       </c>
       <c r="AA107" s="11">
-        <v>6059421053</v>
+        <v>6490265625</v>
       </c>
       <c r="AB107" s="11">
-        <v>6490265625</v>
+        <v>6382833333</v>
       </c>
       <c r="AC107" s="11">
-        <v>6382833333</v>
+        <v>5478357143</v>
       </c>
       <c r="AD107" s="11">
-        <v>5478357143</v>
+        <v>6151272727</v>
       </c>
       <c r="AE107" s="11">
-        <v>6151272727</v>
+        <v>6649000000</v>
       </c>
       <c r="AF107" s="11">
-        <v>6649000000</v>
-      </c>
-      <c r="AG107" s="11">
         <v>6610408163</v>
       </c>
+      <c r="AG107" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH107" s="11" t="s">
         <v>58</v>
       </c>
@@ -14315,32 +14350,32 @@
       <c r="AT107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU107" s="11" t="s">
-        <v>58</v>
+      <c r="AU107" s="11">
+        <v>12607310345</v>
       </c>
       <c r="AV107" s="11">
-        <v>12607310345</v>
+        <v>13725250000</v>
       </c>
       <c r="AW107" s="11">
-        <v>13725250000</v>
+        <v>14280875000</v>
       </c>
       <c r="AX107" s="11">
-        <v>14280875000</v>
+        <v>14396078431</v>
       </c>
       <c r="AY107" s="11">
-        <v>14396078431</v>
+        <v>14396068966</v>
       </c>
       <c r="AZ107" s="11">
+        <v>14396000000</v>
+      </c>
+      <c r="BA107" s="11">
+        <v>14396071429</v>
+      </c>
+      <c r="BB107" s="11">
         <v>14396068966</v>
       </c>
-      <c r="BA107" s="11">
-        <v>14396000000</v>
-      </c>
-      <c r="BB107" s="11">
-        <v>14396071429</v>
-      </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B108" s="12" t="s">
         <v>65</v>
       </c>
@@ -14441,65 +14476,65 @@
       <c r="AI108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ108" s="13" t="s">
-        <v>58</v>
+      <c r="AJ108" s="13">
+        <v>2042944444</v>
       </c>
       <c r="AK108" s="13">
-        <v>2042944444</v>
+        <v>5234227273</v>
       </c>
       <c r="AL108" s="13">
-        <v>5234227273</v>
+        <v>2258250000</v>
       </c>
       <c r="AM108" s="13">
-        <v>2258250000</v>
+        <v>6675066667</v>
       </c>
       <c r="AN108" s="13">
-        <v>6675066667</v>
+        <v>7912464286</v>
       </c>
       <c r="AO108" s="13">
-        <v>7912464286</v>
+        <v>2191133333</v>
       </c>
       <c r="AP108" s="13">
-        <v>2191133333</v>
+        <v>1263750000</v>
       </c>
       <c r="AQ108" s="13">
-        <v>1263750000</v>
+        <v>9756700000</v>
       </c>
       <c r="AR108" s="13">
-        <v>9756700000</v>
+        <v>9173627451</v>
       </c>
       <c r="AS108" s="13">
-        <v>9173627451</v>
-      </c>
-      <c r="AT108" s="13">
         <v>7844948454</v>
       </c>
+      <c r="AT108" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AU108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV108" s="13" t="s">
-        <v>58</v>
+      <c r="AV108" s="13">
+        <v>7390809524</v>
       </c>
       <c r="AW108" s="13">
-        <v>7390809524</v>
+        <v>3132711111</v>
       </c>
       <c r="AX108" s="13">
-        <v>3132711111</v>
+        <v>3921557252</v>
       </c>
       <c r="AY108" s="13">
-        <v>3921557252</v>
+        <v>3961557047</v>
       </c>
       <c r="AZ108" s="13">
-        <v>3961557047</v>
+        <v>2785814103</v>
       </c>
       <c r="BA108" s="13">
-        <v>2785814103</v>
+        <v>3218582524</v>
       </c>
       <c r="BB108" s="13">
-        <v>3218582524</v>
+        <v>3368763393</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B109" s="8" t="s">
         <v>93</v>
       </c>
@@ -14556,7 +14591,7 @@
       <c r="BA109" s="9"/>
       <c r="BB109" s="9"/>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>70</v>
       </c>
@@ -14633,8 +14668,8 @@
       <c r="AA110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AB110" s="11" t="s">
-        <v>58</v>
+      <c r="AB110" s="11">
+        <v>0</v>
       </c>
       <c r="AC110" s="11">
         <v>0</v>
@@ -14715,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>72</v>
       </c>
@@ -14783,35 +14818,35 @@
       <c r="X111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y111" s="13" t="s">
-        <v>58</v>
+      <c r="Y111" s="13">
+        <v>205535000</v>
       </c>
       <c r="Z111" s="13">
-        <v>205535000</v>
+        <v>144758000</v>
       </c>
       <c r="AA111" s="13">
-        <v>144758000</v>
+        <v>45967800</v>
       </c>
       <c r="AB111" s="13">
-        <v>45967800</v>
+        <v>154828000</v>
       </c>
       <c r="AC111" s="13">
-        <v>154828000</v>
+        <v>103627000</v>
       </c>
       <c r="AD111" s="13">
-        <v>103627000</v>
+        <v>403061000</v>
       </c>
       <c r="AE111" s="13">
-        <v>403061000</v>
+        <v>219925000</v>
       </c>
       <c r="AF111" s="13">
-        <v>219925000</v>
+        <v>265284000</v>
       </c>
       <c r="AG111" s="13">
-        <v>265284000</v>
+        <v>430975000</v>
       </c>
       <c r="AH111" s="13">
-        <v>430975000</v>
+        <v>0</v>
       </c>
       <c r="AI111" s="13">
         <v>0</v>

--- a/database/industries/khodro/khedizel/product/monthly_seprated.xlsx
+++ b/database/industries/khodro/khedizel/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\khodro\khedizel\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\khodro\khedizel\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50301005-90B8-4C5C-9656-AE5827C69D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03293E1-6BA2-47A0-AF1B-9EA1B96E0A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2417" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2354" uniqueCount="95">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>خدیزل-بهمن  دیزل</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -787,12 +787,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -847,7 +847,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -904,7 +904,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1016,7 +1016,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1185,7 +1185,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1397,7 +1397,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1454,7 +1454,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1516,104 +1516,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>20</v>
+      </c>
+      <c r="X11" s="11">
+        <v>39</v>
       </c>
       <c r="Y11" s="11">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="Z11" s="11">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="AA11" s="11">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="AB11" s="11">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="AC11" s="11">
-        <v>17</v>
+        <v>111</v>
       </c>
       <c r="AD11" s="11">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="AE11" s="11">
-        <v>111</v>
+        <v>9</v>
       </c>
       <c r="AF11" s="11">
-        <v>170</v>
+        <v>36</v>
       </c>
       <c r="AG11" s="11">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="AH11" s="11">
-        <v>36</v>
+        <v>189</v>
       </c>
       <c r="AI11" s="11">
-        <v>118</v>
+        <v>174</v>
       </c>
       <c r="AJ11" s="11">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="AK11" s="11">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="AL11" s="11">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="AM11" s="11">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="AN11" s="11">
-        <v>126</v>
+        <v>241</v>
       </c>
       <c r="AO11" s="11">
-        <v>225</v>
+        <v>67</v>
       </c>
       <c r="AP11" s="11">
-        <v>241</v>
+        <v>94</v>
       </c>
       <c r="AQ11" s="11">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="AR11" s="11">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="AS11" s="11">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="AT11" s="11">
-        <v>62</v>
+        <v>327</v>
       </c>
       <c r="AU11" s="11">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="AV11" s="11">
-        <v>327</v>
+        <v>169</v>
       </c>
       <c r="AW11" s="11">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="AX11" s="11">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="AY11" s="11">
-        <v>328</v>
+        <v>220</v>
       </c>
       <c r="AZ11" s="11">
-        <v>207</v>
+        <v>316</v>
       </c>
       <c r="BA11" s="11">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="BB11" s="11">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1675,29 +1675,29 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>0</v>
+      </c>
+      <c r="X12" s="13">
+        <v>12</v>
       </c>
       <c r="Y12" s="13">
         <v>0</v>
       </c>
       <c r="Z12" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA12" s="13">
         <v>0</v>
       </c>
       <c r="AB12" s="13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AC12" s="13">
         <v>0</v>
       </c>
       <c r="AD12" s="13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="13">
         <v>0</v>
@@ -1705,11 +1705,11 @@
       <c r="AF12" s="13">
         <v>0</v>
       </c>
-      <c r="AG12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>0</v>
+      <c r="AG12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI12" s="13" t="s">
         <v>58</v>
@@ -1720,29 +1720,29 @@
       <c r="AK12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN12" s="13">
+      <c r="AL12" s="13">
         <v>1</v>
       </c>
-      <c r="AO12" s="13">
-        <v>0</v>
+      <c r="AM12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR12" s="13" t="s">
-        <v>58</v>
+      <c r="AQ12" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>0</v>
       </c>
       <c r="AS12" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="13">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1861,48 +1861,48 @@
       <c r="AE13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG13" s="11" t="s">
-        <v>58</v>
+      <c r="AF13" s="11">
+        <v>10</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>13</v>
       </c>
       <c r="AH13" s="11">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI13" s="11">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AJ13" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AK13" s="11">
         <v>25</v>
       </c>
       <c r="AL13" s="11">
-        <v>19</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="AM13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN13" s="11">
-        <v>16</v>
-      </c>
-      <c r="AO13" s="11" t="s">
-        <v>58</v>
+        <v>36</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>43</v>
       </c>
       <c r="AP13" s="11">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AQ13" s="11">
-        <v>43</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>56</v>
-      </c>
-      <c r="AS13" s="11">
         <v>41</v>
       </c>
+      <c r="AR13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS13" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT13" s="11" t="s">
         <v>58</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1993,104 +1993,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>4</v>
+      </c>
+      <c r="X14" s="13">
+        <v>4</v>
       </c>
       <c r="Y14" s="13">
+        <v>40</v>
+      </c>
+      <c r="Z14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="13">
+        <v>12</v>
+      </c>
+      <c r="AC14" s="13">
+        <v>38</v>
+      </c>
+      <c r="AD14" s="13">
+        <v>23</v>
+      </c>
+      <c r="AE14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="13">
         <v>4</v>
       </c>
-      <c r="Z14" s="13">
-        <v>4</v>
-      </c>
-      <c r="AA14" s="13">
-        <v>40</v>
-      </c>
-      <c r="AB14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="13">
+      <c r="AG14" s="13">
+        <v>8</v>
+      </c>
+      <c r="AH14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI14" s="13">
         <v>12</v>
       </c>
-      <c r="AE14" s="13">
-        <v>38</v>
-      </c>
-      <c r="AF14" s="13">
-        <v>23</v>
-      </c>
-      <c r="AG14" s="13">
+      <c r="AJ14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>49</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>30</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>24</v>
+      </c>
+      <c r="AP14" s="13">
+        <v>47</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>101</v>
+      </c>
+      <c r="AR14" s="13">
+        <v>5</v>
+      </c>
+      <c r="AS14" s="13">
+        <v>25</v>
+      </c>
+      <c r="AT14" s="13">
+        <v>72</v>
+      </c>
+      <c r="AU14" s="13">
         <v>1</v>
       </c>
-      <c r="AH14" s="13">
-        <v>4</v>
-      </c>
-      <c r="AI14" s="13">
+      <c r="AV14" s="13">
         <v>8</v>
       </c>
-      <c r="AJ14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>12</v>
-      </c>
-      <c r="AL14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO14" s="13">
-        <v>49</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>30</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>24</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>47</v>
-      </c>
-      <c r="AS14" s="13">
-        <v>101</v>
-      </c>
-      <c r="AT14" s="13">
-        <v>5</v>
-      </c>
-      <c r="AU14" s="13">
-        <v>25</v>
-      </c>
-      <c r="AV14" s="13">
-        <v>72</v>
-      </c>
       <c r="AW14" s="13">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="AX14" s="13">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="AY14" s="13">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="AZ14" s="13">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="BA14" s="13">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="BB14" s="13">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2152,42 +2152,42 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>53</v>
+      </c>
+      <c r="X15" s="11">
+        <v>7</v>
       </c>
       <c r="Y15" s="11">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Z15" s="11">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="AA15" s="11">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="AB15" s="11">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="AC15" s="11">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="AD15" s="11">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="11">
-        <v>99</v>
+        <v>155</v>
       </c>
       <c r="AF15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>155</v>
-      </c>
-      <c r="AH15" s="11">
         <v>37</v>
       </c>
+      <c r="AG15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH15" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AI15" s="11" t="s">
         <v>58</v>
       </c>
@@ -2249,7 +2249,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2311,11 +2311,11 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>0</v>
+      </c>
+      <c r="X16" s="13">
+        <v>0</v>
       </c>
       <c r="Y16" s="13">
         <v>0</v>
@@ -2338,11 +2338,11 @@
       <c r="AE16" s="13">
         <v>0</v>
       </c>
-      <c r="AF16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>0</v>
+      <c r="AF16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH16" s="13" t="s">
         <v>58</v>
@@ -2365,50 +2365,50 @@
       <c r="AN16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP16" s="13" t="s">
-        <v>58</v>
+      <c r="AO16" s="13">
+        <v>13</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>18</v>
       </c>
       <c r="AQ16" s="13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR16" s="13">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="AS16" s="13">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AT16" s="13">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="AU16" s="13">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AV16" s="13">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="AW16" s="13">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="AX16" s="13">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="AY16" s="13">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="AZ16" s="13">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BA16" s="13">
-        <v>189</v>
+        <v>80</v>
       </c>
       <c r="BB16" s="13">
-        <v>133</v>
+        <v>251</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2470,104 +2470,104 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>77</v>
+      </c>
+      <c r="X17" s="11">
+        <v>0</v>
       </c>
       <c r="Y17" s="11">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="Z17" s="11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA17" s="11">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="AB17" s="11">
         <v>2</v>
       </c>
       <c r="AC17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="11">
+        <v>7</v>
+      </c>
+      <c r="AE17" s="11">
+        <v>15</v>
+      </c>
+      <c r="AF17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR17" s="11">
+        <v>21</v>
+      </c>
+      <c r="AS17" s="11">
+        <v>47</v>
+      </c>
+      <c r="AT17" s="11">
+        <v>49</v>
+      </c>
+      <c r="AU17" s="11">
+        <v>31</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>32</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>24</v>
+      </c>
+      <c r="AX17" s="11">
         <v>1</v>
       </c>
-      <c r="AD17" s="11">
-        <v>2</v>
-      </c>
-      <c r="AE17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="11">
-        <v>7</v>
-      </c>
-      <c r="AG17" s="11">
-        <v>15</v>
-      </c>
-      <c r="AH17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT17" s="11">
-        <v>21</v>
-      </c>
-      <c r="AU17" s="11">
-        <v>47</v>
-      </c>
-      <c r="AV17" s="11">
-        <v>49</v>
-      </c>
-      <c r="AW17" s="11">
-        <v>31</v>
-      </c>
-      <c r="AX17" s="11">
-        <v>32</v>
-      </c>
       <c r="AY17" s="11">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="AZ17" s="11">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="BA17" s="11">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="BB17" s="11">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2662,71 +2662,71 @@
       <c r="AG18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI18" s="13" t="s">
-        <v>58</v>
+      <c r="AH18" s="13">
+        <v>33</v>
+      </c>
+      <c r="AI18" s="13">
+        <v>24</v>
       </c>
       <c r="AJ18" s="13">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AK18" s="13">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="AL18" s="13">
-        <v>34</v>
+        <v>298</v>
       </c>
       <c r="AM18" s="13">
+        <v>6</v>
+      </c>
+      <c r="AN18" s="13">
+        <v>23</v>
+      </c>
+      <c r="AO18" s="13">
+        <v>23</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>52</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>97</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>5</v>
+      </c>
+      <c r="AT18" s="13">
+        <v>176</v>
+      </c>
+      <c r="AU18" s="13">
+        <v>51</v>
+      </c>
+      <c r="AV18" s="13">
+        <v>102</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>134</v>
+      </c>
+      <c r="AX18" s="13">
+        <v>172</v>
+      </c>
+      <c r="AY18" s="13">
+        <v>233</v>
+      </c>
+      <c r="AZ18" s="13">
         <v>213</v>
       </c>
-      <c r="AN18" s="13">
-        <v>298</v>
-      </c>
-      <c r="AO18" s="13">
-        <v>6</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>23</v>
-      </c>
-      <c r="AQ18" s="13">
-        <v>23</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>52</v>
-      </c>
-      <c r="AS18" s="13">
-        <v>97</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV18" s="13">
-        <v>176</v>
-      </c>
-      <c r="AW18" s="13">
-        <v>51</v>
-      </c>
-      <c r="AX18" s="13">
-        <v>102</v>
-      </c>
-      <c r="AY18" s="13">
-        <v>134</v>
-      </c>
-      <c r="AZ18" s="13">
-        <v>172</v>
-      </c>
       <c r="BA18" s="13">
-        <v>233</v>
+        <v>139</v>
       </c>
       <c r="BB18" s="13">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>66</v>
       </c>
@@ -2787,103 +2787,103 @@
         <v>0</v>
       </c>
       <c r="W19" s="15">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="X19" s="15">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="Y19" s="15">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="Z19" s="15">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AA19" s="15">
+        <v>41</v>
+      </c>
+      <c r="AB19" s="15">
+        <v>333</v>
+      </c>
+      <c r="AC19" s="15">
+        <v>248</v>
+      </c>
+      <c r="AD19" s="15">
+        <v>200</v>
+      </c>
+      <c r="AE19" s="15">
+        <v>180</v>
+      </c>
+      <c r="AF19" s="15">
+        <v>87</v>
+      </c>
+      <c r="AG19" s="15">
+        <v>139</v>
+      </c>
+      <c r="AH19" s="15">
         <v>242</v>
       </c>
-      <c r="AB19" s="15">
-        <v>40</v>
-      </c>
-      <c r="AC19" s="15">
-        <v>41</v>
-      </c>
-      <c r="AD19" s="15">
-        <v>333</v>
-      </c>
-      <c r="AE19" s="15">
-        <v>248</v>
-      </c>
-      <c r="AF19" s="15">
-        <v>200</v>
-      </c>
-      <c r="AG19" s="15">
-        <v>180</v>
-      </c>
-      <c r="AH19" s="15">
-        <v>87</v>
-      </c>
       <c r="AI19" s="15">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="AJ19" s="15">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="AK19" s="15">
-        <v>235</v>
+        <v>429</v>
       </c>
       <c r="AL19" s="15">
-        <v>194</v>
+        <v>441</v>
       </c>
       <c r="AM19" s="15">
-        <v>429</v>
+        <v>280</v>
       </c>
       <c r="AN19" s="15">
-        <v>441</v>
+        <v>330</v>
       </c>
       <c r="AO19" s="15">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="AP19" s="15">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="AQ19" s="15">
-        <v>170</v>
+        <v>442</v>
       </c>
       <c r="AR19" s="15">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="AS19" s="15">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="AT19" s="15">
-        <v>124</v>
+        <v>625</v>
       </c>
       <c r="AU19" s="15">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="AV19" s="15">
-        <v>625</v>
+        <v>376</v>
       </c>
       <c r="AW19" s="15">
-        <v>418</v>
+        <v>698</v>
       </c>
       <c r="AX19" s="15">
-        <v>376</v>
+        <v>599</v>
       </c>
       <c r="AY19" s="15">
-        <v>698</v>
+        <v>809</v>
       </c>
       <c r="AZ19" s="15">
-        <v>599</v>
+        <v>739</v>
       </c>
       <c r="BA19" s="15">
-        <v>809</v>
+        <v>517</v>
       </c>
       <c r="BB19" s="15">
-        <v>739</v>
+        <v>919</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
         <v>67</v>
       </c>
@@ -2940,7 +2940,7 @@
       <c r="BA20" s="17"/>
       <c r="BB20" s="17"/>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>68</v>
       </c>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
         <v>69</v>
       </c>
@@ -3154,7 +3154,7 @@
       <c r="BA22" s="9"/>
       <c r="BB22" s="9"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3225,11 +3225,11 @@
       <c r="Y23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA23" s="11" t="s">
-        <v>58</v>
+      <c r="Z23" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="11">
+        <v>0</v>
       </c>
       <c r="AB23" s="11">
         <v>0</v>
@@ -3246,11 +3246,11 @@
       <c r="AF23" s="11">
         <v>0</v>
       </c>
-      <c r="AG23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="11">
-        <v>0</v>
+      <c r="AG23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI23" s="11" t="s">
         <v>58</v>
@@ -3285,8 +3285,8 @@
       <c r="AS23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT23" s="11">
-        <v>0</v>
+      <c r="AT23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU23" s="11" t="s">
         <v>58</v>
@@ -3297,8 +3297,8 @@
       <c r="AW23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX23" s="11">
-        <v>0</v>
+      <c r="AX23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY23" s="11" t="s">
         <v>58</v>
@@ -3313,7 +3313,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>72</v>
       </c>
@@ -3375,11 +3375,11 @@
       <c r="V24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X24" s="13" t="s">
-        <v>58</v>
+      <c r="W24" s="13">
+        <v>1000</v>
+      </c>
+      <c r="X24" s="13">
+        <v>1000</v>
       </c>
       <c r="Y24" s="13">
         <v>1000</v>
@@ -3397,19 +3397,19 @@
         <v>1000</v>
       </c>
       <c r="AD24" s="13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="13">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF24" s="13">
         <v>0</v>
       </c>
-      <c r="AG24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="13">
-        <v>0</v>
+      <c r="AG24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI24" s="13" t="s">
         <v>58</v>
@@ -3444,8 +3444,8 @@
       <c r="AS24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT24" s="13">
-        <v>0</v>
+      <c r="AT24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU24" s="13" t="s">
         <v>58</v>
@@ -3456,8 +3456,8 @@
       <c r="AW24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX24" s="13">
-        <v>0</v>
+      <c r="AX24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY24" s="13" t="s">
         <v>58</v>
@@ -3472,7 +3472,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>73</v>
       </c>
@@ -3532,11 +3532,11 @@
       <c r="V25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W25" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X25" s="15" t="s">
-        <v>58</v>
+      <c r="W25" s="15">
+        <v>0</v>
+      </c>
+      <c r="X25" s="15">
+        <v>0</v>
       </c>
       <c r="Y25" s="15">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
         <v>74</v>
       </c>
@@ -3690,103 +3690,103 @@
         <v>0</v>
       </c>
       <c r="W26" s="19">
-        <v>0</v>
+        <v>1154</v>
       </c>
       <c r="X26" s="19">
-        <v>0</v>
+        <v>1062</v>
       </c>
       <c r="Y26" s="19">
-        <v>1154</v>
+        <v>1242</v>
       </c>
       <c r="Z26" s="19">
-        <v>1062</v>
+        <v>1040</v>
       </c>
       <c r="AA26" s="19">
-        <v>1242</v>
+        <v>1041</v>
       </c>
       <c r="AB26" s="19">
-        <v>1040</v>
+        <v>1333</v>
       </c>
       <c r="AC26" s="19">
-        <v>1041</v>
+        <v>1248</v>
       </c>
       <c r="AD26" s="19">
-        <v>1333</v>
+        <v>200</v>
       </c>
       <c r="AE26" s="19">
-        <v>1248</v>
+        <v>180</v>
       </c>
       <c r="AF26" s="19">
-        <v>200</v>
+        <v>87</v>
       </c>
       <c r="AG26" s="19">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="AH26" s="19">
-        <v>87</v>
+        <v>242</v>
       </c>
       <c r="AI26" s="19">
-        <v>139</v>
+        <v>235</v>
       </c>
       <c r="AJ26" s="19">
-        <v>242</v>
+        <v>194</v>
       </c>
       <c r="AK26" s="19">
-        <v>235</v>
+        <v>429</v>
       </c>
       <c r="AL26" s="19">
-        <v>194</v>
+        <v>441</v>
       </c>
       <c r="AM26" s="19">
-        <v>429</v>
+        <v>280</v>
       </c>
       <c r="AN26" s="19">
-        <v>441</v>
+        <v>330</v>
       </c>
       <c r="AO26" s="19">
-        <v>280</v>
+        <v>170</v>
       </c>
       <c r="AP26" s="19">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="AQ26" s="19">
-        <v>170</v>
+        <v>442</v>
       </c>
       <c r="AR26" s="19">
-        <v>267</v>
+        <v>124</v>
       </c>
       <c r="AS26" s="19">
-        <v>442</v>
+        <v>357</v>
       </c>
       <c r="AT26" s="19">
-        <v>124</v>
+        <v>625</v>
       </c>
       <c r="AU26" s="19">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="AV26" s="19">
-        <v>625</v>
+        <v>376</v>
       </c>
       <c r="AW26" s="19">
-        <v>418</v>
+        <v>698</v>
       </c>
       <c r="AX26" s="19">
-        <v>376</v>
+        <v>599</v>
       </c>
       <c r="AY26" s="19">
-        <v>698</v>
+        <v>809</v>
       </c>
       <c r="AZ26" s="19">
-        <v>599</v>
+        <v>739</v>
       </c>
       <c r="BA26" s="19">
-        <v>809</v>
+        <v>517</v>
       </c>
       <c r="BB26" s="19">
-        <v>739</v>
+        <v>919</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3841,7 +3841,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3896,7 +3896,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3951,7 +3951,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>75</v>
       </c>
@@ -4108,7 +4108,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4163,7 +4163,7 @@
       <c r="BA31" s="1"/>
       <c r="BB31" s="1"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
         <v>76</v>
       </c>
@@ -4220,7 +4220,7 @@
       <c r="BA32" s="9"/>
       <c r="BB32" s="9"/>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>56</v>
       </c>
@@ -4282,104 +4282,104 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>124</v>
+      </c>
+      <c r="X33" s="11">
+        <v>9</v>
       </c>
       <c r="Y33" s="11">
-        <v>124</v>
+        <v>12</v>
       </c>
       <c r="Z33" s="11">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="AA33" s="11">
         <v>12</v>
       </c>
       <c r="AB33" s="11">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="AC33" s="11">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="AD33" s="11">
-        <v>106</v>
+        <v>60</v>
       </c>
       <c r="AE33" s="11">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="AF33" s="11">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AG33" s="11">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="AH33" s="11">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="AI33" s="11">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="AJ33" s="11">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="AK33" s="11">
-        <v>102</v>
+        <v>236</v>
       </c>
       <c r="AL33" s="11">
-        <v>65</v>
+        <v>301</v>
       </c>
       <c r="AM33" s="11">
-        <v>236</v>
+        <v>64</v>
       </c>
       <c r="AN33" s="11">
+        <v>248</v>
+      </c>
+      <c r="AO33" s="11">
+        <v>305</v>
+      </c>
+      <c r="AP33" s="11">
+        <v>274</v>
+      </c>
+      <c r="AQ33" s="11">
+        <v>161</v>
+      </c>
+      <c r="AR33" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="11">
+        <v>128</v>
+      </c>
+      <c r="AT33" s="11">
+        <v>323</v>
+      </c>
+      <c r="AU33" s="11">
+        <v>159</v>
+      </c>
+      <c r="AV33" s="11">
+        <v>260</v>
+      </c>
+      <c r="AW33" s="11">
+        <v>483</v>
+      </c>
+      <c r="AX33" s="11">
+        <v>234</v>
+      </c>
+      <c r="AY33" s="11">
+        <v>231</v>
+      </c>
+      <c r="AZ33" s="11">
+        <v>127</v>
+      </c>
+      <c r="BA33" s="11">
         <v>301</v>
       </c>
-      <c r="AO33" s="11">
-        <v>64</v>
-      </c>
-      <c r="AP33" s="11">
-        <v>248</v>
-      </c>
-      <c r="AQ33" s="11">
-        <v>305</v>
-      </c>
-      <c r="AR33" s="11">
-        <v>274</v>
-      </c>
-      <c r="AS33" s="11">
-        <v>161</v>
-      </c>
-      <c r="AT33" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU33" s="11">
-        <v>128</v>
-      </c>
-      <c r="AV33" s="11">
-        <v>323</v>
-      </c>
-      <c r="AW33" s="11">
-        <v>159</v>
-      </c>
-      <c r="AX33" s="11">
-        <v>260</v>
-      </c>
-      <c r="AY33" s="11">
-        <v>483</v>
-      </c>
-      <c r="AZ33" s="11">
-        <v>234</v>
-      </c>
-      <c r="BA33" s="11">
-        <v>231</v>
-      </c>
       <c r="BB33" s="11">
-        <v>127</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>59</v>
       </c>
@@ -4441,47 +4441,47 @@
       <c r="V34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>58</v>
+      <c r="W34" s="13">
+        <v>7</v>
+      </c>
+      <c r="X34" s="13">
+        <v>0</v>
       </c>
       <c r="Y34" s="13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z34" s="13">
         <v>0</v>
       </c>
       <c r="AA34" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC34" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD34" s="13">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AE34" s="13">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AF34" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI34" s="13">
+        <v>2</v>
+      </c>
+      <c r="AJ34" s="13">
         <v>1</v>
-      </c>
-      <c r="AG34" s="13">
-        <v>12</v>
-      </c>
-      <c r="AH34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ34" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AK34" s="13">
         <v>2</v>
@@ -4490,25 +4490,25 @@
         <v>1</v>
       </c>
       <c r="AM34" s="13">
-        <v>2</v>
-      </c>
-      <c r="AN34" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AN34" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO34" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="13" t="s">
-        <v>58</v>
+        <v>3</v>
+      </c>
+      <c r="AP34" s="13">
+        <v>5</v>
       </c>
       <c r="AQ34" s="13">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AR34" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT34" s="13">
         <v>0</v>
@@ -4538,7 +4538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
         <v>60</v>
       </c>
@@ -4627,48 +4627,48 @@
       <c r="AE35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF35" s="11" t="s">
-        <v>58</v>
+      <c r="AF35" s="11">
+        <v>0</v>
       </c>
       <c r="AG35" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AH35" s="11">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="11" t="s">
-        <v>58</v>
+        <v>1</v>
+      </c>
+      <c r="AI35" s="11">
+        <v>31</v>
       </c>
       <c r="AJ35" s="11">
+        <v>36</v>
+      </c>
+      <c r="AK35" s="11">
+        <v>32</v>
+      </c>
+      <c r="AL35" s="11">
+        <v>32</v>
+      </c>
+      <c r="AM35" s="11">
+        <v>25</v>
+      </c>
+      <c r="AN35" s="11">
+        <v>22</v>
+      </c>
+      <c r="AO35" s="11">
         <v>1</v>
       </c>
-      <c r="AK35" s="11">
-        <v>31</v>
-      </c>
-      <c r="AL35" s="11">
-        <v>36</v>
-      </c>
-      <c r="AM35" s="11">
-        <v>32</v>
-      </c>
-      <c r="AN35" s="11">
-        <v>32</v>
-      </c>
-      <c r="AO35" s="11">
-        <v>25</v>
-      </c>
       <c r="AP35" s="11">
-        <v>22</v>
+        <v>83</v>
       </c>
       <c r="AQ35" s="11">
-        <v>1</v>
-      </c>
-      <c r="AR35" s="11">
-        <v>83</v>
-      </c>
-      <c r="AS35" s="11">
         <v>61</v>
       </c>
+      <c r="AR35" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS35" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT35" s="11" t="s">
         <v>58</v>
       </c>
@@ -4697,7 +4697,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
         <v>61</v>
       </c>
@@ -4759,104 +4759,104 @@
       <c r="V36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X36" s="13" t="s">
-        <v>58</v>
+      <c r="W36" s="13">
+        <v>10</v>
+      </c>
+      <c r="X36" s="13">
+        <v>7</v>
       </c>
       <c r="Y36" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="13">
+        <v>9</v>
+      </c>
+      <c r="AA36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="13">
+        <v>16</v>
+      </c>
+      <c r="AC36" s="13">
         <v>7</v>
       </c>
-      <c r="AA36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="13">
-        <v>9</v>
-      </c>
-      <c r="AC36" s="13">
-        <v>0</v>
-      </c>
       <c r="AD36" s="13">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AE36" s="13">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AF36" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="13">
+        <v>5</v>
+      </c>
+      <c r="AH36" s="13">
+        <v>6</v>
+      </c>
+      <c r="AI36" s="13">
+        <v>2</v>
+      </c>
+      <c r="AJ36" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK36" s="13">
+        <v>20</v>
+      </c>
+      <c r="AL36" s="13">
+        <v>21</v>
+      </c>
+      <c r="AM36" s="13">
+        <v>2</v>
+      </c>
+      <c r="AN36" s="13">
         <v>4</v>
       </c>
-      <c r="AG36" s="13">
-        <v>27</v>
-      </c>
-      <c r="AH36" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="13">
-        <v>5</v>
-      </c>
-      <c r="AJ36" s="13">
-        <v>6</v>
-      </c>
-      <c r="AK36" s="13">
-        <v>2</v>
-      </c>
-      <c r="AL36" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM36" s="13">
-        <v>20</v>
-      </c>
-      <c r="AN36" s="13">
-        <v>21</v>
-      </c>
       <c r="AO36" s="13">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="AP36" s="13">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="AQ36" s="13">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AR36" s="13">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AS36" s="13">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="AT36" s="13">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AU36" s="13">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="AV36" s="13">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AW36" s="13">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="AX36" s="13">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="AY36" s="13">
-        <v>119</v>
+        <v>39</v>
       </c>
       <c r="AZ36" s="13">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="BA36" s="13">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="BB36" s="13">
-        <v>116</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>62</v>
       </c>
@@ -4918,45 +4918,45 @@
       <c r="V37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="11" t="s">
-        <v>58</v>
+      <c r="W37" s="11">
+        <v>40</v>
+      </c>
+      <c r="X37" s="11">
+        <v>34</v>
       </c>
       <c r="Y37" s="11">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="Z37" s="11">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA37" s="11">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB37" s="11">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="AC37" s="11">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="AD37" s="11">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="AE37" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AF37" s="11">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="AG37" s="11">
-        <v>96</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>25</v>
-      </c>
-      <c r="AI37" s="11">
         <v>33</v>
       </c>
+      <c r="AH37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI37" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ37" s="11" t="s">
         <v>58</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>63</v>
       </c>
@@ -5077,104 +5077,104 @@
       <c r="V38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>58</v>
+      <c r="W38" s="13">
+        <v>3</v>
+      </c>
+      <c r="X38" s="13">
+        <v>0</v>
       </c>
       <c r="Y38" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z38" s="13">
         <v>0</v>
       </c>
       <c r="AA38" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AB38" s="13">
         <v>0</v>
       </c>
       <c r="AC38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL38" s="13">
         <v>1</v>
       </c>
-      <c r="AD38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="13">
-        <v>2</v>
-      </c>
-      <c r="AH38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL38" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="AM38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN38" s="13">
-        <v>1</v>
-      </c>
-      <c r="AO38" s="13" t="s">
-        <v>58</v>
+      <c r="AN38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO38" s="13">
+        <v>0</v>
       </c>
       <c r="AP38" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AQ38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="13" t="s">
-        <v>58</v>
+        <v>28</v>
+      </c>
+      <c r="AR38" s="13">
+        <v>0</v>
       </c>
       <c r="AS38" s="13">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="AT38" s="13">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AU38" s="13">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="AV38" s="13">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="AW38" s="13">
-        <v>15</v>
+        <v>143</v>
       </c>
       <c r="AX38" s="13">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="AY38" s="13">
-        <v>143</v>
+        <v>59</v>
       </c>
       <c r="AZ38" s="13">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="BA38" s="13">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="BB38" s="13">
-        <v>214</v>
+        <v>278</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>64</v>
       </c>
@@ -5236,38 +5236,38 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>26</v>
+      </c>
+      <c r="X39" s="11">
+        <v>57</v>
       </c>
       <c r="Y39" s="11">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="Z39" s="11">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="AA39" s="11">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="AB39" s="11">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC39" s="11">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="AD39" s="11">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="AE39" s="11">
-        <v>23</v>
-      </c>
-      <c r="AF39" s="11">
-        <v>49</v>
-      </c>
-      <c r="AG39" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH39" s="11" t="s">
         <v>58</v>
@@ -5299,41 +5299,41 @@
       <c r="AQ39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS39" s="11" t="s">
-        <v>58</v>
+      <c r="AR39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="11">
+        <v>29</v>
       </c>
       <c r="AT39" s="11">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AU39" s="11">
+        <v>16</v>
+      </c>
+      <c r="AV39" s="11">
+        <v>51</v>
+      </c>
+      <c r="AW39" s="11">
+        <v>87</v>
+      </c>
+      <c r="AX39" s="11">
+        <v>1</v>
+      </c>
+      <c r="AY39" s="11">
+        <v>56</v>
+      </c>
+      <c r="AZ39" s="11">
         <v>29</v>
       </c>
-      <c r="AV39" s="11">
-        <v>16</v>
-      </c>
-      <c r="AW39" s="11">
-        <v>16</v>
-      </c>
-      <c r="AX39" s="11">
-        <v>51</v>
-      </c>
-      <c r="AY39" s="11">
-        <v>87</v>
-      </c>
-      <c r="AZ39" s="11">
-        <v>1</v>
-      </c>
       <c r="BA39" s="11">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="BB39" s="11">
-        <v>29</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>65</v>
       </c>
@@ -5428,71 +5428,71 @@
       <c r="AG40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI40" s="13" t="s">
-        <v>58</v>
+      <c r="AH40" s="13">
+        <v>36</v>
+      </c>
+      <c r="AI40" s="13">
+        <v>22</v>
       </c>
       <c r="AJ40" s="13">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK40" s="13">
-        <v>22</v>
+        <v>210</v>
       </c>
       <c r="AL40" s="13">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="AM40" s="13">
-        <v>210</v>
+        <v>30</v>
       </c>
       <c r="AN40" s="13">
-        <v>280</v>
+        <v>12</v>
       </c>
       <c r="AO40" s="13">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AP40" s="13">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="AQ40" s="13">
-        <v>20</v>
+        <v>97</v>
       </c>
       <c r="AR40" s="13">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="13">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="AT40" s="13">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AU40" s="13">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="AV40" s="13">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="AW40" s="13">
-        <v>45</v>
+        <v>149</v>
       </c>
       <c r="AX40" s="13">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="AY40" s="13">
-        <v>149</v>
+        <v>206</v>
       </c>
       <c r="AZ40" s="13">
-        <v>156</v>
+        <v>224</v>
       </c>
       <c r="BA40" s="13">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="BB40" s="13">
-        <v>224</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>77</v>
       </c>
@@ -5553,103 +5553,103 @@
         <v>0</v>
       </c>
       <c r="W41" s="15">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="X41" s="15">
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="Y41" s="15">
-        <v>210</v>
+        <v>113</v>
       </c>
       <c r="Z41" s="15">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="AA41" s="15">
-        <v>113</v>
+        <v>49</v>
       </c>
       <c r="AB41" s="15">
-        <v>78</v>
+        <v>250</v>
       </c>
       <c r="AC41" s="15">
-        <v>49</v>
+        <v>220</v>
       </c>
       <c r="AD41" s="15">
+        <v>181</v>
+      </c>
+      <c r="AE41" s="15">
         <v>250</v>
       </c>
-      <c r="AE41" s="15">
-        <v>220</v>
-      </c>
       <c r="AF41" s="15">
-        <v>181</v>
+        <v>51</v>
       </c>
       <c r="AG41" s="15">
-        <v>250</v>
+        <v>77</v>
       </c>
       <c r="AH41" s="15">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AI41" s="15">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ41" s="15">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AK41" s="15">
-        <v>159</v>
+        <v>500</v>
       </c>
       <c r="AL41" s="15">
-        <v>134</v>
+        <v>636</v>
       </c>
       <c r="AM41" s="15">
-        <v>500</v>
+        <v>121</v>
       </c>
       <c r="AN41" s="15">
-        <v>636</v>
+        <v>286</v>
       </c>
       <c r="AO41" s="15">
-        <v>121</v>
+        <v>391</v>
       </c>
       <c r="AP41" s="15">
-        <v>286</v>
+        <v>446</v>
       </c>
       <c r="AQ41" s="15">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="AR41" s="15">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="AS41" s="15">
-        <v>418</v>
+        <v>272</v>
       </c>
       <c r="AT41" s="15">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="AU41" s="15">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="AV41" s="15">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="AW41" s="15">
-        <v>253</v>
+        <v>981</v>
       </c>
       <c r="AX41" s="15">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="AY41" s="15">
-        <v>981</v>
+        <v>591</v>
       </c>
       <c r="AZ41" s="15">
-        <v>583</v>
+        <v>710</v>
       </c>
       <c r="BA41" s="15">
-        <v>591</v>
+        <v>762</v>
       </c>
       <c r="BB41" s="15">
-        <v>710</v>
+        <v>950</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>78</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>79</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>69</v>
       </c>
@@ -5920,7 +5920,7 @@
       <c r="BA44" s="9"/>
       <c r="BB44" s="9"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>70</v>
       </c>
@@ -5991,11 +5991,11 @@
       <c r="Y45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA45" s="11" t="s">
-        <v>58</v>
+      <c r="Z45" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="11">
+        <v>0</v>
       </c>
       <c r="AB45" s="11">
         <v>0</v>
@@ -6012,11 +6012,11 @@
       <c r="AF45" s="11">
         <v>0</v>
       </c>
-      <c r="AG45" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="11">
-        <v>0</v>
+      <c r="AG45" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI45" s="11" t="s">
         <v>58</v>
@@ -6051,8 +6051,8 @@
       <c r="AS45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT45" s="11">
-        <v>0</v>
+      <c r="AT45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU45" s="11" t="s">
         <v>58</v>
@@ -6063,8 +6063,8 @@
       <c r="AW45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX45" s="11">
-        <v>0</v>
+      <c r="AX45" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY45" s="11" t="s">
         <v>58</v>
@@ -6079,7 +6079,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>72</v>
       </c>
@@ -6141,20 +6141,20 @@
       <c r="V46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>58</v>
+      <c r="W46" s="13">
+        <v>1000</v>
+      </c>
+      <c r="X46" s="13">
+        <v>1000</v>
       </c>
       <c r="Y46" s="13">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="Z46" s="13">
         <v>1000</v>
       </c>
       <c r="AA46" s="13">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="AB46" s="13">
         <v>1000</v>
@@ -6169,13 +6169,13 @@
         <v>1000</v>
       </c>
       <c r="AF46" s="13">
-        <v>1000</v>
-      </c>
-      <c r="AG46" s="13">
-        <v>1000</v>
-      </c>
-      <c r="AH46" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI46" s="13" t="s">
         <v>58</v>
@@ -6210,8 +6210,8 @@
       <c r="AS46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT46" s="13">
-        <v>0</v>
+      <c r="AT46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU46" s="13" t="s">
         <v>58</v>
@@ -6222,8 +6222,8 @@
       <c r="AW46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX46" s="13">
-        <v>0</v>
+      <c r="AX46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY46" s="13" t="s">
         <v>58</v>
@@ -6238,7 +6238,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>73</v>
       </c>
@@ -6298,20 +6298,20 @@
       <c r="V47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="15" t="s">
-        <v>58</v>
+      <c r="W47" s="15">
+        <v>1000</v>
+      </c>
+      <c r="X47" s="15">
+        <v>1000</v>
       </c>
       <c r="Y47" s="15">
-        <v>1000</v>
+        <v>5000</v>
       </c>
       <c r="Z47" s="15">
         <v>1000</v>
       </c>
       <c r="AA47" s="15">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="AB47" s="15">
         <v>1000</v>
@@ -6326,10 +6326,10 @@
         <v>1000</v>
       </c>
       <c r="AF47" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="15">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="15">
         <v>0</v>
@@ -6395,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>80</v>
       </c>
@@ -6452,7 +6452,7 @@
       <c r="BA48" s="9"/>
       <c r="BB48" s="9"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>56</v>
       </c>
@@ -6514,26 +6514,26 @@
       <c r="V49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="11" t="s">
-        <v>58</v>
+      <c r="W49" s="11">
+        <v>0</v>
       </c>
       <c r="X49" s="11" t="s">
         <v>58</v>
       </c>
       <c r="Y49" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="11" t="s">
-        <v>58</v>
+        <v>-1</v>
+      </c>
+      <c r="Z49" s="11">
+        <v>0</v>
       </c>
       <c r="AA49" s="11">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="AB49" s="11">
         <v>0</v>
       </c>
       <c r="AC49" s="11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AD49" s="11">
         <v>0</v>
@@ -6541,11 +6541,11 @@
       <c r="AE49" s="11">
         <v>0</v>
       </c>
-      <c r="AF49" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG49" s="11">
-        <v>0</v>
+      <c r="AF49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH49" s="11" t="s">
         <v>58</v>
@@ -6553,35 +6553,35 @@
       <c r="AI49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ49" s="11" t="s">
-        <v>58</v>
+      <c r="AJ49" s="11">
+        <v>1</v>
       </c>
       <c r="AK49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL49" s="11">
+      <c r="AL49" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM49" s="11">
         <v>1</v>
       </c>
-      <c r="AM49" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="AN49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO49" s="11">
-        <v>1</v>
+      <c r="AO49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ49" s="11" t="s">
-        <v>58</v>
+      <c r="AQ49" s="11">
+        <v>14</v>
       </c>
       <c r="AR49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS49" s="11">
-        <v>14</v>
+      <c r="AS49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT49" s="11" t="s">
         <v>58</v>
@@ -6595,8 +6595,8 @@
       <c r="AW49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX49" s="11">
-        <v>0</v>
+      <c r="AX49" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY49" s="11" t="s">
         <v>58</v>
@@ -6611,7 +6611,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>59</v>
       </c>
@@ -6733,14 +6733,14 @@
       <c r="AP50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ50" s="13" t="s">
-        <v>58</v>
+      <c r="AQ50" s="13">
+        <v>8</v>
       </c>
       <c r="AR50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS50" s="13">
-        <v>8</v>
+      <c r="AS50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT50" s="13" t="s">
         <v>58</v>
@@ -6770,7 +6770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>60</v>
       </c>
@@ -6844,14 +6844,14 @@
       <c r="Z51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB51" s="11" t="s">
-        <v>58</v>
+      <c r="AA51" s="11">
+        <v>-1</v>
+      </c>
+      <c r="AB51" s="11">
+        <v>0</v>
       </c>
       <c r="AC51" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="11">
         <v>0</v>
@@ -6859,11 +6859,11 @@
       <c r="AE51" s="11">
         <v>0</v>
       </c>
-      <c r="AF51" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG51" s="11">
-        <v>0</v>
+      <c r="AF51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH51" s="11" t="s">
         <v>58</v>
@@ -6892,14 +6892,14 @@
       <c r="AP51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ51" s="11" t="s">
-        <v>58</v>
+      <c r="AQ51" s="11">
+        <v>6</v>
       </c>
       <c r="AR51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS51" s="11">
-        <v>6</v>
+      <c r="AS51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT51" s="11" t="s">
         <v>58</v>
@@ -6929,7 +6929,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>61</v>
       </c>
@@ -7072,8 +7072,8 @@
       <c r="AW52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX52" s="13">
-        <v>0</v>
+      <c r="AX52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY52" s="13" t="s">
         <v>58</v>
@@ -7088,7 +7088,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>70</v>
       </c>
@@ -7219,8 +7219,8 @@
       <c r="AS53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT53" s="11">
-        <v>0</v>
+      <c r="AT53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU53" s="11" t="s">
         <v>58</v>
@@ -7231,8 +7231,8 @@
       <c r="AW53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX53" s="11">
-        <v>0</v>
+      <c r="AX53" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY53" s="11" t="s">
         <v>58</v>
@@ -7247,7 +7247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>72</v>
       </c>
@@ -7309,26 +7309,26 @@
       <c r="V54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>58</v>
+      <c r="W54" s="13">
+        <v>0</v>
+      </c>
+      <c r="X54" s="13">
+        <v>-100</v>
       </c>
       <c r="Y54" s="13">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z54" s="13">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA54" s="13">
         <v>-100</v>
       </c>
       <c r="AB54" s="13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC54" s="13">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AD54" s="13">
         <v>100</v>
@@ -7336,11 +7336,11 @@
       <c r="AE54" s="13">
         <v>100</v>
       </c>
-      <c r="AF54" s="13">
-        <v>100</v>
-      </c>
-      <c r="AG54" s="13">
-        <v>100</v>
+      <c r="AF54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH54" s="13" t="s">
         <v>58</v>
@@ -7378,8 +7378,8 @@
       <c r="AS54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT54" s="13">
-        <v>0</v>
+      <c r="AT54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU54" s="13" t="s">
         <v>58</v>
@@ -7390,8 +7390,8 @@
       <c r="AW54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX54" s="13">
-        <v>0</v>
+      <c r="AX54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY54" s="13" t="s">
         <v>58</v>
@@ -7406,7 +7406,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>63</v>
       </c>
@@ -7474,14 +7474,14 @@
       <c r="X55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z55" s="11" t="s">
-        <v>58</v>
+      <c r="Y55" s="11">
+        <v>-2</v>
+      </c>
+      <c r="Z55" s="11">
+        <v>0</v>
       </c>
       <c r="AA55" s="11">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="AB55" s="11">
         <v>0</v>
@@ -7495,11 +7495,11 @@
       <c r="AE55" s="11">
         <v>0</v>
       </c>
-      <c r="AF55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="11">
-        <v>0</v>
+      <c r="AF55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH55" s="11" t="s">
         <v>58</v>
@@ -7528,14 +7528,14 @@
       <c r="AP55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ55" s="11" t="s">
-        <v>58</v>
+      <c r="AQ55" s="11">
+        <v>3</v>
       </c>
       <c r="AR55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS55" s="11">
-        <v>3</v>
+      <c r="AS55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT55" s="11" t="s">
         <v>58</v>
@@ -7565,7 +7565,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>64</v>
       </c>
@@ -7708,8 +7708,8 @@
       <c r="AW56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX56" s="13">
-        <v>0</v>
+      <c r="AX56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY56" s="13" t="s">
         <v>58</v>
@@ -7724,7 +7724,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>65</v>
       </c>
@@ -7834,26 +7834,26 @@
       <c r="AL57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM57" s="11" t="s">
-        <v>58</v>
+      <c r="AM57" s="11">
+        <v>1</v>
       </c>
       <c r="AN57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO57" s="11">
-        <v>1</v>
+      <c r="AO57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ57" s="11" t="s">
-        <v>58</v>
+      <c r="AQ57" s="11">
+        <v>5</v>
       </c>
       <c r="AR57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS57" s="11">
-        <v>5</v>
+      <c r="AS57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT57" s="11" t="s">
         <v>58</v>
@@ -7867,8 +7867,8 @@
       <c r="AW57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX57" s="11">
-        <v>0</v>
+      <c r="AX57" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AY57" s="11" t="s">
         <v>58</v>
@@ -7883,7 +7883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="18" t="s">
         <v>81</v>
       </c>
@@ -7943,26 +7943,26 @@
       <c r="V58" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X58" s="19" t="s">
-        <v>58</v>
+      <c r="W58" s="19">
+        <v>0</v>
+      </c>
+      <c r="X58" s="19">
+        <v>-100</v>
       </c>
       <c r="Y58" s="19">
-        <v>0</v>
+        <v>-103</v>
       </c>
       <c r="Z58" s="19">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="19">
         <v>-103</v>
       </c>
       <c r="AB58" s="19">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC58" s="19">
-        <v>-103</v>
+        <v>100</v>
       </c>
       <c r="AD58" s="19">
         <v>100</v>
@@ -7971,10 +7971,10 @@
         <v>100</v>
       </c>
       <c r="AF58" s="19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="19">
         <v>0</v>
@@ -7983,34 +7983,34 @@
         <v>0</v>
       </c>
       <c r="AJ58" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK58" s="19">
         <v>0</v>
       </c>
       <c r="AL58" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN58" s="19">
         <v>0</v>
       </c>
       <c r="AO58" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP58" s="19">
         <v>0</v>
       </c>
       <c r="AQ58" s="19">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AR58" s="19">
         <v>0</v>
       </c>
       <c r="AS58" s="19">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AT58" s="19">
         <v>0</v>
@@ -8040,7 +8040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="14" t="s">
         <v>74</v>
       </c>
@@ -8101,103 +8101,103 @@
         <v>0</v>
       </c>
       <c r="W59" s="15">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="X59" s="15">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="Y59" s="15">
-        <v>1210</v>
+        <v>5010</v>
       </c>
       <c r="Z59" s="15">
-        <v>1007</v>
+        <v>1078</v>
       </c>
       <c r="AA59" s="15">
-        <v>5010</v>
+        <v>946</v>
       </c>
       <c r="AB59" s="15">
-        <v>1078</v>
+        <v>1350</v>
       </c>
       <c r="AC59" s="15">
-        <v>946</v>
+        <v>1320</v>
       </c>
       <c r="AD59" s="15">
+        <v>1281</v>
+      </c>
+      <c r="AE59" s="15">
         <v>1350</v>
       </c>
-      <c r="AE59" s="15">
-        <v>1320</v>
-      </c>
       <c r="AF59" s="15">
-        <v>1281</v>
+        <v>51</v>
       </c>
       <c r="AG59" s="15">
-        <v>1350</v>
+        <v>77</v>
       </c>
       <c r="AH59" s="15">
-        <v>51</v>
+        <v>131</v>
       </c>
       <c r="AI59" s="15">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="AJ59" s="15">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AK59" s="15">
-        <v>159</v>
+        <v>500</v>
       </c>
       <c r="AL59" s="15">
-        <v>135</v>
+        <v>636</v>
       </c>
       <c r="AM59" s="15">
-        <v>500</v>
+        <v>123</v>
       </c>
       <c r="AN59" s="15">
-        <v>636</v>
+        <v>286</v>
       </c>
       <c r="AO59" s="15">
-        <v>123</v>
+        <v>391</v>
       </c>
       <c r="AP59" s="15">
-        <v>286</v>
+        <v>446</v>
       </c>
       <c r="AQ59" s="15">
-        <v>391</v>
+        <v>454</v>
       </c>
       <c r="AR59" s="15">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="15">
-        <v>454</v>
+        <v>272</v>
       </c>
       <c r="AT59" s="15">
-        <v>0</v>
+        <v>442</v>
       </c>
       <c r="AU59" s="15">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="AV59" s="15">
-        <v>442</v>
+        <v>506</v>
       </c>
       <c r="AW59" s="15">
-        <v>253</v>
+        <v>981</v>
       </c>
       <c r="AX59" s="15">
-        <v>506</v>
+        <v>583</v>
       </c>
       <c r="AY59" s="15">
-        <v>981</v>
+        <v>591</v>
       </c>
       <c r="AZ59" s="15">
-        <v>583</v>
+        <v>710</v>
       </c>
       <c r="BA59" s="15">
-        <v>591</v>
+        <v>762</v>
       </c>
       <c r="BB59" s="15">
-        <v>710</v>
+        <v>950</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -8252,7 +8252,7 @@
       <c r="BA60" s="1"/>
       <c r="BB60" s="1"/>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -8307,7 +8307,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -8362,7 +8362,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B63" s="7" t="s">
         <v>82</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8574,7 +8574,7 @@
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="8" t="s">
         <v>83</v>
       </c>
@@ -8631,7 +8631,7 @@
       <c r="BA65" s="9"/>
       <c r="BB65" s="9"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>56</v>
       </c>
@@ -8693,104 +8693,104 @@
       <c r="V66" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W66" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X66" s="11" t="s">
-        <v>58</v>
+      <c r="W66" s="11">
+        <v>389236</v>
+      </c>
+      <c r="X66" s="11">
+        <v>36721</v>
       </c>
       <c r="Y66" s="11">
-        <v>389236</v>
+        <v>60851</v>
       </c>
       <c r="Z66" s="11">
-        <v>36721</v>
+        <v>116819</v>
       </c>
       <c r="AA66" s="11">
-        <v>60851</v>
+        <v>57878</v>
       </c>
       <c r="AB66" s="11">
-        <v>116819</v>
+        <v>563209</v>
       </c>
       <c r="AC66" s="11">
-        <v>57878</v>
+        <v>469542</v>
       </c>
       <c r="AD66" s="11">
-        <v>563209</v>
+        <v>309293</v>
       </c>
       <c r="AE66" s="11">
-        <v>469542</v>
+        <v>590644</v>
       </c>
       <c r="AF66" s="11">
-        <v>309293</v>
+        <v>141184</v>
       </c>
       <c r="AG66" s="11">
-        <v>590644</v>
+        <v>212784</v>
       </c>
       <c r="AH66" s="11">
-        <v>141184</v>
+        <v>551152</v>
       </c>
       <c r="AI66" s="11">
-        <v>212784</v>
+        <v>690050</v>
       </c>
       <c r="AJ66" s="11">
-        <v>551152</v>
+        <v>444782</v>
       </c>
       <c r="AK66" s="11">
-        <v>690050</v>
+        <v>1487059</v>
       </c>
       <c r="AL66" s="11">
-        <v>444782</v>
+        <v>1872111</v>
       </c>
       <c r="AM66" s="11">
-        <v>1487059</v>
+        <v>461318</v>
       </c>
       <c r="AN66" s="11">
-        <v>1872111</v>
+        <v>1891362</v>
       </c>
       <c r="AO66" s="11">
-        <v>461318</v>
+        <v>2212592</v>
       </c>
       <c r="AP66" s="11">
-        <v>1891362</v>
+        <v>2019541</v>
       </c>
       <c r="AQ66" s="11">
-        <v>2212592</v>
+        <v>1124707</v>
       </c>
       <c r="AR66" s="11">
-        <v>2019541</v>
+        <v>0</v>
       </c>
       <c r="AS66" s="11">
-        <v>1124707</v>
+        <v>1071281</v>
       </c>
       <c r="AT66" s="11">
-        <v>0</v>
+        <v>2675061</v>
       </c>
       <c r="AU66" s="11">
-        <v>1071281</v>
+        <v>1332729</v>
       </c>
       <c r="AV66" s="11">
-        <v>2675061</v>
+        <v>2165245</v>
       </c>
       <c r="AW66" s="11">
-        <v>1332729</v>
+        <v>4226687</v>
       </c>
       <c r="AX66" s="11">
-        <v>2165245</v>
+        <v>2045911</v>
       </c>
       <c r="AY66" s="11">
-        <v>4226687</v>
+        <v>2035028</v>
       </c>
       <c r="AZ66" s="11">
-        <v>2045911</v>
+        <v>1074537</v>
       </c>
       <c r="BA66" s="11">
-        <v>2035028</v>
+        <v>2713410</v>
       </c>
       <c r="BB66" s="11">
-        <v>1074537</v>
+        <v>3406226</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>59</v>
       </c>
@@ -8852,47 +8852,47 @@
       <c r="V67" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="13" t="s">
-        <v>58</v>
+      <c r="W67" s="13">
+        <v>22947</v>
+      </c>
+      <c r="X67" s="13">
+        <v>0</v>
       </c>
       <c r="Y67" s="13">
-        <v>22947</v>
+        <v>42610</v>
       </c>
       <c r="Z67" s="13">
         <v>0</v>
       </c>
       <c r="AA67" s="13">
-        <v>42610</v>
+        <v>0</v>
       </c>
       <c r="AB67" s="13">
-        <v>0</v>
+        <v>51667</v>
       </c>
       <c r="AC67" s="13">
-        <v>0</v>
+        <v>14091</v>
       </c>
       <c r="AD67" s="13">
-        <v>51667</v>
+        <v>4697</v>
       </c>
       <c r="AE67" s="13">
-        <v>14091</v>
+        <v>56364</v>
       </c>
       <c r="AF67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="13">
+        <v>9394</v>
+      </c>
+      <c r="AJ67" s="13">
         <v>4697</v>
-      </c>
-      <c r="AG67" s="13">
-        <v>56364</v>
-      </c>
-      <c r="AH67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI67" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ67" s="13">
-        <v>0</v>
       </c>
       <c r="AK67" s="13">
         <v>9394</v>
@@ -8901,25 +8901,25 @@
         <v>4697</v>
       </c>
       <c r="AM67" s="13">
-        <v>9394</v>
+        <v>0</v>
       </c>
       <c r="AN67" s="13">
-        <v>4697</v>
+        <v>0</v>
       </c>
       <c r="AO67" s="13">
-        <v>0</v>
+        <v>14091</v>
       </c>
       <c r="AP67" s="13">
-        <v>0</v>
+        <v>23485</v>
       </c>
       <c r="AQ67" s="13">
-        <v>14091</v>
+        <v>37576</v>
       </c>
       <c r="AR67" s="13">
-        <v>23485</v>
+        <v>0</v>
       </c>
       <c r="AS67" s="13">
-        <v>37576</v>
+        <v>0</v>
       </c>
       <c r="AT67" s="13">
         <v>0</v>
@@ -8949,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>60</v>
       </c>
@@ -9038,48 +9038,48 @@
       <c r="AE68" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF68" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG68" s="11" t="s">
-        <v>58</v>
+      <c r="AF68" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="11">
+        <v>0</v>
       </c>
       <c r="AH68" s="11">
-        <v>0</v>
+        <v>4758</v>
       </c>
       <c r="AI68" s="11">
-        <v>0</v>
+        <v>362390</v>
       </c>
       <c r="AJ68" s="11">
-        <v>4758</v>
+        <v>420840</v>
       </c>
       <c r="AK68" s="11">
-        <v>362390</v>
+        <v>374080</v>
       </c>
       <c r="AL68" s="11">
-        <v>420840</v>
+        <v>374080</v>
       </c>
       <c r="AM68" s="11">
-        <v>374080</v>
+        <v>292250</v>
       </c>
       <c r="AN68" s="11">
-        <v>374080</v>
+        <v>259015</v>
       </c>
       <c r="AO68" s="11">
-        <v>292250</v>
+        <v>11690</v>
       </c>
       <c r="AP68" s="11">
-        <v>259015</v>
+        <v>1009715</v>
       </c>
       <c r="AQ68" s="11">
-        <v>11690</v>
-      </c>
-      <c r="AR68" s="11">
-        <v>1009715</v>
-      </c>
-      <c r="AS68" s="11">
         <v>764017</v>
       </c>
+      <c r="AR68" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS68" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT68" s="11" t="s">
         <v>58</v>
       </c>
@@ -9108,7 +9108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>61</v>
       </c>
@@ -9170,104 +9170,104 @@
       <c r="V69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="13" t="s">
-        <v>58</v>
+      <c r="W69" s="13">
+        <v>43431</v>
+      </c>
+      <c r="X69" s="13">
+        <v>40992</v>
       </c>
       <c r="Y69" s="13">
-        <v>43431</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="13">
+        <v>52704</v>
+      </c>
+      <c r="AA69" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="13">
+        <v>93696</v>
+      </c>
+      <c r="AC69" s="13">
         <v>40992</v>
       </c>
-      <c r="AA69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB69" s="13">
-        <v>52704</v>
-      </c>
-      <c r="AC69" s="13">
-        <v>0</v>
-      </c>
       <c r="AD69" s="13">
-        <v>93696</v>
+        <v>23424</v>
       </c>
       <c r="AE69" s="13">
-        <v>40992</v>
+        <v>163968</v>
       </c>
       <c r="AF69" s="13">
-        <v>23424</v>
+        <v>0</v>
       </c>
       <c r="AG69" s="13">
-        <v>163968</v>
+        <v>29280</v>
       </c>
       <c r="AH69" s="13">
-        <v>0</v>
+        <v>35136</v>
       </c>
       <c r="AI69" s="13">
-        <v>29280</v>
+        <v>11712</v>
       </c>
       <c r="AJ69" s="13">
-        <v>35136</v>
+        <v>0</v>
       </c>
       <c r="AK69" s="13">
+        <v>117120</v>
+      </c>
+      <c r="AL69" s="13">
+        <v>122976</v>
+      </c>
+      <c r="AM69" s="13">
         <v>11712</v>
       </c>
-      <c r="AL69" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM69" s="13">
-        <v>117120</v>
-      </c>
       <c r="AN69" s="13">
-        <v>122976</v>
+        <v>34622</v>
       </c>
       <c r="AO69" s="13">
-        <v>11712</v>
+        <v>455459</v>
       </c>
       <c r="AP69" s="13">
-        <v>34622</v>
+        <v>287846</v>
       </c>
       <c r="AQ69" s="13">
-        <v>455459</v>
+        <v>585917</v>
       </c>
       <c r="AR69" s="13">
-        <v>287846</v>
+        <v>0</v>
       </c>
       <c r="AS69" s="13">
-        <v>585917</v>
+        <v>420700</v>
       </c>
       <c r="AT69" s="13">
-        <v>0</v>
+        <v>207938</v>
       </c>
       <c r="AU69" s="13">
-        <v>420700</v>
+        <v>165136</v>
       </c>
       <c r="AV69" s="13">
-        <v>207938</v>
+        <v>178969</v>
       </c>
       <c r="AW69" s="13">
-        <v>165136</v>
+        <v>1154634</v>
       </c>
       <c r="AX69" s="13">
-        <v>178969</v>
+        <v>757065</v>
       </c>
       <c r="AY69" s="13">
-        <v>1154634</v>
+        <v>331959</v>
       </c>
       <c r="AZ69" s="13">
-        <v>757065</v>
+        <v>966118</v>
       </c>
       <c r="BA69" s="13">
-        <v>331959</v>
+        <v>235674</v>
       </c>
       <c r="BB69" s="13">
-        <v>966118</v>
+        <v>296584</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>62</v>
       </c>
@@ -9329,45 +9329,45 @@
       <c r="V70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X70" s="11" t="s">
-        <v>58</v>
+      <c r="W70" s="11">
+        <v>40568</v>
+      </c>
+      <c r="X70" s="11">
+        <v>36638</v>
       </c>
       <c r="Y70" s="11">
-        <v>40568</v>
+        <v>47411</v>
       </c>
       <c r="Z70" s="11">
-        <v>36638</v>
+        <v>42291</v>
       </c>
       <c r="AA70" s="11">
-        <v>47411</v>
+        <v>11527</v>
       </c>
       <c r="AB70" s="11">
-        <v>42291</v>
+        <v>427769</v>
       </c>
       <c r="AC70" s="11">
-        <v>11527</v>
+        <v>163234</v>
       </c>
       <c r="AD70" s="11">
-        <v>427769</v>
+        <v>134437</v>
       </c>
       <c r="AE70" s="11">
-        <v>163234</v>
+        <v>364549</v>
       </c>
       <c r="AF70" s="11">
-        <v>134437</v>
+        <v>190155</v>
       </c>
       <c r="AG70" s="11">
-        <v>364549</v>
-      </c>
-      <c r="AH70" s="11">
-        <v>190155</v>
-      </c>
-      <c r="AI70" s="11">
         <v>122593</v>
       </c>
+      <c r="AH70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI70" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ70" s="11" t="s">
         <v>58</v>
       </c>
@@ -9426,7 +9426,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>63</v>
       </c>
@@ -9488,41 +9488,41 @@
       <c r="V71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X71" s="13" t="s">
-        <v>58</v>
+      <c r="W71" s="13">
+        <v>23567</v>
+      </c>
+      <c r="X71" s="13">
+        <v>0</v>
       </c>
       <c r="Y71" s="13">
-        <v>23567</v>
+        <v>30138</v>
       </c>
       <c r="Z71" s="13">
         <v>0</v>
       </c>
       <c r="AA71" s="13">
-        <v>30138</v>
+        <v>7534</v>
       </c>
       <c r="AB71" s="13">
         <v>0</v>
       </c>
       <c r="AC71" s="13">
-        <v>7534</v>
+        <v>0</v>
       </c>
       <c r="AD71" s="13">
         <v>0</v>
       </c>
       <c r="AE71" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF71" s="13">
-        <v>0</v>
+        <v>21762</v>
+      </c>
+      <c r="AF71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG71" s="13">
-        <v>21762</v>
-      </c>
-      <c r="AH71" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AH71" s="13">
+        <v>0</v>
       </c>
       <c r="AI71" s="13">
         <v>0</v>
@@ -9534,13 +9534,13 @@
         <v>0</v>
       </c>
       <c r="AL71" s="13">
-        <v>0</v>
+        <v>9652</v>
       </c>
       <c r="AM71" s="13">
         <v>0</v>
       </c>
       <c r="AN71" s="13">
-        <v>9652</v>
+        <v>0</v>
       </c>
       <c r="AO71" s="13">
         <v>0</v>
@@ -9549,43 +9549,43 @@
         <v>0</v>
       </c>
       <c r="AQ71" s="13">
-        <v>0</v>
+        <v>705471</v>
       </c>
       <c r="AR71" s="13">
         <v>0</v>
       </c>
       <c r="AS71" s="13">
-        <v>705471</v>
+        <v>1863235</v>
       </c>
       <c r="AT71" s="13">
-        <v>0</v>
+        <v>459058</v>
       </c>
       <c r="AU71" s="13">
-        <v>1863235</v>
+        <v>433401</v>
       </c>
       <c r="AV71" s="13">
-        <v>459058</v>
+        <v>1286973</v>
       </c>
       <c r="AW71" s="13">
-        <v>433401</v>
+        <v>4163032</v>
       </c>
       <c r="AX71" s="13">
-        <v>1286973</v>
+        <v>3445655</v>
       </c>
       <c r="AY71" s="13">
-        <v>4163032</v>
+        <v>1796799</v>
       </c>
       <c r="AZ71" s="13">
-        <v>3445655</v>
+        <v>6616390</v>
       </c>
       <c r="BA71" s="13">
-        <v>1796799</v>
+        <v>4368233</v>
       </c>
       <c r="BB71" s="13">
-        <v>6616390</v>
+        <v>9428464</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>64</v>
       </c>
@@ -9647,38 +9647,38 @@
       <c r="V72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X72" s="11" t="s">
-        <v>58</v>
+      <c r="W72" s="11">
+        <v>125451</v>
+      </c>
+      <c r="X72" s="11">
+        <v>345387</v>
       </c>
       <c r="Y72" s="11">
-        <v>125451</v>
+        <v>415377</v>
       </c>
       <c r="Z72" s="11">
-        <v>345387</v>
+        <v>76594</v>
       </c>
       <c r="AA72" s="11">
-        <v>415377</v>
+        <v>76697</v>
       </c>
       <c r="AB72" s="11">
-        <v>76594</v>
+        <v>67664</v>
       </c>
       <c r="AC72" s="11">
-        <v>76697</v>
+        <v>152927</v>
       </c>
       <c r="AD72" s="11">
-        <v>67664</v>
+        <v>323910</v>
       </c>
       <c r="AE72" s="11">
-        <v>152927</v>
-      </c>
-      <c r="AF72" s="11">
-        <v>323910</v>
-      </c>
-      <c r="AG72" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF72" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG72" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH72" s="11" t="s">
         <v>58</v>
@@ -9710,41 +9710,41 @@
       <c r="AQ72" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AR72" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS72" s="11" t="s">
-        <v>58</v>
+      <c r="AR72" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS72" s="11">
+        <v>365612</v>
       </c>
       <c r="AT72" s="11">
-        <v>0</v>
+        <v>219604</v>
       </c>
       <c r="AU72" s="11">
-        <v>365612</v>
+        <v>228494</v>
       </c>
       <c r="AV72" s="11">
-        <v>219604</v>
+        <v>734200</v>
       </c>
       <c r="AW72" s="11">
-        <v>228494</v>
+        <v>1252458</v>
       </c>
       <c r="AX72" s="11">
-        <v>734200</v>
+        <v>14396</v>
       </c>
       <c r="AY72" s="11">
-        <v>1252458</v>
+        <v>806180</v>
       </c>
       <c r="AZ72" s="11">
-        <v>14396</v>
+        <v>417486</v>
       </c>
       <c r="BA72" s="11">
-        <v>806180</v>
+        <v>964537</v>
       </c>
       <c r="BB72" s="11">
-        <v>417486</v>
+        <v>950141</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>65</v>
       </c>
@@ -9839,71 +9839,71 @@
       <c r="AG73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI73" s="13" t="s">
-        <v>58</v>
+      <c r="AH73" s="13">
+        <v>73546</v>
+      </c>
+      <c r="AI73" s="13">
+        <v>115153</v>
       </c>
       <c r="AJ73" s="13">
-        <v>73546</v>
+        <v>72264</v>
       </c>
       <c r="AK73" s="13">
-        <v>115153</v>
+        <v>1401764</v>
       </c>
       <c r="AL73" s="13">
-        <v>72264</v>
+        <v>2215490</v>
       </c>
       <c r="AM73" s="13">
-        <v>1401764</v>
+        <v>65734</v>
       </c>
       <c r="AN73" s="13">
-        <v>2215490</v>
+        <v>15165</v>
       </c>
       <c r="AO73" s="13">
-        <v>65734</v>
+        <v>195134</v>
       </c>
       <c r="AP73" s="13">
-        <v>15165</v>
+        <v>467855</v>
       </c>
       <c r="AQ73" s="13">
-        <v>195134</v>
+        <v>760960</v>
       </c>
       <c r="AR73" s="13">
-        <v>467855</v>
+        <v>0</v>
       </c>
       <c r="AS73" s="13">
-        <v>760960</v>
+        <v>0</v>
       </c>
       <c r="AT73" s="13">
-        <v>0</v>
+        <v>465621</v>
       </c>
       <c r="AU73" s="13">
-        <v>0</v>
+        <v>140972</v>
       </c>
       <c r="AV73" s="13">
-        <v>465621</v>
+        <v>513724</v>
       </c>
       <c r="AW73" s="13">
-        <v>140972</v>
+        <v>590272</v>
       </c>
       <c r="AX73" s="13">
-        <v>513724</v>
+        <v>434587</v>
       </c>
       <c r="AY73" s="13">
-        <v>590272</v>
+        <v>663028</v>
       </c>
       <c r="AZ73" s="13">
-        <v>434587</v>
+        <v>754603</v>
       </c>
       <c r="BA73" s="13">
-        <v>663028</v>
+        <v>662308</v>
       </c>
       <c r="BB73" s="13">
-        <v>754603</v>
+        <v>601644</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
         <v>77</v>
       </c>
@@ -9964,103 +9964,103 @@
         <v>0</v>
       </c>
       <c r="W74" s="15">
-        <v>0</v>
+        <v>645200</v>
       </c>
       <c r="X74" s="15">
-        <v>0</v>
+        <v>459738</v>
       </c>
       <c r="Y74" s="15">
-        <v>645200</v>
+        <v>596387</v>
       </c>
       <c r="Z74" s="15">
-        <v>459738</v>
+        <v>288408</v>
       </c>
       <c r="AA74" s="15">
-        <v>596387</v>
+        <v>153636</v>
       </c>
       <c r="AB74" s="15">
-        <v>288408</v>
+        <v>1204005</v>
       </c>
       <c r="AC74" s="15">
-        <v>153636</v>
+        <v>840786</v>
       </c>
       <c r="AD74" s="15">
-        <v>1204005</v>
+        <v>795761</v>
       </c>
       <c r="AE74" s="15">
-        <v>840786</v>
+        <v>1197287</v>
       </c>
       <c r="AF74" s="15">
-        <v>795761</v>
+        <v>331339</v>
       </c>
       <c r="AG74" s="15">
-        <v>1197287</v>
+        <v>364657</v>
       </c>
       <c r="AH74" s="15">
-        <v>331339</v>
+        <v>664592</v>
       </c>
       <c r="AI74" s="15">
-        <v>364657</v>
+        <v>1188699</v>
       </c>
       <c r="AJ74" s="15">
-        <v>664592</v>
+        <v>942583</v>
       </c>
       <c r="AK74" s="15">
-        <v>1188699</v>
+        <v>3389417</v>
       </c>
       <c r="AL74" s="15">
-        <v>942583</v>
+        <v>4599006</v>
       </c>
       <c r="AM74" s="15">
-        <v>3389417</v>
+        <v>831014</v>
       </c>
       <c r="AN74" s="15">
-        <v>4599006</v>
+        <v>2200164</v>
       </c>
       <c r="AO74" s="15">
-        <v>831014</v>
+        <v>2888966</v>
       </c>
       <c r="AP74" s="15">
-        <v>2200164</v>
+        <v>3808442</v>
       </c>
       <c r="AQ74" s="15">
-        <v>2888966</v>
+        <v>3978648</v>
       </c>
       <c r="AR74" s="15">
-        <v>3808442</v>
+        <v>0</v>
       </c>
       <c r="AS74" s="15">
-        <v>3978648</v>
+        <v>3720828</v>
       </c>
       <c r="AT74" s="15">
-        <v>0</v>
+        <v>4027282</v>
       </c>
       <c r="AU74" s="15">
-        <v>3720828</v>
+        <v>2300732</v>
       </c>
       <c r="AV74" s="15">
-        <v>4027282</v>
+        <v>4879111</v>
       </c>
       <c r="AW74" s="15">
-        <v>2300732</v>
+        <v>11387083</v>
       </c>
       <c r="AX74" s="15">
-        <v>4879111</v>
+        <v>6697614</v>
       </c>
       <c r="AY74" s="15">
-        <v>11387083</v>
+        <v>5632994</v>
       </c>
       <c r="AZ74" s="15">
-        <v>6697614</v>
+        <v>9829134</v>
       </c>
       <c r="BA74" s="15">
-        <v>5632994</v>
+        <v>8944162</v>
       </c>
       <c r="BB74" s="15">
-        <v>9829134</v>
+        <v>14683059</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="16" t="s">
         <v>85</v>
       </c>
@@ -10117,7 +10117,7 @@
       <c r="BA75" s="17"/>
       <c r="BB75" s="17"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="14" t="s">
         <v>79</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>86</v>
       </c>
@@ -10331,7 +10331,7 @@
       <c r="BA77" s="9"/>
       <c r="BB77" s="9"/>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
         <v>70</v>
       </c>
@@ -10402,11 +10402,11 @@
       <c r="Y78" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z78" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA78" s="11" t="s">
-        <v>58</v>
+      <c r="Z78" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="11">
+        <v>0</v>
       </c>
       <c r="AB78" s="11">
         <v>0</v>
@@ -10421,76 +10421,76 @@
         <v>0</v>
       </c>
       <c r="AF78" s="11">
-        <v>0</v>
+        <v>59861</v>
       </c>
       <c r="AG78" s="11">
-        <v>0</v>
+        <v>137145</v>
       </c>
       <c r="AH78" s="11">
-        <v>59861</v>
+        <v>206704</v>
       </c>
       <c r="AI78" s="11">
-        <v>137145</v>
+        <v>190852</v>
       </c>
       <c r="AJ78" s="11">
-        <v>206704</v>
+        <v>172176</v>
       </c>
       <c r="AK78" s="11">
-        <v>190852</v>
+        <v>211093</v>
       </c>
       <c r="AL78" s="11">
-        <v>172176</v>
+        <v>193568</v>
       </c>
       <c r="AM78" s="11">
-        <v>211093</v>
+        <v>218580</v>
       </c>
       <c r="AN78" s="11">
-        <v>193568</v>
+        <v>269665</v>
       </c>
       <c r="AO78" s="11">
-        <v>218580</v>
+        <v>959793</v>
       </c>
       <c r="AP78" s="11">
-        <v>269665</v>
+        <v>361972</v>
       </c>
       <c r="AQ78" s="11">
-        <v>959793</v>
+        <v>226510</v>
       </c>
       <c r="AR78" s="11">
-        <v>361972</v>
+        <v>157929</v>
       </c>
       <c r="AS78" s="11">
-        <v>226510</v>
+        <v>222591</v>
       </c>
       <c r="AT78" s="11">
-        <v>157929</v>
+        <v>436466</v>
       </c>
       <c r="AU78" s="11">
-        <v>222591</v>
+        <v>247939</v>
       </c>
       <c r="AV78" s="11">
-        <v>436466</v>
+        <v>393539</v>
       </c>
       <c r="AW78" s="11">
-        <v>247939</v>
+        <v>311348</v>
       </c>
       <c r="AX78" s="11">
-        <v>393539</v>
+        <v>335996</v>
       </c>
       <c r="AY78" s="11">
-        <v>311348</v>
+        <v>513735</v>
       </c>
       <c r="AZ78" s="11">
-        <v>335996</v>
+        <v>1245246</v>
       </c>
       <c r="BA78" s="11">
-        <v>513735</v>
+        <v>523817</v>
       </c>
       <c r="BB78" s="11">
-        <v>1245246</v>
+        <v>534134</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
         <v>72</v>
       </c>
@@ -10552,104 +10552,104 @@
       <c r="V79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="13" t="s">
-        <v>58</v>
+      <c r="W79" s="13">
+        <v>205535</v>
+      </c>
+      <c r="X79" s="13">
+        <v>144758</v>
       </c>
       <c r="Y79" s="13">
-        <v>205535</v>
+        <v>229839</v>
       </c>
       <c r="Z79" s="13">
-        <v>144758</v>
+        <v>154828</v>
       </c>
       <c r="AA79" s="13">
-        <v>229839</v>
+        <v>103627</v>
       </c>
       <c r="AB79" s="13">
-        <v>154828</v>
+        <v>403061</v>
       </c>
       <c r="AC79" s="13">
-        <v>103627</v>
+        <v>219925</v>
       </c>
       <c r="AD79" s="13">
-        <v>403061</v>
+        <v>265284</v>
       </c>
       <c r="AE79" s="13">
-        <v>219925</v>
+        <v>430975</v>
       </c>
       <c r="AF79" s="13">
-        <v>265284</v>
+        <v>545</v>
       </c>
       <c r="AG79" s="13">
-        <v>430975</v>
+        <v>1555</v>
       </c>
       <c r="AH79" s="13">
-        <v>545</v>
+        <v>1670</v>
       </c>
       <c r="AI79" s="13">
-        <v>1555</v>
+        <v>1474</v>
       </c>
       <c r="AJ79" s="13">
-        <v>1670</v>
+        <v>1580</v>
       </c>
       <c r="AK79" s="13">
-        <v>1474</v>
+        <v>2418</v>
       </c>
       <c r="AL79" s="13">
-        <v>1580</v>
+        <v>2271</v>
       </c>
       <c r="AM79" s="13">
-        <v>2418</v>
+        <v>3086</v>
       </c>
       <c r="AN79" s="13">
-        <v>2271</v>
+        <v>3177</v>
       </c>
       <c r="AO79" s="13">
-        <v>3086</v>
+        <v>3019</v>
       </c>
       <c r="AP79" s="13">
-        <v>3177</v>
+        <v>2234</v>
       </c>
       <c r="AQ79" s="13">
-        <v>3019</v>
+        <v>186904</v>
       </c>
       <c r="AR79" s="13">
-        <v>2234</v>
+        <v>1471</v>
       </c>
       <c r="AS79" s="13">
-        <v>186904</v>
+        <v>2757</v>
       </c>
       <c r="AT79" s="13">
-        <v>1471</v>
+        <v>355207</v>
       </c>
       <c r="AU79" s="13">
-        <v>2757</v>
+        <v>212784</v>
       </c>
       <c r="AV79" s="13">
-        <v>355207</v>
+        <v>203775</v>
       </c>
       <c r="AW79" s="13">
-        <v>212784</v>
+        <v>310984</v>
       </c>
       <c r="AX79" s="13">
-        <v>203775</v>
+        <v>225176</v>
       </c>
       <c r="AY79" s="13">
-        <v>310984</v>
+        <v>393616</v>
       </c>
       <c r="AZ79" s="13">
-        <v>225176</v>
+        <v>269201</v>
       </c>
       <c r="BA79" s="13">
-        <v>393616</v>
+        <v>287947</v>
       </c>
       <c r="BB79" s="13">
-        <v>269201</v>
+        <v>377730</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
         <v>73</v>
       </c>
@@ -10711,104 +10711,104 @@
       <c r="V80" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W80" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" s="15" t="s">
-        <v>58</v>
+      <c r="W80" s="15">
+        <v>205535</v>
+      </c>
+      <c r="X80" s="15">
+        <v>144758</v>
       </c>
       <c r="Y80" s="15">
-        <v>205535</v>
+        <v>229839</v>
       </c>
       <c r="Z80" s="15">
-        <v>144758</v>
+        <v>154828</v>
       </c>
       <c r="AA80" s="15">
-        <v>229839</v>
+        <v>103627</v>
       </c>
       <c r="AB80" s="15">
-        <v>154828</v>
+        <v>403061</v>
       </c>
       <c r="AC80" s="15">
-        <v>103627</v>
+        <v>219925</v>
       </c>
       <c r="AD80" s="15">
-        <v>403061</v>
+        <v>265284</v>
       </c>
       <c r="AE80" s="15">
-        <v>219925</v>
+        <v>430975</v>
       </c>
       <c r="AF80" s="15">
-        <v>265284</v>
+        <v>60406</v>
       </c>
       <c r="AG80" s="15">
-        <v>430975</v>
+        <v>138700</v>
       </c>
       <c r="AH80" s="15">
-        <v>60406</v>
+        <v>208374</v>
       </c>
       <c r="AI80" s="15">
-        <v>138700</v>
+        <v>192326</v>
       </c>
       <c r="AJ80" s="15">
-        <v>208374</v>
+        <v>173756</v>
       </c>
       <c r="AK80" s="15">
-        <v>192326</v>
+        <v>213511</v>
       </c>
       <c r="AL80" s="15">
-        <v>173756</v>
+        <v>195839</v>
       </c>
       <c r="AM80" s="15">
-        <v>213511</v>
+        <v>221666</v>
       </c>
       <c r="AN80" s="15">
-        <v>195839</v>
+        <v>272842</v>
       </c>
       <c r="AO80" s="15">
-        <v>221666</v>
+        <v>962812</v>
       </c>
       <c r="AP80" s="15">
-        <v>272842</v>
+        <v>364206</v>
       </c>
       <c r="AQ80" s="15">
-        <v>962812</v>
+        <v>413414</v>
       </c>
       <c r="AR80" s="15">
-        <v>364206</v>
+        <v>159400</v>
       </c>
       <c r="AS80" s="15">
-        <v>413414</v>
+        <v>225348</v>
       </c>
       <c r="AT80" s="15">
-        <v>159400</v>
+        <v>791673</v>
       </c>
       <c r="AU80" s="15">
-        <v>225348</v>
+        <v>460723</v>
       </c>
       <c r="AV80" s="15">
-        <v>791673</v>
+        <v>597314</v>
       </c>
       <c r="AW80" s="15">
-        <v>460723</v>
+        <v>622332</v>
       </c>
       <c r="AX80" s="15">
-        <v>597314</v>
+        <v>561172</v>
       </c>
       <c r="AY80" s="15">
-        <v>622332</v>
+        <v>907351</v>
       </c>
       <c r="AZ80" s="15">
-        <v>561172</v>
+        <v>1514447</v>
       </c>
       <c r="BA80" s="15">
-        <v>907351</v>
+        <v>811764</v>
       </c>
       <c r="BB80" s="15">
-        <v>1514447</v>
+        <v>911864</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>87</v>
       </c>
@@ -10865,7 +10865,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>56</v>
       </c>
@@ -10927,26 +10927,26 @@
       <c r="V82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="11" t="s">
-        <v>58</v>
+      <c r="W82" s="11">
+        <v>0</v>
       </c>
       <c r="X82" s="11" t="s">
         <v>58</v>
       </c>
       <c r="Y82" s="11">
-        <v>0</v>
-      </c>
-      <c r="Z82" s="11" t="s">
-        <v>58</v>
+        <v>-2636</v>
+      </c>
+      <c r="Z82" s="11">
+        <v>0</v>
       </c>
       <c r="AA82" s="11">
-        <v>-2636</v>
+        <v>-5272</v>
       </c>
       <c r="AB82" s="11">
         <v>0</v>
       </c>
       <c r="AC82" s="11">
-        <v>-5272</v>
+        <v>0</v>
       </c>
       <c r="AD82" s="11">
         <v>0</v>
@@ -10954,11 +10954,11 @@
       <c r="AE82" s="11">
         <v>0</v>
       </c>
-      <c r="AF82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG82" s="11">
-        <v>0</v>
+      <c r="AF82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH82" s="11" t="s">
         <v>58</v>
@@ -10966,65 +10966,65 @@
       <c r="AI82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK82" s="11" t="s">
-        <v>58</v>
+      <c r="AJ82" s="11">
+        <v>-5490</v>
+      </c>
+      <c r="AK82" s="11">
+        <v>0</v>
       </c>
       <c r="AL82" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM82" s="11">
         <v>-5490</v>
       </c>
-      <c r="AM82" s="11">
-        <v>0</v>
-      </c>
       <c r="AN82" s="11">
         <v>0</v>
       </c>
       <c r="AO82" s="11">
-        <v>-5490</v>
+        <v>0</v>
       </c>
       <c r="AP82" s="11">
         <v>0</v>
       </c>
       <c r="AQ82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR82" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS82" s="11">
         <v>-107182</v>
       </c>
-      <c r="AT82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU82" s="11" t="s">
-        <v>58</v>
+      <c r="AR82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT82" s="11">
+        <v>-9041</v>
+      </c>
+      <c r="AU82" s="11">
+        <v>-31679</v>
       </c>
       <c r="AV82" s="11">
-        <v>-9041</v>
+        <v>0</v>
       </c>
       <c r="AW82" s="11">
-        <v>-31679</v>
+        <v>-8474</v>
       </c>
       <c r="AX82" s="11">
         <v>0</v>
       </c>
       <c r="AY82" s="11">
-        <v>-8474</v>
+        <v>0</v>
       </c>
       <c r="AZ82" s="11">
         <v>0</v>
       </c>
       <c r="BA82" s="11">
-        <v>0</v>
+        <v>-8932</v>
       </c>
       <c r="BB82" s="11">
-        <v>0</v>
+        <v>-18599</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>59</v>
       </c>
@@ -11146,14 +11146,14 @@
       <c r="AP83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ83" s="13" t="s">
-        <v>58</v>
+      <c r="AQ83" s="13">
+        <v>-37576</v>
       </c>
       <c r="AR83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS83" s="13">
-        <v>-37576</v>
+      <c r="AS83" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT83" s="13" t="s">
         <v>58</v>
@@ -11183,7 +11183,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>60</v>
       </c>
@@ -11257,14 +11257,14 @@
       <c r="Z84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AA84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB84" s="11" t="s">
-        <v>58</v>
+      <c r="AA84" s="11">
+        <v>-6649</v>
+      </c>
+      <c r="AB84" s="11">
+        <v>0</v>
       </c>
       <c r="AC84" s="11">
-        <v>-6649</v>
+        <v>0</v>
       </c>
       <c r="AD84" s="11">
         <v>0</v>
@@ -11272,11 +11272,11 @@
       <c r="AE84" s="11">
         <v>0</v>
       </c>
-      <c r="AF84" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG84" s="11">
-        <v>0</v>
+      <c r="AF84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH84" s="11" t="s">
         <v>58</v>
@@ -11293,11 +11293,11 @@
       <c r="AL84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AM84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN84" s="11" t="s">
-        <v>58</v>
+      <c r="AM84" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN84" s="11">
+        <v>0</v>
       </c>
       <c r="AO84" s="11">
         <v>0</v>
@@ -11306,14 +11306,14 @@
         <v>0</v>
       </c>
       <c r="AQ84" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR84" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS84" s="11">
         <v>-70614</v>
       </c>
+      <c r="AR84" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS84" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT84" s="11" t="s">
         <v>58</v>
       </c>
@@ -11342,7 +11342,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>61</v>
       </c>
@@ -11479,14 +11479,14 @@
       <c r="AU85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV85" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW85" s="13" t="s">
-        <v>58</v>
+      <c r="AV85" s="13">
+        <v>-9836</v>
+      </c>
+      <c r="AW85" s="13">
+        <v>0</v>
       </c>
       <c r="AX85" s="13">
-        <v>-9836</v>
+        <v>0</v>
       </c>
       <c r="AY85" s="13">
         <v>0</v>
@@ -11501,7 +11501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>70</v>
       </c>
@@ -11605,62 +11605,62 @@
       <c r="AJ86" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK86" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL86" s="11" t="s">
-        <v>58</v>
+      <c r="AK86" s="11">
+        <v>-1463</v>
+      </c>
+      <c r="AL86" s="11">
+        <v>-1119</v>
       </c>
       <c r="AM86" s="11">
-        <v>-1463</v>
+        <v>-1505</v>
       </c>
       <c r="AN86" s="11">
-        <v>-1119</v>
+        <v>-131</v>
       </c>
       <c r="AO86" s="11">
-        <v>-1505</v>
+        <v>-61</v>
       </c>
       <c r="AP86" s="11">
-        <v>-131</v>
+        <v>-328</v>
       </c>
       <c r="AQ86" s="11">
-        <v>-61</v>
+        <v>-27022</v>
       </c>
       <c r="AR86" s="11">
-        <v>-328</v>
+        <v>-3189</v>
       </c>
       <c r="AS86" s="11">
-        <v>-27022</v>
+        <v>-167</v>
       </c>
       <c r="AT86" s="11">
-        <v>0</v>
+        <v>-891</v>
       </c>
       <c r="AU86" s="11">
-        <v>-167</v>
+        <v>-172</v>
       </c>
       <c r="AV86" s="11">
-        <v>-891</v>
+        <v>-18014</v>
       </c>
       <c r="AW86" s="11">
-        <v>-172</v>
+        <v>-287</v>
       </c>
       <c r="AX86" s="11">
-        <v>-21203</v>
+        <v>-1137</v>
       </c>
       <c r="AY86" s="11">
-        <v>-287</v>
+        <v>-2984</v>
       </c>
       <c r="AZ86" s="11">
-        <v>-1137</v>
+        <v>0</v>
       </c>
       <c r="BA86" s="11">
-        <v>-2984</v>
+        <v>-3358</v>
       </c>
       <c r="BB86" s="11">
-        <v>0</v>
+        <v>-260</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
         <v>72</v>
       </c>
@@ -11722,53 +11722,53 @@
       <c r="V87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="13" t="s">
-        <v>58</v>
+      <c r="W87" s="13">
+        <v>0</v>
+      </c>
+      <c r="X87" s="13">
+        <v>-3097</v>
       </c>
       <c r="Y87" s="13">
-        <v>0</v>
+        <v>-654</v>
       </c>
       <c r="Z87" s="13">
-        <v>-3097</v>
+        <v>0</v>
       </c>
       <c r="AA87" s="13">
-        <v>-654</v>
+        <v>-2303</v>
       </c>
       <c r="AB87" s="13">
-        <v>0</v>
+        <v>-1615</v>
       </c>
       <c r="AC87" s="13">
-        <v>-2303</v>
+        <v>-62</v>
       </c>
       <c r="AD87" s="13">
-        <v>-1615</v>
+        <v>-452</v>
       </c>
       <c r="AE87" s="13">
-        <v>-62</v>
-      </c>
-      <c r="AF87" s="13">
-        <v>-452</v>
+        <v>-116</v>
+      </c>
+      <c r="AF87" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG87" s="13">
-        <v>-116</v>
-      </c>
-      <c r="AH87" s="13" t="s">
-        <v>58</v>
+        <v>-1035</v>
+      </c>
+      <c r="AH87" s="13">
+        <v>-162</v>
       </c>
       <c r="AI87" s="13">
-        <v>-1035</v>
+        <v>-261</v>
       </c>
       <c r="AJ87" s="13">
-        <v>-162</v>
+        <v>-170</v>
       </c>
       <c r="AK87" s="13">
-        <v>-261</v>
+        <v>0</v>
       </c>
       <c r="AL87" s="13">
-        <v>-170</v>
+        <v>0</v>
       </c>
       <c r="AM87" s="13">
         <v>0</v>
@@ -11785,8 +11785,8 @@
       <c r="AQ87" s="13">
         <v>0</v>
       </c>
-      <c r="AR87" s="13">
-        <v>0</v>
+      <c r="AR87" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS87" s="13">
         <v>0</v>
@@ -11804,7 +11804,7 @@
         <v>0</v>
       </c>
       <c r="AX87" s="13">
-        <v>3189</v>
+        <v>0</v>
       </c>
       <c r="AY87" s="13">
         <v>0</v>
@@ -11819,7 +11819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>63</v>
       </c>
@@ -11887,14 +11887,14 @@
       <c r="X88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z88" s="11" t="s">
-        <v>58</v>
+      <c r="Y88" s="11">
+        <v>-15069</v>
+      </c>
+      <c r="Z88" s="11">
+        <v>0</v>
       </c>
       <c r="AA88" s="11">
-        <v>-15069</v>
+        <v>0</v>
       </c>
       <c r="AB88" s="11">
         <v>0</v>
@@ -11903,16 +11903,16 @@
         <v>0</v>
       </c>
       <c r="AD88" s="11">
-        <v>0</v>
+        <v>-4373</v>
       </c>
       <c r="AE88" s="11">
         <v>0</v>
       </c>
-      <c r="AF88" s="11">
-        <v>-4373</v>
-      </c>
-      <c r="AG88" s="11">
-        <v>0</v>
+      <c r="AF88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG88" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH88" s="11" t="s">
         <v>58</v>
@@ -11923,11 +11923,11 @@
       <c r="AJ88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL88" s="11" t="s">
-        <v>58</v>
+      <c r="AK88" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL88" s="11">
+        <v>0</v>
       </c>
       <c r="AM88" s="11">
         <v>0</v>
@@ -11942,14 +11942,14 @@
         <v>0</v>
       </c>
       <c r="AQ88" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR88" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS88" s="11">
         <v>-30386</v>
       </c>
+      <c r="AR88" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS88" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT88" s="11" t="s">
         <v>58</v>
       </c>
@@ -11962,14 +11962,14 @@
       <c r="AW88" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX88" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY88" s="11" t="s">
-        <v>58</v>
+      <c r="AX88" s="11">
+        <v>-28893</v>
+      </c>
+      <c r="AY88" s="11">
+        <v>0</v>
       </c>
       <c r="AZ88" s="11">
-        <v>-28893</v>
+        <v>0</v>
       </c>
       <c r="BA88" s="11">
         <v>0</v>
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>64</v>
       </c>
@@ -12112,14 +12112,14 @@
       <c r="AT89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU89" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV89" s="13" t="s">
-        <v>58</v>
+      <c r="AU89" s="13">
+        <v>-12607</v>
+      </c>
+      <c r="AV89" s="13">
+        <v>0</v>
       </c>
       <c r="AW89" s="13">
-        <v>-12607</v>
+        <v>0</v>
       </c>
       <c r="AX89" s="13">
         <v>0</v>
@@ -12137,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>65</v>
       </c>
@@ -12238,50 +12238,50 @@
       <c r="AI90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK90" s="11" t="s">
-        <v>58</v>
+      <c r="AJ90" s="11">
+        <v>-17405</v>
+      </c>
+      <c r="AK90" s="11">
+        <v>0</v>
       </c>
       <c r="AL90" s="11">
-        <v>-17405</v>
+        <v>0</v>
       </c>
       <c r="AM90" s="11">
-        <v>0</v>
+        <v>-12991</v>
       </c>
       <c r="AN90" s="11">
         <v>0</v>
       </c>
       <c r="AO90" s="11">
-        <v>-12991</v>
+        <v>0</v>
       </c>
       <c r="AP90" s="11">
         <v>0</v>
       </c>
       <c r="AQ90" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR90" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS90" s="11">
         <v>-14148</v>
       </c>
+      <c r="AR90" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS90" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT90" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU90" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV90" s="11" t="s">
-        <v>58</v>
+      <c r="AU90" s="11">
+        <v>-14893</v>
+      </c>
+      <c r="AV90" s="11">
+        <v>-1587</v>
       </c>
       <c r="AW90" s="11">
-        <v>-14893</v>
+        <v>0</v>
       </c>
       <c r="AX90" s="11">
-        <v>-1587</v>
+        <v>0</v>
       </c>
       <c r="AY90" s="11">
         <v>0</v>
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="18" t="s">
         <v>81</v>
       </c>
@@ -12358,104 +12358,104 @@
       <c r="V91" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X91" s="19" t="s">
-        <v>58</v>
+      <c r="W91" s="19">
+        <v>0</v>
+      </c>
+      <c r="X91" s="19">
+        <v>-3097</v>
       </c>
       <c r="Y91" s="19">
-        <v>0</v>
+        <v>-18359</v>
       </c>
       <c r="Z91" s="19">
-        <v>-3097</v>
+        <v>0</v>
       </c>
       <c r="AA91" s="19">
-        <v>-18359</v>
+        <v>-14224</v>
       </c>
       <c r="AB91" s="19">
-        <v>0</v>
+        <v>-1615</v>
       </c>
       <c r="AC91" s="19">
-        <v>-14224</v>
+        <v>-62</v>
       </c>
       <c r="AD91" s="19">
-        <v>-1615</v>
+        <v>-4825</v>
       </c>
       <c r="AE91" s="19">
-        <v>-62</v>
+        <v>-116</v>
       </c>
       <c r="AF91" s="19">
-        <v>-4825</v>
+        <v>0</v>
       </c>
       <c r="AG91" s="19">
-        <v>-116</v>
+        <v>-1035</v>
       </c>
       <c r="AH91" s="19">
-        <v>0</v>
+        <v>-162</v>
       </c>
       <c r="AI91" s="19">
-        <v>-1035</v>
+        <v>-261</v>
       </c>
       <c r="AJ91" s="19">
-        <v>-162</v>
+        <v>-23065</v>
       </c>
       <c r="AK91" s="19">
-        <v>-261</v>
+        <v>-1463</v>
       </c>
       <c r="AL91" s="19">
-        <v>-23065</v>
+        <v>-1119</v>
       </c>
       <c r="AM91" s="19">
-        <v>-1463</v>
+        <v>-19986</v>
       </c>
       <c r="AN91" s="19">
-        <v>-1119</v>
+        <v>-131</v>
       </c>
       <c r="AO91" s="19">
-        <v>-19986</v>
+        <v>-61</v>
       </c>
       <c r="AP91" s="19">
-        <v>-131</v>
+        <v>-328</v>
       </c>
       <c r="AQ91" s="19">
-        <v>-61</v>
+        <v>-286928</v>
       </c>
       <c r="AR91" s="19">
-        <v>-328</v>
+        <v>-3189</v>
       </c>
       <c r="AS91" s="19">
-        <v>-286928</v>
+        <v>-167</v>
       </c>
       <c r="AT91" s="19">
-        <v>-3189</v>
+        <v>-9932</v>
       </c>
       <c r="AU91" s="19">
-        <v>-167</v>
+        <v>-59351</v>
       </c>
       <c r="AV91" s="19">
-        <v>-9932</v>
+        <v>-29437</v>
       </c>
       <c r="AW91" s="19">
-        <v>-59351</v>
+        <v>-8761</v>
       </c>
       <c r="AX91" s="19">
-        <v>-29437</v>
+        <v>-30030</v>
       </c>
       <c r="AY91" s="19">
-        <v>-8761</v>
+        <v>-2984</v>
       </c>
       <c r="AZ91" s="19">
-        <v>-30030</v>
+        <v>0</v>
       </c>
       <c r="BA91" s="19">
-        <v>-2984</v>
+        <v>-12290</v>
       </c>
       <c r="BB91" s="19">
-        <v>0</v>
+        <v>-18859</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>88</v>
       </c>
@@ -12512,7 +12512,7 @@
       <c r="BA92" s="9"/>
       <c r="BB92" s="9"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>89</v>
       </c>
@@ -12574,104 +12574,104 @@
       <c r="V93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W93" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X93" s="11" t="s">
-        <v>58</v>
+      <c r="W93" s="11">
+        <v>-40011</v>
+      </c>
+      <c r="X93" s="11">
+        <v>-13877</v>
       </c>
       <c r="Y93" s="11">
-        <v>-40011</v>
+        <v>-18824</v>
       </c>
       <c r="Z93" s="11">
-        <v>-13877</v>
+        <v>0</v>
       </c>
       <c r="AA93" s="11">
-        <v>-18824</v>
+        <v>-12804</v>
       </c>
       <c r="AB93" s="11">
-        <v>0</v>
+        <v>-18914</v>
       </c>
       <c r="AC93" s="11">
-        <v>-12804</v>
+        <v>-21977</v>
       </c>
       <c r="AD93" s="11">
-        <v>-18914</v>
+        <v>-23570</v>
       </c>
       <c r="AE93" s="11">
-        <v>-21977</v>
+        <v>-19266</v>
       </c>
       <c r="AF93" s="11">
-        <v>-23570</v>
+        <v>-11400</v>
       </c>
       <c r="AG93" s="11">
-        <v>-19266</v>
+        <v>-22632</v>
       </c>
       <c r="AH93" s="11">
-        <v>-11400</v>
+        <v>-27895</v>
       </c>
       <c r="AI93" s="11">
-        <v>-22632</v>
+        <v>-80056</v>
       </c>
       <c r="AJ93" s="11">
-        <v>-27895</v>
+        <v>-78578</v>
       </c>
       <c r="AK93" s="11">
-        <v>-80056</v>
+        <v>-77596</v>
       </c>
       <c r="AL93" s="11">
-        <v>-78578</v>
+        <v>-61991</v>
       </c>
       <c r="AM93" s="11">
-        <v>-77596</v>
+        <v>-45253</v>
       </c>
       <c r="AN93" s="11">
-        <v>-61991</v>
+        <v>-45636</v>
       </c>
       <c r="AO93" s="11">
-        <v>-45253</v>
+        <v>-30643</v>
       </c>
       <c r="AP93" s="11">
-        <v>-45636</v>
+        <v>-47617</v>
       </c>
       <c r="AQ93" s="11">
-        <v>-30643</v>
+        <v>-48126</v>
       </c>
       <c r="AR93" s="11">
-        <v>-47617</v>
+        <v>-23469</v>
       </c>
       <c r="AS93" s="11">
-        <v>-48126</v>
+        <v>-31324</v>
       </c>
       <c r="AT93" s="11">
-        <v>-23469</v>
+        <v>-44385</v>
       </c>
       <c r="AU93" s="11">
-        <v>-31324</v>
+        <v>-34437</v>
       </c>
       <c r="AV93" s="11">
-        <v>-44385</v>
+        <v>-61128</v>
       </c>
       <c r="AW93" s="11">
-        <v>-34437</v>
+        <v>-44357</v>
       </c>
       <c r="AX93" s="11">
-        <v>-61128</v>
+        <v>-33852</v>
       </c>
       <c r="AY93" s="11">
-        <v>-44357</v>
+        <v>-59452</v>
       </c>
       <c r="AZ93" s="11">
-        <v>-33852</v>
+        <v>-71733</v>
       </c>
       <c r="BA93" s="11">
-        <v>-59452</v>
+        <v>-44110</v>
       </c>
       <c r="BB93" s="11">
-        <v>-71733</v>
+        <v>-129881</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="18" t="s">
         <v>74</v>
       </c>
@@ -12732,103 +12732,103 @@
         <v>0</v>
       </c>
       <c r="W94" s="19">
-        <v>0</v>
+        <v>810724</v>
       </c>
       <c r="X94" s="19">
-        <v>0</v>
+        <v>587522</v>
       </c>
       <c r="Y94" s="19">
-        <v>810724</v>
+        <v>789043</v>
       </c>
       <c r="Z94" s="19">
-        <v>587522</v>
+        <v>443236</v>
       </c>
       <c r="AA94" s="19">
-        <v>789043</v>
+        <v>230235</v>
       </c>
       <c r="AB94" s="19">
-        <v>443236</v>
+        <v>1586537</v>
       </c>
       <c r="AC94" s="19">
-        <v>230235</v>
+        <v>1038672</v>
       </c>
       <c r="AD94" s="19">
-        <v>1586537</v>
+        <v>1032650</v>
       </c>
       <c r="AE94" s="19">
-        <v>1038672</v>
+        <v>1608880</v>
       </c>
       <c r="AF94" s="19">
-        <v>1032650</v>
+        <v>380345</v>
       </c>
       <c r="AG94" s="19">
-        <v>1608880</v>
+        <v>479690</v>
       </c>
       <c r="AH94" s="19">
-        <v>380345</v>
+        <v>844909</v>
       </c>
       <c r="AI94" s="19">
-        <v>479690</v>
+        <v>1300708</v>
       </c>
       <c r="AJ94" s="19">
-        <v>844909</v>
+        <v>1014696</v>
       </c>
       <c r="AK94" s="19">
-        <v>1300708</v>
+        <v>3523869</v>
       </c>
       <c r="AL94" s="19">
-        <v>1014696</v>
+        <v>4731735</v>
       </c>
       <c r="AM94" s="19">
-        <v>3523869</v>
+        <v>987441</v>
       </c>
       <c r="AN94" s="19">
-        <v>4731735</v>
+        <v>2427239</v>
       </c>
       <c r="AO94" s="19">
-        <v>987441</v>
+        <v>3821074</v>
       </c>
       <c r="AP94" s="19">
-        <v>2427239</v>
+        <v>4124703</v>
       </c>
       <c r="AQ94" s="19">
-        <v>3821074</v>
+        <v>4057008</v>
       </c>
       <c r="AR94" s="19">
-        <v>4124703</v>
+        <v>132742</v>
       </c>
       <c r="AS94" s="19">
-        <v>4057008</v>
+        <v>3914685</v>
       </c>
       <c r="AT94" s="19">
-        <v>135931</v>
+        <v>4764638</v>
       </c>
       <c r="AU94" s="19">
-        <v>3914685</v>
+        <v>2667667</v>
       </c>
       <c r="AV94" s="19">
-        <v>4764638</v>
+        <v>5385860</v>
       </c>
       <c r="AW94" s="19">
-        <v>2667667</v>
+        <v>11956297</v>
       </c>
       <c r="AX94" s="19">
-        <v>5385860</v>
+        <v>7194904</v>
       </c>
       <c r="AY94" s="19">
-        <v>11956297</v>
+        <v>6477909</v>
       </c>
       <c r="AZ94" s="19">
-        <v>7194904</v>
+        <v>11271848</v>
       </c>
       <c r="BA94" s="19">
-        <v>6477909</v>
+        <v>9699526</v>
       </c>
       <c r="BB94" s="19">
-        <v>11271848</v>
+        <v>15446183</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -12883,7 +12883,7 @@
       <c r="BA95" s="1"/>
       <c r="BB95" s="1"/>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -12938,7 +12938,7 @@
       <c r="BA96" s="1"/>
       <c r="BB96" s="1"/>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -12993,7 +12993,7 @@
       <c r="BA97" s="1"/>
       <c r="BB97" s="1"/>
     </row>
-    <row r="98" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B98" s="7" t="s">
         <v>90</v>
       </c>
@@ -13150,7 +13150,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -13205,7 +13205,7 @@
       <c r="BA99" s="1"/>
       <c r="BB99" s="1"/>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="8" t="s">
         <v>91</v>
       </c>
@@ -13262,7 +13262,7 @@
       <c r="BA100" s="9"/>
       <c r="BB100" s="9"/>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="10" t="s">
         <v>56</v>
       </c>
@@ -13324,104 +13324,104 @@
       <c r="V101" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W101" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X101" s="11" t="s">
-        <v>58</v>
+      <c r="W101" s="11">
+        <v>3139000000</v>
+      </c>
+      <c r="X101" s="11">
+        <v>4080111111</v>
       </c>
       <c r="Y101" s="11">
-        <v>3139000000</v>
+        <v>5070916667</v>
       </c>
       <c r="Z101" s="11">
-        <v>4080111111</v>
+        <v>4672760000</v>
       </c>
       <c r="AA101" s="11">
-        <v>5070916667</v>
+        <v>4823166667</v>
       </c>
       <c r="AB101" s="11">
-        <v>4672760000</v>
+        <v>5313292453</v>
       </c>
       <c r="AC101" s="11">
-        <v>4823166667</v>
+        <v>5275752809</v>
       </c>
       <c r="AD101" s="11">
-        <v>5313292453</v>
+        <v>5154883333</v>
       </c>
       <c r="AE101" s="11">
-        <v>5275752809</v>
+        <v>5226938053</v>
       </c>
       <c r="AF101" s="11">
-        <v>5154883333</v>
+        <v>5430153846</v>
       </c>
       <c r="AG101" s="11">
-        <v>5226938053</v>
+        <v>5456000000</v>
       </c>
       <c r="AH101" s="11">
-        <v>5430153846</v>
+        <v>6263090909</v>
       </c>
       <c r="AI101" s="11">
-        <v>5456000000</v>
+        <v>6765196078</v>
       </c>
       <c r="AJ101" s="11">
-        <v>6263090909</v>
+        <v>6842800000</v>
       </c>
       <c r="AK101" s="11">
-        <v>6765196078</v>
+        <v>6301097458</v>
       </c>
       <c r="AL101" s="11">
-        <v>6842800000</v>
+        <v>6219637874</v>
       </c>
       <c r="AM101" s="11">
-        <v>6301097458</v>
+        <v>7208093750</v>
       </c>
       <c r="AN101" s="11">
-        <v>6219637874</v>
+        <v>7626459677</v>
       </c>
       <c r="AO101" s="11">
-        <v>7208093750</v>
+        <v>7254400000</v>
       </c>
       <c r="AP101" s="11">
-        <v>7626459677</v>
+        <v>7370587591</v>
       </c>
       <c r="AQ101" s="11">
-        <v>7254400000</v>
-      </c>
-      <c r="AR101" s="11">
-        <v>7370587591</v>
+        <v>6985757764</v>
+      </c>
+      <c r="AR101" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS101" s="11">
-        <v>6985757764</v>
-      </c>
-      <c r="AT101" s="11" t="s">
-        <v>58</v>
+        <v>8369382813</v>
+      </c>
+      <c r="AT101" s="11">
+        <v>8281922601</v>
       </c>
       <c r="AU101" s="11">
-        <v>8369382813</v>
+        <v>8381943396</v>
       </c>
       <c r="AV101" s="11">
-        <v>8281922601</v>
+        <v>8327865385</v>
       </c>
       <c r="AW101" s="11">
-        <v>8381943396</v>
+        <v>8750904762</v>
       </c>
       <c r="AX101" s="11">
-        <v>8327865385</v>
+        <v>8743209402</v>
       </c>
       <c r="AY101" s="11">
-        <v>8750904762</v>
+        <v>8809645022</v>
       </c>
       <c r="AZ101" s="11">
-        <v>8743209402</v>
+        <v>8460921260</v>
       </c>
       <c r="BA101" s="11">
-        <v>8809645022</v>
+        <v>9014651163</v>
       </c>
       <c r="BB101" s="11">
-        <v>8460921260</v>
+        <v>10290712991</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="12" t="s">
         <v>59</v>
       </c>
@@ -13483,26 +13483,26 @@
       <c r="V102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W102" s="13" t="s">
-        <v>58</v>
+      <c r="W102" s="13">
+        <v>3278142857</v>
       </c>
       <c r="X102" s="13" t="s">
         <v>58</v>
       </c>
       <c r="Y102" s="13">
-        <v>3278142857</v>
+        <v>4734444444</v>
       </c>
       <c r="Z102" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA102" s="13">
-        <v>4734444444</v>
-      </c>
-      <c r="AB102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC102" s="13" t="s">
-        <v>58</v>
+      <c r="AA102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB102" s="13">
+        <v>4697000000</v>
+      </c>
+      <c r="AC102" s="13">
+        <v>4697000000</v>
       </c>
       <c r="AD102" s="13">
         <v>4697000000</v>
@@ -13510,20 +13510,20 @@
       <c r="AE102" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AF102" s="13">
+      <c r="AF102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI102" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AG102" s="13">
+      <c r="AJ102" s="13">
         <v>4697000000</v>
-      </c>
-      <c r="AH102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ102" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AK102" s="13">
         <v>4697000000</v>
@@ -13531,26 +13531,26 @@
       <c r="AL102" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AM102" s="13">
+      <c r="AM102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO102" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AN102" s="13">
+      <c r="AP102" s="13">
         <v>4697000000</v>
-      </c>
-      <c r="AO102" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP102" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AQ102" s="13">
         <v>4697000000</v>
       </c>
-      <c r="AR102" s="13">
-        <v>4697000000</v>
-      </c>
-      <c r="AS102" s="13">
-        <v>4697000000</v>
+      <c r="AR102" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS102" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT102" s="13" t="s">
         <v>58</v>
@@ -13580,7 +13580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="10" t="s">
         <v>60</v>
       </c>
@@ -13675,14 +13675,14 @@
       <c r="AG103" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH103" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI103" s="11" t="s">
-        <v>58</v>
+      <c r="AH103" s="11">
+        <v>4758000000</v>
+      </c>
+      <c r="AI103" s="11">
+        <v>11690000000</v>
       </c>
       <c r="AJ103" s="11">
-        <v>4758000000</v>
+        <v>11690000000</v>
       </c>
       <c r="AK103" s="11">
         <v>11690000000</v>
@@ -13694,23 +13694,23 @@
         <v>11690000000</v>
       </c>
       <c r="AN103" s="11">
-        <v>11690000000</v>
+        <v>11773409091</v>
       </c>
       <c r="AO103" s="11">
         <v>11690000000</v>
       </c>
       <c r="AP103" s="11">
-        <v>11773409091</v>
+        <v>12165240964</v>
       </c>
       <c r="AQ103" s="11">
-        <v>11690000000</v>
-      </c>
-      <c r="AR103" s="11">
-        <v>12165240964</v>
-      </c>
-      <c r="AS103" s="11">
         <v>12524868852</v>
       </c>
+      <c r="AR103" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS103" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT103" s="11" t="s">
         <v>58</v>
       </c>
@@ -13739,7 +13739,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="12" t="s">
         <v>61</v>
       </c>
@@ -13801,14 +13801,14 @@
       <c r="V104" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X104" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Y104" s="13">
+      <c r="W104" s="13">
         <v>4343100000</v>
+      </c>
+      <c r="X104" s="13">
+        <v>5856000000</v>
+      </c>
+      <c r="Y104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="Z104" s="13">
         <v>5856000000</v>
@@ -13819,86 +13819,86 @@
       <c r="AB104" s="13">
         <v>5856000000</v>
       </c>
-      <c r="AC104" s="13" t="s">
-        <v>58</v>
+      <c r="AC104" s="13">
+        <v>5856000000</v>
       </c>
       <c r="AD104" s="13">
         <v>5856000000</v>
       </c>
       <c r="AE104" s="13">
+        <v>6072888889</v>
+      </c>
+      <c r="AF104" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG104" s="13">
         <v>5856000000</v>
       </c>
-      <c r="AF104" s="13">
+      <c r="AH104" s="13">
         <v>5856000000</v>
-      </c>
-      <c r="AG104" s="13">
-        <v>6072888889</v>
-      </c>
-      <c r="AH104" s="13" t="s">
-        <v>58</v>
       </c>
       <c r="AI104" s="13">
         <v>5856000000</v>
       </c>
-      <c r="AJ104" s="13">
-        <v>5856000000</v>
+      <c r="AJ104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK104" s="13">
         <v>5856000000</v>
       </c>
-      <c r="AL104" s="13" t="s">
-        <v>58</v>
+      <c r="AL104" s="13">
+        <v>5856000000</v>
       </c>
       <c r="AM104" s="13">
         <v>5856000000</v>
       </c>
       <c r="AN104" s="13">
-        <v>5856000000</v>
+        <v>8655500000</v>
       </c>
       <c r="AO104" s="13">
-        <v>5856000000</v>
+        <v>7346112903</v>
       </c>
       <c r="AP104" s="13">
-        <v>8655500000</v>
+        <v>8722606061</v>
       </c>
       <c r="AQ104" s="13">
-        <v>7346112903</v>
-      </c>
-      <c r="AR104" s="13">
-        <v>8722606061</v>
+        <v>9300269841</v>
+      </c>
+      <c r="AR104" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AS104" s="13">
-        <v>9300269841</v>
-      </c>
-      <c r="AT104" s="13" t="s">
-        <v>58</v>
+        <v>9145652174</v>
+      </c>
+      <c r="AT104" s="13">
+        <v>9040782609</v>
       </c>
       <c r="AU104" s="13">
-        <v>9145652174</v>
+        <v>9174222222</v>
       </c>
       <c r="AV104" s="13">
-        <v>9040782609</v>
+        <v>9419421053</v>
       </c>
       <c r="AW104" s="13">
-        <v>9174222222</v>
+        <v>9702806723</v>
       </c>
       <c r="AX104" s="13">
-        <v>9419421053</v>
+        <v>9583101266</v>
       </c>
       <c r="AY104" s="13">
-        <v>9702806723</v>
+        <v>8511769231</v>
       </c>
       <c r="AZ104" s="13">
-        <v>9583101266</v>
+        <v>8328603448</v>
       </c>
       <c r="BA104" s="13">
-        <v>8511769231</v>
+        <v>8416928571</v>
       </c>
       <c r="BB104" s="13">
-        <v>8328603448</v>
+        <v>8473828571</v>
       </c>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>62</v>
       </c>
@@ -13960,45 +13960,45 @@
       <c r="V105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X105" s="11" t="s">
-        <v>58</v>
+      <c r="W105" s="11">
+        <v>1014200000</v>
+      </c>
+      <c r="X105" s="11">
+        <v>1077588235</v>
       </c>
       <c r="Y105" s="11">
-        <v>1014200000</v>
+        <v>1975458333</v>
       </c>
       <c r="Z105" s="11">
-        <v>1077588235</v>
+        <v>1321593750</v>
       </c>
       <c r="AA105" s="11">
-        <v>1975458333</v>
+        <v>523954545</v>
       </c>
       <c r="AB105" s="11">
-        <v>1321593750</v>
+        <v>4035556604</v>
       </c>
       <c r="AC105" s="11">
-        <v>523954545</v>
+        <v>1665653061</v>
       </c>
       <c r="AD105" s="11">
-        <v>4035556604</v>
+        <v>2006522388</v>
       </c>
       <c r="AE105" s="11">
-        <v>1665653061</v>
+        <v>3797385417</v>
       </c>
       <c r="AF105" s="11">
-        <v>2006522388</v>
+        <v>7606200000</v>
       </c>
       <c r="AG105" s="11">
-        <v>3797385417</v>
-      </c>
-      <c r="AH105" s="11">
-        <v>7606200000</v>
-      </c>
-      <c r="AI105" s="11">
         <v>3714939394</v>
       </c>
+      <c r="AH105" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI105" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ105" s="11" t="s">
         <v>58</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="12" t="s">
         <v>63</v>
       </c>
@@ -14119,38 +14119,38 @@
       <c r="V106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W106" s="13" t="s">
-        <v>58</v>
+      <c r="W106" s="13">
+        <v>7855666667</v>
       </c>
       <c r="X106" s="13" t="s">
         <v>58</v>
       </c>
       <c r="Y106" s="13">
-        <v>7855666667</v>
+        <v>7534500000</v>
       </c>
       <c r="Z106" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AA106" s="13">
-        <v>7534500000</v>
+        <v>7534000000</v>
       </c>
       <c r="AB106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AC106" s="13">
-        <v>7534000000</v>
+      <c r="AC106" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE106" s="13" t="s">
-        <v>58</v>
+      <c r="AE106" s="13">
+        <v>10881000000</v>
       </c>
       <c r="AF106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG106" s="13">
-        <v>10881000000</v>
+      <c r="AG106" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH106" s="13" t="s">
         <v>58</v>
@@ -14164,14 +14164,14 @@
       <c r="AK106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL106" s="13" t="s">
-        <v>58</v>
+      <c r="AL106" s="13">
+        <v>9652000000</v>
       </c>
       <c r="AM106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN106" s="13">
-        <v>9652000000</v>
+      <c r="AN106" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AO106" s="13" t="s">
         <v>58</v>
@@ -14179,44 +14179,44 @@
       <c r="AP106" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ106" s="13" t="s">
-        <v>58</v>
+      <c r="AQ106" s="13">
+        <v>25195392857</v>
       </c>
       <c r="AR106" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AS106" s="13">
-        <v>25195392857</v>
-      </c>
-      <c r="AT106" s="13" t="s">
-        <v>58</v>
+        <v>27003405797</v>
+      </c>
+      <c r="AT106" s="13">
+        <v>27003411765</v>
       </c>
       <c r="AU106" s="13">
-        <v>27003405797</v>
+        <v>28893400000</v>
       </c>
       <c r="AV106" s="13">
-        <v>27003411765</v>
+        <v>28599400000</v>
       </c>
       <c r="AW106" s="13">
-        <v>28893400000</v>
+        <v>29112111888</v>
       </c>
       <c r="AX106" s="13">
-        <v>28599400000</v>
+        <v>30492522124</v>
       </c>
       <c r="AY106" s="13">
-        <v>29112111888</v>
+        <v>30454220339</v>
       </c>
       <c r="AZ106" s="13">
-        <v>30492522124</v>
+        <v>30917710280</v>
       </c>
       <c r="BA106" s="13">
-        <v>30454220339</v>
+        <v>31426136691</v>
       </c>
       <c r="BB106" s="13">
-        <v>30917710280</v>
+        <v>33915338130</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="10" t="s">
         <v>64</v>
       </c>
@@ -14278,36 +14278,36 @@
       <c r="V107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X107" s="11" t="s">
-        <v>58</v>
+      <c r="W107" s="11">
+        <v>4825038462</v>
+      </c>
+      <c r="X107" s="11">
+        <v>6059421053</v>
       </c>
       <c r="Y107" s="11">
-        <v>4825038462</v>
+        <v>6490265625</v>
       </c>
       <c r="Z107" s="11">
-        <v>6059421053</v>
+        <v>6382833333</v>
       </c>
       <c r="AA107" s="11">
-        <v>6490265625</v>
+        <v>5478357143</v>
       </c>
       <c r="AB107" s="11">
-        <v>6382833333</v>
+        <v>6151272727</v>
       </c>
       <c r="AC107" s="11">
-        <v>5478357143</v>
+        <v>6649000000</v>
       </c>
       <c r="AD107" s="11">
-        <v>6151272727</v>
-      </c>
-      <c r="AE107" s="11">
-        <v>6649000000</v>
-      </c>
-      <c r="AF107" s="11">
         <v>6610408163</v>
       </c>
+      <c r="AE107" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AF107" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AG107" s="11" t="s">
         <v>58</v>
       </c>
@@ -14344,38 +14344,38 @@
       <c r="AR107" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT107" s="11" t="s">
-        <v>58</v>
+      <c r="AS107" s="11">
+        <v>12607310345</v>
+      </c>
+      <c r="AT107" s="11">
+        <v>13725250000</v>
       </c>
       <c r="AU107" s="11">
-        <v>12607310345</v>
+        <v>14280875000</v>
       </c>
       <c r="AV107" s="11">
-        <v>13725250000</v>
+        <v>14396078431</v>
       </c>
       <c r="AW107" s="11">
-        <v>14280875000</v>
+        <v>14396068966</v>
       </c>
       <c r="AX107" s="11">
-        <v>14396078431</v>
+        <v>14396000000</v>
       </c>
       <c r="AY107" s="11">
+        <v>14396071429</v>
+      </c>
+      <c r="AZ107" s="11">
         <v>14396068966</v>
       </c>
-      <c r="AZ107" s="11">
-        <v>14396000000</v>
-      </c>
       <c r="BA107" s="11">
-        <v>14396071429</v>
+        <v>14396074627</v>
       </c>
       <c r="BB107" s="11">
-        <v>14396068966</v>
+        <v>14396075758</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="12" t="s">
         <v>65</v>
       </c>
@@ -14470,71 +14470,71 @@
       <c r="AG108" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AH108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI108" s="13" t="s">
-        <v>58</v>
+      <c r="AH108" s="13">
+        <v>2042944444</v>
+      </c>
+      <c r="AI108" s="13">
+        <v>5234227273</v>
       </c>
       <c r="AJ108" s="13">
-        <v>2042944444</v>
+        <v>2258250000</v>
       </c>
       <c r="AK108" s="13">
-        <v>5234227273</v>
+        <v>6675066667</v>
       </c>
       <c r="AL108" s="13">
-        <v>2258250000</v>
+        <v>7912464286</v>
       </c>
       <c r="AM108" s="13">
-        <v>6675066667</v>
+        <v>2191133333</v>
       </c>
       <c r="AN108" s="13">
-        <v>7912464286</v>
+        <v>1263750000</v>
       </c>
       <c r="AO108" s="13">
-        <v>2191133333</v>
+        <v>9756700000</v>
       </c>
       <c r="AP108" s="13">
-        <v>1263750000</v>
+        <v>9173627451</v>
       </c>
       <c r="AQ108" s="13">
-        <v>9756700000</v>
-      </c>
-      <c r="AR108" s="13">
-        <v>9173627451</v>
-      </c>
-      <c r="AS108" s="13">
         <v>7844948454</v>
       </c>
-      <c r="AT108" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU108" s="13" t="s">
-        <v>58</v>
+      <c r="AR108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS108" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT108" s="13">
+        <v>7390809524</v>
+      </c>
+      <c r="AU108" s="13">
+        <v>3132711111</v>
       </c>
       <c r="AV108" s="13">
-        <v>7390809524</v>
+        <v>3921557252</v>
       </c>
       <c r="AW108" s="13">
-        <v>3132711111</v>
+        <v>3961557047</v>
       </c>
       <c r="AX108" s="13">
-        <v>3921557252</v>
+        <v>2785814103</v>
       </c>
       <c r="AY108" s="13">
-        <v>3961557047</v>
+        <v>3218582524</v>
       </c>
       <c r="AZ108" s="13">
-        <v>2785814103</v>
+        <v>3368763393</v>
       </c>
       <c r="BA108" s="13">
-        <v>3218582524</v>
+        <v>2917656388</v>
       </c>
       <c r="BB108" s="13">
-        <v>3368763393</v>
+        <v>2506850000</v>
       </c>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>93</v>
       </c>
@@ -14591,7 +14591,7 @@
       <c r="BA109" s="9"/>
       <c r="BB109" s="9"/>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>70</v>
       </c>
@@ -14662,11 +14662,11 @@
       <c r="Y110" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z110" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA110" s="11" t="s">
-        <v>58</v>
+      <c r="Z110" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA110" s="11">
+        <v>0</v>
       </c>
       <c r="AB110" s="11">
         <v>0</v>
@@ -14750,7 +14750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
         <v>72</v>
       </c>
@@ -14812,38 +14812,38 @@
       <c r="V111" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W111" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X111" s="13" t="s">
-        <v>58</v>
+      <c r="W111" s="13">
+        <v>205535000</v>
+      </c>
+      <c r="X111" s="13">
+        <v>144758000</v>
       </c>
       <c r="Y111" s="13">
-        <v>205535000</v>
+        <v>45967800</v>
       </c>
       <c r="Z111" s="13">
-        <v>144758000</v>
+        <v>154828000</v>
       </c>
       <c r="AA111" s="13">
-        <v>45967800</v>
+        <v>103627000</v>
       </c>
       <c r="AB111" s="13">
-        <v>154828000</v>
+        <v>403061000</v>
       </c>
       <c r="AC111" s="13">
-        <v>103627000</v>
+        <v>219925000</v>
       </c>
       <c r="AD111" s="13">
-        <v>403061000</v>
+        <v>265284000</v>
       </c>
       <c r="AE111" s="13">
-        <v>219925000</v>
+        <v>430975000</v>
       </c>
       <c r="AF111" s="13">
-        <v>265284000</v>
+        <v>0</v>
       </c>
       <c r="AG111" s="13">
-        <v>430975000</v>
+        <v>0</v>
       </c>
       <c r="AH111" s="13">
         <v>0</v>
